--- a/runeCrafterAgenda.xlsx
+++ b/runeCrafterAgenda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Assignments" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,13 +39,10 @@
     <t xml:space="preserve">Leo</t>
   </si>
   <si>
-    <t xml:space="preserve">Render completed rune tree upon creating rune that matches the runic key/display victory msg</t>
+    <t xml:space="preserve">Place 1 level deeper representation of sigils in both inspector and Rune Crafter (show both γ and (α u β) )</t>
   </si>
   <si>
     <t xml:space="preserve">Ryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place 1 level deeper representation of sigils in both inspector and Rune Crafter (show both γ and (α u β) )</t>
   </si>
   <si>
     <t xml:space="preserve">Task</t>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t xml:space="preserve">Render Runic Key in Inspector: generate text for Runic Key (stone and sigil text)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Render completed rune tree upon creating rune that matches the runic key/display victory msg</t>
   </si>
   <si>
     <t xml:space="preserve">Ashish</t>
@@ -264,160 +264,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7F0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF600000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF600000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7F0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF600000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF600000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7F0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF600000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF600000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -538,18 +385,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C500"/>
+  <dimension ref="A1:C499"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,2501 +427,2490 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="n">
-        <v>42581</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7" t="n">
+      <c r="C4" s="7" t="n">
         <v>42588</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+    </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="9"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="9"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="9"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="7"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="9"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="9"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="7"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="9"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="9"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="7"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="9"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="9"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="9"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="9"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="7"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="9"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="7"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="9"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="7"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="9"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="7"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="9"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="9"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="7"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="9"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="9"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="7"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="9"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="9"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="7"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="9"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="9"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="7"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="9"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="9"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="7"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="9"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="9"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="7"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="9"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="9"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="7"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="7"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="9"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="9"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="7"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="7"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="9"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="7"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="7"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="9"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="9"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="7"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="7"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="9"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="9"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="7"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="9"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="9"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="7"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="7"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="9"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="9"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="7"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="9"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="9"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="7"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="7"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="9"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="9"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="7"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="7"/>
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="9"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="9"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="7"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="9"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="9"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="7"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="7"/>
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="9"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="9"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="7"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="9"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="9"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="7"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="7"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="9"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="9"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="7"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="7"/>
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="9"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="9"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="7"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="7"/>
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="9"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="9"/>
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="7"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="7"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="9"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="9"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="7"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="7"/>
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="9"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="9"/>
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="7"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="7"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="9"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="9"/>
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="7"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="7"/>
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="9"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="9"/>
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="7"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="7"/>
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="9"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="9"/>
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="7"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="7"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="9"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="9"/>
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="7"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="7"/>
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="9"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="9"/>
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="7"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="7"/>
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="9"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="9"/>
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="7"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="7"/>
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="9"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="9"/>
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="7"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="7"/>
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="9"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="9"/>
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="7"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="7"/>
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="9"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="9"/>
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="7"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="7"/>
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="9"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8"/>
-      <c r="C158" s="9"/>
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="7"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="7"/>
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="9"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="9"/>
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="7"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="7"/>
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="9"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="9"/>
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="7"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="7"/>
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="9"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="9"/>
+      <c r="A164" s="6"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="7"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="6"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="7"/>
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="9"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="9"/>
+      <c r="A166" s="6"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="7"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="7"/>
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="9"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="9"/>
+      <c r="A168" s="6"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="7"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="6"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="7"/>
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="9"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8"/>
-      <c r="B170" s="8"/>
-      <c r="C170" s="9"/>
+      <c r="A170" s="6"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="7"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="7"/>
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="9"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8"/>
-      <c r="B172" s="8"/>
-      <c r="C172" s="9"/>
+      <c r="A172" s="6"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="7"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="6"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="7"/>
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="9"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="9"/>
+      <c r="A174" s="6"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="7"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="7"/>
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="9"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8"/>
-      <c r="B176" s="8"/>
-      <c r="C176" s="9"/>
+      <c r="A176" s="6"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="7"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="7"/>
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="9"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="9"/>
+      <c r="A178" s="6"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="7"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="6"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="7"/>
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="9"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="8"/>
-      <c r="B180" s="8"/>
-      <c r="C180" s="9"/>
+      <c r="A180" s="6"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="7"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="7"/>
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="9"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="9"/>
+      <c r="A182" s="6"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="7"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="6"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="7"/>
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="9"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8"/>
-      <c r="C184" s="9"/>
+      <c r="A184" s="6"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="7"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="6"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="7"/>
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="9"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="9"/>
+      <c r="A186" s="6"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="7"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="7"/>
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="9"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="8"/>
-      <c r="B188" s="8"/>
-      <c r="C188" s="9"/>
+      <c r="A188" s="6"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="7"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="6"/>
-      <c r="B189" s="6"/>
-      <c r="C189" s="7"/>
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="9"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="8"/>
-      <c r="B190" s="8"/>
-      <c r="C190" s="9"/>
+      <c r="A190" s="6"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="7"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="6"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="7"/>
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="9"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="8"/>
-      <c r="B192" s="8"/>
-      <c r="C192" s="9"/>
+      <c r="A192" s="6"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="7"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="6"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="7"/>
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="9"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="8"/>
-      <c r="B194" s="8"/>
-      <c r="C194" s="9"/>
+      <c r="A194" s="6"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="7"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="6"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="7"/>
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="9"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="8"/>
-      <c r="B196" s="8"/>
-      <c r="C196" s="9"/>
+      <c r="A196" s="6"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="7"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="6"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="7"/>
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="9"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="8"/>
-      <c r="B198" s="8"/>
-      <c r="C198" s="9"/>
+      <c r="A198" s="6"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="7"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
-      <c r="C199" s="7"/>
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="9"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
-      <c r="C200" s="9"/>
+      <c r="A200" s="6"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="7"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="6"/>
-      <c r="B201" s="6"/>
-      <c r="C201" s="7"/>
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="9"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="8"/>
-      <c r="B202" s="8"/>
-      <c r="C202" s="9"/>
+      <c r="A202" s="6"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="7"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="6"/>
-      <c r="B203" s="6"/>
-      <c r="C203" s="7"/>
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="9"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8"/>
-      <c r="B204" s="8"/>
-      <c r="C204" s="9"/>
+      <c r="A204" s="6"/>
+      <c r="B204" s="6"/>
+      <c r="C204" s="7"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="6"/>
-      <c r="B205" s="6"/>
-      <c r="C205" s="7"/>
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="9"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="8"/>
-      <c r="B206" s="8"/>
-      <c r="C206" s="9"/>
+      <c r="A206" s="6"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="7"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="6"/>
-      <c r="B207" s="6"/>
-      <c r="C207" s="7"/>
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="9"/>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
-      <c r="C208" s="9"/>
+      <c r="A208" s="6"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="7"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="6"/>
-      <c r="B209" s="6"/>
-      <c r="C209" s="7"/>
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="9"/>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="8"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="9"/>
+      <c r="A210" s="6"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="7"/>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="6"/>
-      <c r="B211" s="6"/>
-      <c r="C211" s="7"/>
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="9"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
-      <c r="C212" s="9"/>
+      <c r="A212" s="6"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="7"/>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="6"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="7"/>
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="9"/>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="8"/>
-      <c r="B214" s="8"/>
-      <c r="C214" s="9"/>
+      <c r="A214" s="6"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="7"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="6"/>
-      <c r="B215" s="6"/>
-      <c r="C215" s="7"/>
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="9"/>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="8"/>
-      <c r="B216" s="8"/>
-      <c r="C216" s="9"/>
+      <c r="A216" s="6"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="7"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="6"/>
-      <c r="B217" s="6"/>
-      <c r="C217" s="7"/>
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="9"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="8"/>
-      <c r="B218" s="8"/>
-      <c r="C218" s="9"/>
+      <c r="A218" s="6"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="7"/>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="6"/>
-      <c r="B219" s="6"/>
-      <c r="C219" s="7"/>
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="9"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="8"/>
-      <c r="B220" s="8"/>
-      <c r="C220" s="9"/>
+      <c r="A220" s="6"/>
+      <c r="B220" s="6"/>
+      <c r="C220" s="7"/>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="6"/>
-      <c r="B221" s="6"/>
-      <c r="C221" s="7"/>
+      <c r="A221" s="8"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="9"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="8"/>
-      <c r="B222" s="8"/>
-      <c r="C222" s="9"/>
+      <c r="A222" s="6"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="7"/>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="6"/>
-      <c r="B223" s="6"/>
-      <c r="C223" s="7"/>
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="9"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="8"/>
-      <c r="B224" s="8"/>
-      <c r="C224" s="9"/>
+      <c r="A224" s="6"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="7"/>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="6"/>
-      <c r="B225" s="6"/>
-      <c r="C225" s="7"/>
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="9"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="8"/>
-      <c r="B226" s="8"/>
-      <c r="C226" s="9"/>
+      <c r="A226" s="6"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="7"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="6"/>
-      <c r="B227" s="6"/>
-      <c r="C227" s="7"/>
+      <c r="A227" s="8"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="9"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="8"/>
-      <c r="B228" s="8"/>
-      <c r="C228" s="9"/>
+      <c r="A228" s="6"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="7"/>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="6"/>
-      <c r="B229" s="6"/>
-      <c r="C229" s="7"/>
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="9"/>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="8"/>
-      <c r="B230" s="8"/>
-      <c r="C230" s="9"/>
+      <c r="A230" s="6"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="7"/>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="6"/>
-      <c r="B231" s="6"/>
-      <c r="C231" s="7"/>
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="9"/>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="8"/>
-      <c r="B232" s="8"/>
-      <c r="C232" s="9"/>
+      <c r="A232" s="6"/>
+      <c r="B232" s="6"/>
+      <c r="C232" s="7"/>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="6"/>
-      <c r="B233" s="6"/>
-      <c r="C233" s="7"/>
+      <c r="A233" s="8"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="9"/>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="8"/>
-      <c r="B234" s="8"/>
-      <c r="C234" s="9"/>
+      <c r="A234" s="6"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="7"/>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="6"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="7"/>
+      <c r="A235" s="8"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="9"/>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="8"/>
-      <c r="B236" s="8"/>
-      <c r="C236" s="9"/>
+      <c r="A236" s="6"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="7"/>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="6"/>
-      <c r="B237" s="6"/>
-      <c r="C237" s="7"/>
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="9"/>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="8"/>
-      <c r="B238" s="8"/>
-      <c r="C238" s="9"/>
+      <c r="A238" s="6"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="7"/>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="6"/>
-      <c r="B239" s="6"/>
-      <c r="C239" s="7"/>
+      <c r="A239" s="8"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="9"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="8"/>
-      <c r="B240" s="8"/>
-      <c r="C240" s="9"/>
+      <c r="A240" s="6"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="7"/>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="6"/>
-      <c r="B241" s="6"/>
-      <c r="C241" s="7"/>
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="9"/>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="8"/>
-      <c r="B242" s="8"/>
-      <c r="C242" s="9"/>
+      <c r="A242" s="6"/>
+      <c r="B242" s="6"/>
+      <c r="C242" s="7"/>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="6"/>
-      <c r="B243" s="6"/>
-      <c r="C243" s="7"/>
+      <c r="A243" s="8"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="9"/>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="8"/>
-      <c r="B244" s="8"/>
-      <c r="C244" s="9"/>
+      <c r="A244" s="6"/>
+      <c r="B244" s="6"/>
+      <c r="C244" s="7"/>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="6"/>
-      <c r="B245" s="6"/>
-      <c r="C245" s="7"/>
+      <c r="A245" s="8"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="9"/>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="8"/>
-      <c r="B246" s="8"/>
-      <c r="C246" s="9"/>
+      <c r="A246" s="6"/>
+      <c r="B246" s="6"/>
+      <c r="C246" s="7"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="6"/>
-      <c r="B247" s="6"/>
-      <c r="C247" s="7"/>
+      <c r="A247" s="8"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="9"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="8"/>
-      <c r="B248" s="8"/>
-      <c r="C248" s="9"/>
+      <c r="A248" s="6"/>
+      <c r="B248" s="6"/>
+      <c r="C248" s="7"/>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="6"/>
-      <c r="B249" s="6"/>
-      <c r="C249" s="7"/>
+      <c r="A249" s="8"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="9"/>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="8"/>
-      <c r="B250" s="8"/>
-      <c r="C250" s="9"/>
+      <c r="A250" s="6"/>
+      <c r="B250" s="6"/>
+      <c r="C250" s="7"/>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="6"/>
-      <c r="B251" s="6"/>
-      <c r="C251" s="7"/>
+      <c r="A251" s="8"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="9"/>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="8"/>
-      <c r="B252" s="8"/>
-      <c r="C252" s="9"/>
+      <c r="A252" s="6"/>
+      <c r="B252" s="6"/>
+      <c r="C252" s="7"/>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="6"/>
-      <c r="B253" s="6"/>
-      <c r="C253" s="7"/>
+      <c r="A253" s="8"/>
+      <c r="B253" s="8"/>
+      <c r="C253" s="9"/>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="8"/>
-      <c r="B254" s="8"/>
-      <c r="C254" s="9"/>
+      <c r="A254" s="6"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="7"/>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="6"/>
-      <c r="B255" s="6"/>
-      <c r="C255" s="7"/>
+      <c r="A255" s="8"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="9"/>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="8"/>
-      <c r="B256" s="8"/>
-      <c r="C256" s="9"/>
+      <c r="A256" s="6"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="7"/>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="6"/>
-      <c r="B257" s="6"/>
-      <c r="C257" s="7"/>
+      <c r="A257" s="8"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="9"/>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="8"/>
-      <c r="B258" s="8"/>
-      <c r="C258" s="9"/>
+      <c r="A258" s="6"/>
+      <c r="B258" s="6"/>
+      <c r="C258" s="7"/>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="6"/>
-      <c r="B259" s="6"/>
-      <c r="C259" s="7"/>
+      <c r="A259" s="8"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="9"/>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="8"/>
-      <c r="B260" s="8"/>
-      <c r="C260" s="9"/>
+      <c r="A260" s="6"/>
+      <c r="B260" s="6"/>
+      <c r="C260" s="7"/>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="6"/>
-      <c r="B261" s="6"/>
-      <c r="C261" s="7"/>
+      <c r="A261" s="8"/>
+      <c r="B261" s="8"/>
+      <c r="C261" s="9"/>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="8"/>
-      <c r="B262" s="8"/>
-      <c r="C262" s="9"/>
+      <c r="A262" s="6"/>
+      <c r="B262" s="6"/>
+      <c r="C262" s="7"/>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="6"/>
-      <c r="B263" s="6"/>
-      <c r="C263" s="7"/>
+      <c r="A263" s="8"/>
+      <c r="B263" s="8"/>
+      <c r="C263" s="9"/>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="8"/>
-      <c r="B264" s="8"/>
-      <c r="C264" s="9"/>
+      <c r="A264" s="6"/>
+      <c r="B264" s="6"/>
+      <c r="C264" s="7"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="6"/>
-      <c r="B265" s="6"/>
-      <c r="C265" s="7"/>
+      <c r="A265" s="8"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="9"/>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="8"/>
-      <c r="B266" s="8"/>
-      <c r="C266" s="9"/>
+      <c r="A266" s="6"/>
+      <c r="B266" s="6"/>
+      <c r="C266" s="7"/>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="6"/>
-      <c r="B267" s="6"/>
-      <c r="C267" s="7"/>
+      <c r="A267" s="8"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="9"/>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="8"/>
-      <c r="B268" s="8"/>
-      <c r="C268" s="9"/>
+      <c r="A268" s="6"/>
+      <c r="B268" s="6"/>
+      <c r="C268" s="7"/>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="6"/>
-      <c r="B269" s="6"/>
-      <c r="C269" s="7"/>
+      <c r="A269" s="8"/>
+      <c r="B269" s="8"/>
+      <c r="C269" s="9"/>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="8"/>
-      <c r="B270" s="8"/>
-      <c r="C270" s="9"/>
+      <c r="A270" s="6"/>
+      <c r="B270" s="6"/>
+      <c r="C270" s="7"/>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="6"/>
-      <c r="B271" s="6"/>
-      <c r="C271" s="7"/>
+      <c r="A271" s="8"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="9"/>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="8"/>
-      <c r="B272" s="8"/>
-      <c r="C272" s="9"/>
+      <c r="A272" s="6"/>
+      <c r="B272" s="6"/>
+      <c r="C272" s="7"/>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="6"/>
-      <c r="B273" s="6"/>
-      <c r="C273" s="7"/>
+      <c r="A273" s="8"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="9"/>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="8"/>
-      <c r="B274" s="8"/>
-      <c r="C274" s="9"/>
+      <c r="A274" s="6"/>
+      <c r="B274" s="6"/>
+      <c r="C274" s="7"/>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="6"/>
-      <c r="B275" s="6"/>
-      <c r="C275" s="7"/>
+      <c r="A275" s="8"/>
+      <c r="B275" s="8"/>
+      <c r="C275" s="9"/>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="8"/>
-      <c r="B276" s="8"/>
-      <c r="C276" s="9"/>
+      <c r="A276" s="6"/>
+      <c r="B276" s="6"/>
+      <c r="C276" s="7"/>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="6"/>
-      <c r="B277" s="6"/>
-      <c r="C277" s="7"/>
+      <c r="A277" s="8"/>
+      <c r="B277" s="8"/>
+      <c r="C277" s="9"/>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="8"/>
-      <c r="B278" s="8"/>
-      <c r="C278" s="9"/>
+      <c r="A278" s="6"/>
+      <c r="B278" s="6"/>
+      <c r="C278" s="7"/>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="6"/>
-      <c r="B279" s="6"/>
-      <c r="C279" s="7"/>
+      <c r="A279" s="8"/>
+      <c r="B279" s="8"/>
+      <c r="C279" s="9"/>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="8"/>
-      <c r="B280" s="8"/>
-      <c r="C280" s="9"/>
+      <c r="A280" s="6"/>
+      <c r="B280" s="6"/>
+      <c r="C280" s="7"/>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="6"/>
-      <c r="B281" s="6"/>
-      <c r="C281" s="7"/>
+      <c r="A281" s="8"/>
+      <c r="B281" s="8"/>
+      <c r="C281" s="9"/>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="8"/>
-      <c r="B282" s="8"/>
-      <c r="C282" s="9"/>
+      <c r="A282" s="6"/>
+      <c r="B282" s="6"/>
+      <c r="C282" s="7"/>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="6"/>
-      <c r="B283" s="6"/>
-      <c r="C283" s="7"/>
+      <c r="A283" s="8"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="9"/>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="8"/>
-      <c r="B284" s="8"/>
-      <c r="C284" s="9"/>
+      <c r="A284" s="6"/>
+      <c r="B284" s="6"/>
+      <c r="C284" s="7"/>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="6"/>
-      <c r="B285" s="6"/>
-      <c r="C285" s="7"/>
+      <c r="A285" s="8"/>
+      <c r="B285" s="8"/>
+      <c r="C285" s="9"/>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="8"/>
-      <c r="B286" s="8"/>
-      <c r="C286" s="9"/>
+      <c r="A286" s="6"/>
+      <c r="B286" s="6"/>
+      <c r="C286" s="7"/>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="6"/>
-      <c r="B287" s="6"/>
-      <c r="C287" s="7"/>
+      <c r="A287" s="8"/>
+      <c r="B287" s="8"/>
+      <c r="C287" s="9"/>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="8"/>
-      <c r="B288" s="8"/>
-      <c r="C288" s="9"/>
+      <c r="A288" s="6"/>
+      <c r="B288" s="6"/>
+      <c r="C288" s="7"/>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="6"/>
-      <c r="B289" s="6"/>
-      <c r="C289" s="7"/>
+      <c r="A289" s="8"/>
+      <c r="B289" s="8"/>
+      <c r="C289" s="9"/>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="8"/>
-      <c r="B290" s="8"/>
-      <c r="C290" s="9"/>
+      <c r="A290" s="6"/>
+      <c r="B290" s="6"/>
+      <c r="C290" s="7"/>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="6"/>
-      <c r="B291" s="6"/>
-      <c r="C291" s="7"/>
+      <c r="A291" s="8"/>
+      <c r="B291" s="8"/>
+      <c r="C291" s="9"/>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="8"/>
-      <c r="B292" s="8"/>
-      <c r="C292" s="9"/>
+      <c r="A292" s="6"/>
+      <c r="B292" s="6"/>
+      <c r="C292" s="7"/>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="6"/>
-      <c r="B293" s="6"/>
-      <c r="C293" s="7"/>
+      <c r="A293" s="8"/>
+      <c r="B293" s="8"/>
+      <c r="C293" s="9"/>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="8"/>
-      <c r="B294" s="8"/>
-      <c r="C294" s="9"/>
+      <c r="A294" s="6"/>
+      <c r="B294" s="6"/>
+      <c r="C294" s="7"/>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="6"/>
-      <c r="B295" s="6"/>
-      <c r="C295" s="7"/>
+      <c r="A295" s="8"/>
+      <c r="B295" s="8"/>
+      <c r="C295" s="9"/>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="8"/>
-      <c r="B296" s="8"/>
-      <c r="C296" s="9"/>
+      <c r="A296" s="6"/>
+      <c r="B296" s="6"/>
+      <c r="C296" s="7"/>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="6"/>
-      <c r="B297" s="6"/>
-      <c r="C297" s="7"/>
+      <c r="A297" s="8"/>
+      <c r="B297" s="8"/>
+      <c r="C297" s="9"/>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="8"/>
-      <c r="B298" s="8"/>
-      <c r="C298" s="9"/>
+      <c r="A298" s="6"/>
+      <c r="B298" s="6"/>
+      <c r="C298" s="7"/>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="6"/>
-      <c r="B299" s="6"/>
-      <c r="C299" s="7"/>
+      <c r="A299" s="8"/>
+      <c r="B299" s="8"/>
+      <c r="C299" s="9"/>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="8"/>
-      <c r="B300" s="8"/>
-      <c r="C300" s="9"/>
+      <c r="A300" s="6"/>
+      <c r="B300" s="6"/>
+      <c r="C300" s="7"/>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="6"/>
-      <c r="B301" s="6"/>
-      <c r="C301" s="7"/>
+      <c r="A301" s="8"/>
+      <c r="B301" s="8"/>
+      <c r="C301" s="9"/>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="8"/>
-      <c r="B302" s="8"/>
-      <c r="C302" s="9"/>
+      <c r="A302" s="6"/>
+      <c r="B302" s="6"/>
+      <c r="C302" s="7"/>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="6"/>
-      <c r="B303" s="6"/>
-      <c r="C303" s="7"/>
+      <c r="A303" s="8"/>
+      <c r="B303" s="8"/>
+      <c r="C303" s="9"/>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="8"/>
-      <c r="B304" s="8"/>
-      <c r="C304" s="9"/>
+      <c r="A304" s="6"/>
+      <c r="B304" s="6"/>
+      <c r="C304" s="7"/>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="6"/>
-      <c r="B305" s="6"/>
-      <c r="C305" s="7"/>
+      <c r="A305" s="8"/>
+      <c r="B305" s="8"/>
+      <c r="C305" s="9"/>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="8"/>
-      <c r="B306" s="8"/>
-      <c r="C306" s="9"/>
+      <c r="A306" s="6"/>
+      <c r="B306" s="6"/>
+      <c r="C306" s="7"/>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="6"/>
-      <c r="B307" s="6"/>
-      <c r="C307" s="7"/>
+      <c r="A307" s="8"/>
+      <c r="B307" s="8"/>
+      <c r="C307" s="9"/>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="8"/>
-      <c r="B308" s="8"/>
-      <c r="C308" s="9"/>
+      <c r="A308" s="6"/>
+      <c r="B308" s="6"/>
+      <c r="C308" s="7"/>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="6"/>
-      <c r="B309" s="6"/>
-      <c r="C309" s="7"/>
+      <c r="A309" s="8"/>
+      <c r="B309" s="8"/>
+      <c r="C309" s="9"/>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="8"/>
-      <c r="B310" s="8"/>
-      <c r="C310" s="9"/>
+      <c r="A310" s="6"/>
+      <c r="B310" s="6"/>
+      <c r="C310" s="7"/>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="6"/>
-      <c r="B311" s="6"/>
-      <c r="C311" s="7"/>
+      <c r="A311" s="8"/>
+      <c r="B311" s="8"/>
+      <c r="C311" s="9"/>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="8"/>
-      <c r="B312" s="8"/>
-      <c r="C312" s="9"/>
+      <c r="A312" s="6"/>
+      <c r="B312" s="6"/>
+      <c r="C312" s="7"/>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="6"/>
-      <c r="B313" s="6"/>
-      <c r="C313" s="7"/>
+      <c r="A313" s="8"/>
+      <c r="B313" s="8"/>
+      <c r="C313" s="9"/>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="8"/>
-      <c r="B314" s="8"/>
-      <c r="C314" s="9"/>
+      <c r="A314" s="6"/>
+      <c r="B314" s="6"/>
+      <c r="C314" s="7"/>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="6"/>
-      <c r="B315" s="6"/>
-      <c r="C315" s="7"/>
+      <c r="A315" s="8"/>
+      <c r="B315" s="8"/>
+      <c r="C315" s="9"/>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="8"/>
-      <c r="B316" s="8"/>
-      <c r="C316" s="9"/>
+      <c r="A316" s="6"/>
+      <c r="B316" s="6"/>
+      <c r="C316" s="7"/>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="6"/>
-      <c r="B317" s="6"/>
-      <c r="C317" s="7"/>
+      <c r="A317" s="8"/>
+      <c r="B317" s="8"/>
+      <c r="C317" s="9"/>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="8"/>
-      <c r="B318" s="8"/>
-      <c r="C318" s="9"/>
+      <c r="A318" s="6"/>
+      <c r="B318" s="6"/>
+      <c r="C318" s="7"/>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="6"/>
-      <c r="B319" s="6"/>
-      <c r="C319" s="7"/>
+      <c r="A319" s="8"/>
+      <c r="B319" s="8"/>
+      <c r="C319" s="9"/>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="8"/>
-      <c r="B320" s="8"/>
-      <c r="C320" s="9"/>
+      <c r="A320" s="6"/>
+      <c r="B320" s="6"/>
+      <c r="C320" s="7"/>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="6"/>
-      <c r="B321" s="6"/>
-      <c r="C321" s="7"/>
+      <c r="A321" s="8"/>
+      <c r="B321" s="8"/>
+      <c r="C321" s="9"/>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="8"/>
-      <c r="B322" s="8"/>
-      <c r="C322" s="9"/>
+      <c r="A322" s="6"/>
+      <c r="B322" s="6"/>
+      <c r="C322" s="7"/>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="6"/>
-      <c r="B323" s="6"/>
-      <c r="C323" s="7"/>
+      <c r="A323" s="8"/>
+      <c r="B323" s="8"/>
+      <c r="C323" s="9"/>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="8"/>
-      <c r="B324" s="8"/>
-      <c r="C324" s="9"/>
+      <c r="A324" s="6"/>
+      <c r="B324" s="6"/>
+      <c r="C324" s="7"/>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="6"/>
-      <c r="B325" s="6"/>
-      <c r="C325" s="7"/>
+      <c r="A325" s="8"/>
+      <c r="B325" s="8"/>
+      <c r="C325" s="9"/>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="8"/>
-      <c r="B326" s="8"/>
-      <c r="C326" s="9"/>
+      <c r="A326" s="6"/>
+      <c r="B326" s="6"/>
+      <c r="C326" s="7"/>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="6"/>
-      <c r="B327" s="6"/>
-      <c r="C327" s="7"/>
+      <c r="A327" s="8"/>
+      <c r="B327" s="8"/>
+      <c r="C327" s="9"/>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="8"/>
-      <c r="B328" s="8"/>
-      <c r="C328" s="9"/>
+      <c r="A328" s="6"/>
+      <c r="B328" s="6"/>
+      <c r="C328" s="7"/>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="6"/>
-      <c r="B329" s="6"/>
-      <c r="C329" s="7"/>
+      <c r="A329" s="8"/>
+      <c r="B329" s="8"/>
+      <c r="C329" s="9"/>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="8"/>
-      <c r="B330" s="8"/>
-      <c r="C330" s="9"/>
+      <c r="A330" s="6"/>
+      <c r="B330" s="6"/>
+      <c r="C330" s="7"/>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="6"/>
-      <c r="B331" s="6"/>
-      <c r="C331" s="7"/>
+      <c r="A331" s="8"/>
+      <c r="B331" s="8"/>
+      <c r="C331" s="9"/>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="8"/>
-      <c r="B332" s="8"/>
-      <c r="C332" s="9"/>
+      <c r="A332" s="6"/>
+      <c r="B332" s="6"/>
+      <c r="C332" s="7"/>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="6"/>
-      <c r="B333" s="6"/>
-      <c r="C333" s="7"/>
+      <c r="A333" s="8"/>
+      <c r="B333" s="8"/>
+      <c r="C333" s="9"/>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="8"/>
-      <c r="B334" s="8"/>
-      <c r="C334" s="9"/>
+      <c r="A334" s="6"/>
+      <c r="B334" s="6"/>
+      <c r="C334" s="7"/>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="6"/>
-      <c r="B335" s="6"/>
-      <c r="C335" s="7"/>
+      <c r="A335" s="8"/>
+      <c r="B335" s="8"/>
+      <c r="C335" s="9"/>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="8"/>
-      <c r="B336" s="8"/>
-      <c r="C336" s="9"/>
+      <c r="A336" s="6"/>
+      <c r="B336" s="6"/>
+      <c r="C336" s="7"/>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="6"/>
-      <c r="B337" s="6"/>
-      <c r="C337" s="7"/>
+      <c r="A337" s="8"/>
+      <c r="B337" s="8"/>
+      <c r="C337" s="9"/>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="8"/>
-      <c r="B338" s="8"/>
-      <c r="C338" s="9"/>
+      <c r="A338" s="6"/>
+      <c r="B338" s="6"/>
+      <c r="C338" s="7"/>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="6"/>
-      <c r="B339" s="6"/>
-      <c r="C339" s="7"/>
+      <c r="A339" s="8"/>
+      <c r="B339" s="8"/>
+      <c r="C339" s="9"/>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="8"/>
-      <c r="B340" s="8"/>
-      <c r="C340" s="9"/>
+      <c r="A340" s="6"/>
+      <c r="B340" s="6"/>
+      <c r="C340" s="7"/>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="6"/>
-      <c r="B341" s="6"/>
-      <c r="C341" s="7"/>
+      <c r="A341" s="8"/>
+      <c r="B341" s="8"/>
+      <c r="C341" s="9"/>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="8"/>
-      <c r="B342" s="8"/>
-      <c r="C342" s="9"/>
+      <c r="A342" s="6"/>
+      <c r="B342" s="6"/>
+      <c r="C342" s="7"/>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="6"/>
-      <c r="B343" s="6"/>
-      <c r="C343" s="7"/>
+      <c r="A343" s="8"/>
+      <c r="B343" s="8"/>
+      <c r="C343" s="9"/>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="8"/>
-      <c r="B344" s="8"/>
-      <c r="C344" s="9"/>
+      <c r="A344" s="6"/>
+      <c r="B344" s="6"/>
+      <c r="C344" s="7"/>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="6"/>
-      <c r="B345" s="6"/>
-      <c r="C345" s="7"/>
+      <c r="A345" s="8"/>
+      <c r="B345" s="8"/>
+      <c r="C345" s="9"/>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="8"/>
-      <c r="B346" s="8"/>
-      <c r="C346" s="9"/>
+      <c r="A346" s="6"/>
+      <c r="B346" s="6"/>
+      <c r="C346" s="7"/>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="6"/>
-      <c r="B347" s="6"/>
-      <c r="C347" s="7"/>
+      <c r="A347" s="8"/>
+      <c r="B347" s="8"/>
+      <c r="C347" s="9"/>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="8"/>
-      <c r="B348" s="8"/>
-      <c r="C348" s="9"/>
+      <c r="A348" s="6"/>
+      <c r="B348" s="6"/>
+      <c r="C348" s="7"/>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="6"/>
-      <c r="B349" s="6"/>
-      <c r="C349" s="7"/>
+      <c r="A349" s="8"/>
+      <c r="B349" s="8"/>
+      <c r="C349" s="9"/>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="8"/>
-      <c r="B350" s="8"/>
-      <c r="C350" s="9"/>
+      <c r="A350" s="6"/>
+      <c r="B350" s="6"/>
+      <c r="C350" s="7"/>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="6"/>
-      <c r="B351" s="6"/>
-      <c r="C351" s="7"/>
+      <c r="A351" s="8"/>
+      <c r="B351" s="8"/>
+      <c r="C351" s="9"/>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="8"/>
-      <c r="B352" s="8"/>
-      <c r="C352" s="9"/>
+      <c r="A352" s="6"/>
+      <c r="B352" s="6"/>
+      <c r="C352" s="7"/>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="6"/>
-      <c r="B353" s="6"/>
-      <c r="C353" s="7"/>
+      <c r="A353" s="8"/>
+      <c r="B353" s="8"/>
+      <c r="C353" s="9"/>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="8"/>
-      <c r="B354" s="8"/>
-      <c r="C354" s="9"/>
+      <c r="A354" s="6"/>
+      <c r="B354" s="6"/>
+      <c r="C354" s="7"/>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="6"/>
-      <c r="B355" s="6"/>
-      <c r="C355" s="7"/>
+      <c r="A355" s="8"/>
+      <c r="B355" s="8"/>
+      <c r="C355" s="9"/>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="8"/>
-      <c r="B356" s="8"/>
-      <c r="C356" s="9"/>
+      <c r="A356" s="6"/>
+      <c r="B356" s="6"/>
+      <c r="C356" s="7"/>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="6"/>
-      <c r="B357" s="6"/>
-      <c r="C357" s="7"/>
+      <c r="A357" s="8"/>
+      <c r="B357" s="8"/>
+      <c r="C357" s="9"/>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="8"/>
-      <c r="B358" s="8"/>
-      <c r="C358" s="9"/>
+      <c r="A358" s="6"/>
+      <c r="B358" s="6"/>
+      <c r="C358" s="7"/>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="6"/>
-      <c r="B359" s="6"/>
-      <c r="C359" s="7"/>
+      <c r="A359" s="8"/>
+      <c r="B359" s="8"/>
+      <c r="C359" s="9"/>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="8"/>
-      <c r="B360" s="8"/>
-      <c r="C360" s="9"/>
+      <c r="A360" s="6"/>
+      <c r="B360" s="6"/>
+      <c r="C360" s="7"/>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="6"/>
-      <c r="B361" s="6"/>
-      <c r="C361" s="7"/>
+      <c r="A361" s="8"/>
+      <c r="B361" s="8"/>
+      <c r="C361" s="9"/>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="8"/>
-      <c r="B362" s="8"/>
-      <c r="C362" s="9"/>
+      <c r="A362" s="6"/>
+      <c r="B362" s="6"/>
+      <c r="C362" s="7"/>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="6"/>
-      <c r="B363" s="6"/>
-      <c r="C363" s="7"/>
+      <c r="A363" s="8"/>
+      <c r="B363" s="8"/>
+      <c r="C363" s="9"/>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="8"/>
-      <c r="B364" s="8"/>
-      <c r="C364" s="9"/>
+      <c r="A364" s="6"/>
+      <c r="B364" s="6"/>
+      <c r="C364" s="7"/>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="6"/>
-      <c r="B365" s="6"/>
-      <c r="C365" s="7"/>
+      <c r="A365" s="8"/>
+      <c r="B365" s="8"/>
+      <c r="C365" s="9"/>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="8"/>
-      <c r="B366" s="8"/>
-      <c r="C366" s="9"/>
+      <c r="A366" s="6"/>
+      <c r="B366" s="6"/>
+      <c r="C366" s="7"/>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="6"/>
-      <c r="B367" s="6"/>
-      <c r="C367" s="7"/>
+      <c r="A367" s="8"/>
+      <c r="B367" s="8"/>
+      <c r="C367" s="9"/>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="8"/>
-      <c r="B368" s="8"/>
-      <c r="C368" s="9"/>
+      <c r="A368" s="6"/>
+      <c r="B368" s="6"/>
+      <c r="C368" s="7"/>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="6"/>
-      <c r="B369" s="6"/>
-      <c r="C369" s="7"/>
+      <c r="A369" s="8"/>
+      <c r="B369" s="8"/>
+      <c r="C369" s="9"/>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="8"/>
-      <c r="B370" s="8"/>
-      <c r="C370" s="9"/>
+      <c r="A370" s="6"/>
+      <c r="B370" s="6"/>
+      <c r="C370" s="7"/>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="6"/>
-      <c r="B371" s="6"/>
-      <c r="C371" s="7"/>
+      <c r="A371" s="8"/>
+      <c r="B371" s="8"/>
+      <c r="C371" s="9"/>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="8"/>
-      <c r="B372" s="8"/>
-      <c r="C372" s="9"/>
+      <c r="A372" s="6"/>
+      <c r="B372" s="6"/>
+      <c r="C372" s="7"/>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="6"/>
-      <c r="B373" s="6"/>
-      <c r="C373" s="7"/>
+      <c r="A373" s="8"/>
+      <c r="B373" s="8"/>
+      <c r="C373" s="9"/>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="8"/>
-      <c r="B374" s="8"/>
-      <c r="C374" s="9"/>
+      <c r="A374" s="6"/>
+      <c r="B374" s="6"/>
+      <c r="C374" s="7"/>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="6"/>
-      <c r="B375" s="6"/>
-      <c r="C375" s="7"/>
+      <c r="A375" s="8"/>
+      <c r="B375" s="8"/>
+      <c r="C375" s="9"/>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="8"/>
-      <c r="B376" s="8"/>
-      <c r="C376" s="9"/>
+      <c r="A376" s="6"/>
+      <c r="B376" s="6"/>
+      <c r="C376" s="7"/>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="6"/>
-      <c r="B377" s="6"/>
-      <c r="C377" s="7"/>
+      <c r="A377" s="8"/>
+      <c r="B377" s="8"/>
+      <c r="C377" s="9"/>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="8"/>
-      <c r="B378" s="8"/>
-      <c r="C378" s="9"/>
+      <c r="A378" s="6"/>
+      <c r="B378" s="6"/>
+      <c r="C378" s="7"/>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="6"/>
-      <c r="B379" s="6"/>
-      <c r="C379" s="7"/>
+      <c r="A379" s="8"/>
+      <c r="B379" s="8"/>
+      <c r="C379" s="9"/>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="8"/>
-      <c r="B380" s="8"/>
-      <c r="C380" s="9"/>
+      <c r="A380" s="6"/>
+      <c r="B380" s="6"/>
+      <c r="C380" s="7"/>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="6"/>
-      <c r="B381" s="6"/>
-      <c r="C381" s="7"/>
+      <c r="A381" s="8"/>
+      <c r="B381" s="8"/>
+      <c r="C381" s="9"/>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="8"/>
-      <c r="B382" s="8"/>
-      <c r="C382" s="9"/>
+      <c r="A382" s="6"/>
+      <c r="B382" s="6"/>
+      <c r="C382" s="7"/>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="6"/>
-      <c r="B383" s="6"/>
-      <c r="C383" s="7"/>
+      <c r="A383" s="8"/>
+      <c r="B383" s="8"/>
+      <c r="C383" s="9"/>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="8"/>
-      <c r="B384" s="8"/>
-      <c r="C384" s="9"/>
+      <c r="A384" s="6"/>
+      <c r="B384" s="6"/>
+      <c r="C384" s="7"/>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="6"/>
-      <c r="B385" s="6"/>
-      <c r="C385" s="7"/>
+      <c r="A385" s="8"/>
+      <c r="B385" s="8"/>
+      <c r="C385" s="9"/>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="8"/>
-      <c r="B386" s="8"/>
-      <c r="C386" s="9"/>
+      <c r="A386" s="6"/>
+      <c r="B386" s="6"/>
+      <c r="C386" s="7"/>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="6"/>
-      <c r="B387" s="6"/>
-      <c r="C387" s="7"/>
+      <c r="A387" s="8"/>
+      <c r="B387" s="8"/>
+      <c r="C387" s="9"/>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="8"/>
-      <c r="B388" s="8"/>
-      <c r="C388" s="9"/>
+      <c r="A388" s="6"/>
+      <c r="B388" s="6"/>
+      <c r="C388" s="7"/>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="6"/>
-      <c r="B389" s="6"/>
-      <c r="C389" s="7"/>
+      <c r="A389" s="8"/>
+      <c r="B389" s="8"/>
+      <c r="C389" s="9"/>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="8"/>
-      <c r="B390" s="8"/>
-      <c r="C390" s="9"/>
+      <c r="A390" s="6"/>
+      <c r="B390" s="6"/>
+      <c r="C390" s="7"/>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="6"/>
-      <c r="B391" s="6"/>
-      <c r="C391" s="7"/>
+      <c r="A391" s="8"/>
+      <c r="B391" s="8"/>
+      <c r="C391" s="9"/>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="8"/>
-      <c r="B392" s="8"/>
-      <c r="C392" s="9"/>
+      <c r="A392" s="6"/>
+      <c r="B392" s="6"/>
+      <c r="C392" s="7"/>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="6"/>
-      <c r="B393" s="6"/>
-      <c r="C393" s="7"/>
+      <c r="A393" s="8"/>
+      <c r="B393" s="8"/>
+      <c r="C393" s="9"/>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="8"/>
-      <c r="B394" s="8"/>
-      <c r="C394" s="9"/>
+      <c r="A394" s="6"/>
+      <c r="B394" s="6"/>
+      <c r="C394" s="7"/>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="6"/>
-      <c r="B395" s="6"/>
-      <c r="C395" s="7"/>
+      <c r="A395" s="8"/>
+      <c r="B395" s="8"/>
+      <c r="C395" s="9"/>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="8"/>
-      <c r="B396" s="8"/>
-      <c r="C396" s="9"/>
+      <c r="A396" s="6"/>
+      <c r="B396" s="6"/>
+      <c r="C396" s="7"/>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="6"/>
-      <c r="B397" s="6"/>
-      <c r="C397" s="7"/>
+      <c r="A397" s="8"/>
+      <c r="B397" s="8"/>
+      <c r="C397" s="9"/>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="8"/>
-      <c r="B398" s="8"/>
-      <c r="C398" s="9"/>
+      <c r="A398" s="6"/>
+      <c r="B398" s="6"/>
+      <c r="C398" s="7"/>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="6"/>
-      <c r="B399" s="6"/>
-      <c r="C399" s="7"/>
+      <c r="A399" s="8"/>
+      <c r="B399" s="8"/>
+      <c r="C399" s="9"/>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="8"/>
-      <c r="B400" s="8"/>
-      <c r="C400" s="9"/>
+      <c r="A400" s="6"/>
+      <c r="B400" s="6"/>
+      <c r="C400" s="7"/>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="6"/>
-      <c r="B401" s="6"/>
-      <c r="C401" s="7"/>
+      <c r="A401" s="8"/>
+      <c r="B401" s="8"/>
+      <c r="C401" s="9"/>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="8"/>
-      <c r="B402" s="8"/>
-      <c r="C402" s="9"/>
+      <c r="A402" s="6"/>
+      <c r="B402" s="6"/>
+      <c r="C402" s="7"/>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="6"/>
-      <c r="B403" s="6"/>
-      <c r="C403" s="7"/>
+      <c r="A403" s="8"/>
+      <c r="B403" s="8"/>
+      <c r="C403" s="9"/>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="8"/>
-      <c r="B404" s="8"/>
-      <c r="C404" s="9"/>
+      <c r="A404" s="6"/>
+      <c r="B404" s="6"/>
+      <c r="C404" s="7"/>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="6"/>
-      <c r="B405" s="6"/>
-      <c r="C405" s="7"/>
+      <c r="A405" s="8"/>
+      <c r="B405" s="8"/>
+      <c r="C405" s="9"/>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="8"/>
-      <c r="B406" s="8"/>
-      <c r="C406" s="9"/>
+      <c r="A406" s="6"/>
+      <c r="B406" s="6"/>
+      <c r="C406" s="7"/>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="6"/>
-      <c r="B407" s="6"/>
-      <c r="C407" s="7"/>
+      <c r="A407" s="8"/>
+      <c r="B407" s="8"/>
+      <c r="C407" s="9"/>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="8"/>
-      <c r="B408" s="8"/>
-      <c r="C408" s="9"/>
+      <c r="A408" s="6"/>
+      <c r="B408" s="6"/>
+      <c r="C408" s="7"/>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="6"/>
-      <c r="B409" s="6"/>
-      <c r="C409" s="7"/>
+      <c r="A409" s="8"/>
+      <c r="B409" s="8"/>
+      <c r="C409" s="9"/>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="8"/>
-      <c r="B410" s="8"/>
-      <c r="C410" s="9"/>
+      <c r="A410" s="6"/>
+      <c r="B410" s="6"/>
+      <c r="C410" s="7"/>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="6"/>
-      <c r="B411" s="6"/>
-      <c r="C411" s="7"/>
+      <c r="A411" s="8"/>
+      <c r="B411" s="8"/>
+      <c r="C411" s="9"/>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="8"/>
-      <c r="B412" s="8"/>
-      <c r="C412" s="9"/>
+      <c r="A412" s="6"/>
+      <c r="B412" s="6"/>
+      <c r="C412" s="7"/>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="6"/>
-      <c r="B413" s="6"/>
-      <c r="C413" s="7"/>
+      <c r="A413" s="8"/>
+      <c r="B413" s="8"/>
+      <c r="C413" s="9"/>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="8"/>
-      <c r="B414" s="8"/>
-      <c r="C414" s="9"/>
+      <c r="A414" s="6"/>
+      <c r="B414" s="6"/>
+      <c r="C414" s="7"/>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="6"/>
-      <c r="B415" s="6"/>
-      <c r="C415" s="7"/>
+      <c r="A415" s="8"/>
+      <c r="B415" s="8"/>
+      <c r="C415" s="9"/>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="8"/>
-      <c r="B416" s="8"/>
-      <c r="C416" s="9"/>
+      <c r="A416" s="6"/>
+      <c r="B416" s="6"/>
+      <c r="C416" s="7"/>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="6"/>
-      <c r="B417" s="6"/>
-      <c r="C417" s="7"/>
+      <c r="A417" s="8"/>
+      <c r="B417" s="8"/>
+      <c r="C417" s="9"/>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="8"/>
-      <c r="B418" s="8"/>
-      <c r="C418" s="9"/>
+      <c r="A418" s="6"/>
+      <c r="B418" s="6"/>
+      <c r="C418" s="7"/>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="6"/>
-      <c r="B419" s="6"/>
-      <c r="C419" s="7"/>
+      <c r="A419" s="8"/>
+      <c r="B419" s="8"/>
+      <c r="C419" s="9"/>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="8"/>
-      <c r="B420" s="8"/>
-      <c r="C420" s="9"/>
+      <c r="A420" s="6"/>
+      <c r="B420" s="6"/>
+      <c r="C420" s="7"/>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="6"/>
-      <c r="B421" s="6"/>
-      <c r="C421" s="7"/>
+      <c r="A421" s="8"/>
+      <c r="B421" s="8"/>
+      <c r="C421" s="9"/>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="8"/>
-      <c r="B422" s="8"/>
-      <c r="C422" s="9"/>
+      <c r="A422" s="6"/>
+      <c r="B422" s="6"/>
+      <c r="C422" s="7"/>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="6"/>
-      <c r="B423" s="6"/>
-      <c r="C423" s="7"/>
+      <c r="A423" s="8"/>
+      <c r="B423" s="8"/>
+      <c r="C423" s="9"/>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="8"/>
-      <c r="B424" s="8"/>
-      <c r="C424" s="9"/>
+      <c r="A424" s="6"/>
+      <c r="B424" s="6"/>
+      <c r="C424" s="7"/>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="6"/>
-      <c r="B425" s="6"/>
-      <c r="C425" s="7"/>
+      <c r="A425" s="8"/>
+      <c r="B425" s="8"/>
+      <c r="C425" s="9"/>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="8"/>
-      <c r="B426" s="8"/>
-      <c r="C426" s="9"/>
+      <c r="A426" s="6"/>
+      <c r="B426" s="6"/>
+      <c r="C426" s="7"/>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="6"/>
-      <c r="B427" s="6"/>
-      <c r="C427" s="7"/>
+      <c r="A427" s="8"/>
+      <c r="B427" s="8"/>
+      <c r="C427" s="9"/>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="8"/>
-      <c r="B428" s="8"/>
-      <c r="C428" s="9"/>
+      <c r="A428" s="6"/>
+      <c r="B428" s="6"/>
+      <c r="C428" s="7"/>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="6"/>
-      <c r="B429" s="6"/>
-      <c r="C429" s="7"/>
+      <c r="A429" s="8"/>
+      <c r="B429" s="8"/>
+      <c r="C429" s="9"/>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="8"/>
-      <c r="B430" s="8"/>
-      <c r="C430" s="9"/>
+      <c r="A430" s="6"/>
+      <c r="B430" s="6"/>
+      <c r="C430" s="7"/>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="6"/>
-      <c r="B431" s="6"/>
-      <c r="C431" s="7"/>
+      <c r="A431" s="8"/>
+      <c r="B431" s="8"/>
+      <c r="C431" s="9"/>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="8"/>
-      <c r="B432" s="8"/>
-      <c r="C432" s="9"/>
+      <c r="A432" s="6"/>
+      <c r="B432" s="6"/>
+      <c r="C432" s="7"/>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="6"/>
-      <c r="B433" s="6"/>
-      <c r="C433" s="7"/>
+      <c r="A433" s="8"/>
+      <c r="B433" s="8"/>
+      <c r="C433" s="9"/>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="8"/>
-      <c r="B434" s="8"/>
-      <c r="C434" s="9"/>
+      <c r="A434" s="6"/>
+      <c r="B434" s="6"/>
+      <c r="C434" s="7"/>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="6"/>
-      <c r="B435" s="6"/>
-      <c r="C435" s="7"/>
+      <c r="A435" s="8"/>
+      <c r="B435" s="8"/>
+      <c r="C435" s="9"/>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="8"/>
-      <c r="B436" s="8"/>
-      <c r="C436" s="9"/>
+      <c r="A436" s="6"/>
+      <c r="B436" s="6"/>
+      <c r="C436" s="7"/>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="6"/>
-      <c r="B437" s="6"/>
-      <c r="C437" s="7"/>
+      <c r="A437" s="8"/>
+      <c r="B437" s="8"/>
+      <c r="C437" s="9"/>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="8"/>
-      <c r="B438" s="8"/>
-      <c r="C438" s="9"/>
+      <c r="A438" s="6"/>
+      <c r="B438" s="6"/>
+      <c r="C438" s="7"/>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="6"/>
-      <c r="B439" s="6"/>
-      <c r="C439" s="7"/>
+      <c r="A439" s="8"/>
+      <c r="B439" s="8"/>
+      <c r="C439" s="9"/>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="8"/>
-      <c r="B440" s="8"/>
-      <c r="C440" s="9"/>
+      <c r="A440" s="6"/>
+      <c r="B440" s="6"/>
+      <c r="C440" s="7"/>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="6"/>
-      <c r="B441" s="6"/>
-      <c r="C441" s="7"/>
+      <c r="A441" s="8"/>
+      <c r="B441" s="8"/>
+      <c r="C441" s="9"/>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="8"/>
-      <c r="B442" s="8"/>
-      <c r="C442" s="9"/>
+      <c r="A442" s="6"/>
+      <c r="B442" s="6"/>
+      <c r="C442" s="7"/>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="6"/>
-      <c r="B443" s="6"/>
-      <c r="C443" s="7"/>
+      <c r="A443" s="8"/>
+      <c r="B443" s="8"/>
+      <c r="C443" s="9"/>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="8"/>
-      <c r="B444" s="8"/>
-      <c r="C444" s="9"/>
+      <c r="A444" s="6"/>
+      <c r="B444" s="6"/>
+      <c r="C444" s="7"/>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="6"/>
-      <c r="B445" s="6"/>
-      <c r="C445" s="7"/>
+      <c r="A445" s="8"/>
+      <c r="B445" s="8"/>
+      <c r="C445" s="9"/>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="8"/>
-      <c r="B446" s="8"/>
-      <c r="C446" s="9"/>
+      <c r="A446" s="6"/>
+      <c r="B446" s="6"/>
+      <c r="C446" s="7"/>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="6"/>
-      <c r="B447" s="6"/>
-      <c r="C447" s="7"/>
+      <c r="A447" s="8"/>
+      <c r="B447" s="8"/>
+      <c r="C447" s="9"/>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="8"/>
-      <c r="B448" s="8"/>
-      <c r="C448" s="9"/>
+      <c r="A448" s="6"/>
+      <c r="B448" s="6"/>
+      <c r="C448" s="7"/>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="6"/>
-      <c r="B449" s="6"/>
-      <c r="C449" s="7"/>
+      <c r="A449" s="8"/>
+      <c r="B449" s="8"/>
+      <c r="C449" s="9"/>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="8"/>
-      <c r="B450" s="8"/>
-      <c r="C450" s="9"/>
+      <c r="A450" s="6"/>
+      <c r="B450" s="6"/>
+      <c r="C450" s="7"/>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="6"/>
-      <c r="B451" s="6"/>
-      <c r="C451" s="7"/>
+      <c r="A451" s="8"/>
+      <c r="B451" s="8"/>
+      <c r="C451" s="9"/>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="8"/>
-      <c r="B452" s="8"/>
-      <c r="C452" s="9"/>
+      <c r="A452" s="6"/>
+      <c r="B452" s="6"/>
+      <c r="C452" s="7"/>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="6"/>
-      <c r="B453" s="6"/>
-      <c r="C453" s="7"/>
+      <c r="A453" s="8"/>
+      <c r="B453" s="8"/>
+      <c r="C453" s="9"/>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="8"/>
-      <c r="B454" s="8"/>
-      <c r="C454" s="9"/>
+      <c r="A454" s="6"/>
+      <c r="B454" s="6"/>
+      <c r="C454" s="7"/>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="6"/>
-      <c r="B455" s="6"/>
-      <c r="C455" s="7"/>
+      <c r="A455" s="8"/>
+      <c r="B455" s="8"/>
+      <c r="C455" s="9"/>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="8"/>
-      <c r="B456" s="8"/>
-      <c r="C456" s="9"/>
+      <c r="A456" s="6"/>
+      <c r="B456" s="6"/>
+      <c r="C456" s="7"/>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="6"/>
-      <c r="B457" s="6"/>
-      <c r="C457" s="7"/>
+      <c r="A457" s="8"/>
+      <c r="B457" s="8"/>
+      <c r="C457" s="9"/>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="8"/>
-      <c r="B458" s="8"/>
-      <c r="C458" s="9"/>
+      <c r="A458" s="6"/>
+      <c r="B458" s="6"/>
+      <c r="C458" s="7"/>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="6"/>
-      <c r="B459" s="6"/>
-      <c r="C459" s="7"/>
+      <c r="A459" s="8"/>
+      <c r="B459" s="8"/>
+      <c r="C459" s="9"/>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="8"/>
-      <c r="B460" s="8"/>
-      <c r="C460" s="9"/>
+      <c r="A460" s="6"/>
+      <c r="B460" s="6"/>
+      <c r="C460" s="7"/>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="6"/>
-      <c r="B461" s="6"/>
-      <c r="C461" s="7"/>
+      <c r="A461" s="8"/>
+      <c r="B461" s="8"/>
+      <c r="C461" s="9"/>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="8"/>
-      <c r="B462" s="8"/>
-      <c r="C462" s="9"/>
+      <c r="A462" s="6"/>
+      <c r="B462" s="6"/>
+      <c r="C462" s="7"/>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="6"/>
-      <c r="B463" s="6"/>
-      <c r="C463" s="7"/>
+      <c r="A463" s="8"/>
+      <c r="B463" s="8"/>
+      <c r="C463" s="9"/>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="8"/>
-      <c r="B464" s="8"/>
-      <c r="C464" s="9"/>
+      <c r="A464" s="6"/>
+      <c r="B464" s="6"/>
+      <c r="C464" s="7"/>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="6"/>
-      <c r="B465" s="6"/>
-      <c r="C465" s="7"/>
+      <c r="A465" s="8"/>
+      <c r="B465" s="8"/>
+      <c r="C465" s="9"/>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="8"/>
-      <c r="B466" s="8"/>
-      <c r="C466" s="9"/>
+      <c r="A466" s="6"/>
+      <c r="B466" s="6"/>
+      <c r="C466" s="7"/>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="6"/>
-      <c r="B467" s="6"/>
-      <c r="C467" s="7"/>
+      <c r="A467" s="8"/>
+      <c r="B467" s="8"/>
+      <c r="C467" s="9"/>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="8"/>
-      <c r="B468" s="8"/>
-      <c r="C468" s="9"/>
+      <c r="A468" s="6"/>
+      <c r="B468" s="6"/>
+      <c r="C468" s="7"/>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="6"/>
-      <c r="B469" s="6"/>
-      <c r="C469" s="7"/>
+      <c r="A469" s="8"/>
+      <c r="B469" s="8"/>
+      <c r="C469" s="9"/>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="8"/>
-      <c r="B470" s="8"/>
-      <c r="C470" s="9"/>
+      <c r="A470" s="6"/>
+      <c r="B470" s="6"/>
+      <c r="C470" s="7"/>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="6"/>
-      <c r="B471" s="6"/>
-      <c r="C471" s="7"/>
+      <c r="A471" s="8"/>
+      <c r="B471" s="8"/>
+      <c r="C471" s="9"/>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="8"/>
-      <c r="B472" s="8"/>
-      <c r="C472" s="9"/>
+      <c r="A472" s="6"/>
+      <c r="B472" s="6"/>
+      <c r="C472" s="7"/>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="6"/>
-      <c r="B473" s="6"/>
-      <c r="C473" s="7"/>
+      <c r="A473" s="8"/>
+      <c r="B473" s="8"/>
+      <c r="C473" s="9"/>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="8"/>
-      <c r="B474" s="8"/>
-      <c r="C474" s="9"/>
+      <c r="A474" s="6"/>
+      <c r="B474" s="6"/>
+      <c r="C474" s="7"/>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="6"/>
-      <c r="B475" s="6"/>
-      <c r="C475" s="7"/>
+      <c r="A475" s="8"/>
+      <c r="B475" s="8"/>
+      <c r="C475" s="9"/>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="8"/>
-      <c r="B476" s="8"/>
-      <c r="C476" s="9"/>
+      <c r="A476" s="6"/>
+      <c r="B476" s="6"/>
+      <c r="C476" s="7"/>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="6"/>
-      <c r="B477" s="6"/>
-      <c r="C477" s="7"/>
+      <c r="A477" s="8"/>
+      <c r="B477" s="8"/>
+      <c r="C477" s="9"/>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="8"/>
-      <c r="B478" s="8"/>
-      <c r="C478" s="9"/>
+      <c r="A478" s="6"/>
+      <c r="B478" s="6"/>
+      <c r="C478" s="7"/>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="6"/>
-      <c r="B479" s="6"/>
-      <c r="C479" s="7"/>
+      <c r="A479" s="8"/>
+      <c r="B479" s="8"/>
+      <c r="C479" s="9"/>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="8"/>
-      <c r="B480" s="8"/>
-      <c r="C480" s="9"/>
+      <c r="A480" s="6"/>
+      <c r="B480" s="6"/>
+      <c r="C480" s="7"/>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="6"/>
-      <c r="B481" s="6"/>
-      <c r="C481" s="7"/>
+      <c r="A481" s="8"/>
+      <c r="B481" s="8"/>
+      <c r="C481" s="9"/>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="8"/>
-      <c r="B482" s="8"/>
-      <c r="C482" s="9"/>
+      <c r="A482" s="6"/>
+      <c r="B482" s="6"/>
+      <c r="C482" s="7"/>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="6"/>
-      <c r="B483" s="6"/>
-      <c r="C483" s="7"/>
+      <c r="A483" s="8"/>
+      <c r="B483" s="8"/>
+      <c r="C483" s="9"/>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="8"/>
-      <c r="B484" s="8"/>
-      <c r="C484" s="9"/>
+      <c r="A484" s="6"/>
+      <c r="B484" s="6"/>
+      <c r="C484" s="7"/>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="6"/>
-      <c r="B485" s="6"/>
-      <c r="C485" s="7"/>
+      <c r="A485" s="8"/>
+      <c r="B485" s="8"/>
+      <c r="C485" s="9"/>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="8"/>
-      <c r="B486" s="8"/>
-      <c r="C486" s="9"/>
+      <c r="A486" s="6"/>
+      <c r="B486" s="6"/>
+      <c r="C486" s="7"/>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="6"/>
-      <c r="B487" s="6"/>
-      <c r="C487" s="7"/>
+      <c r="A487" s="8"/>
+      <c r="B487" s="8"/>
+      <c r="C487" s="9"/>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="8"/>
-      <c r="B488" s="8"/>
-      <c r="C488" s="9"/>
+      <c r="A488" s="6"/>
+      <c r="B488" s="6"/>
+      <c r="C488" s="7"/>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="6"/>
-      <c r="B489" s="6"/>
-      <c r="C489" s="7"/>
+      <c r="A489" s="8"/>
+      <c r="B489" s="8"/>
+      <c r="C489" s="9"/>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="8"/>
-      <c r="B490" s="8"/>
-      <c r="C490" s="9"/>
+      <c r="A490" s="6"/>
+      <c r="B490" s="6"/>
+      <c r="C490" s="7"/>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="6"/>
-      <c r="B491" s="6"/>
-      <c r="C491" s="7"/>
+      <c r="A491" s="8"/>
+      <c r="B491" s="8"/>
+      <c r="C491" s="9"/>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="8"/>
-      <c r="B492" s="8"/>
-      <c r="C492" s="9"/>
+      <c r="A492" s="6"/>
+      <c r="B492" s="6"/>
+      <c r="C492" s="7"/>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="6"/>
-      <c r="B493" s="6"/>
-      <c r="C493" s="7"/>
+      <c r="A493" s="8"/>
+      <c r="B493" s="8"/>
+      <c r="C493" s="9"/>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="8"/>
-      <c r="B494" s="8"/>
-      <c r="C494" s="9"/>
+      <c r="A494" s="6"/>
+      <c r="B494" s="6"/>
+      <c r="C494" s="7"/>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="6"/>
-      <c r="B495" s="6"/>
-      <c r="C495" s="7"/>
+      <c r="A495" s="8"/>
+      <c r="B495" s="8"/>
+      <c r="C495" s="9"/>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="8"/>
-      <c r="B496" s="8"/>
-      <c r="C496" s="9"/>
+      <c r="A496" s="6"/>
+      <c r="B496" s="6"/>
+      <c r="C496" s="7"/>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="6"/>
-      <c r="B497" s="6"/>
-      <c r="C497" s="7"/>
+      <c r="A497" s="8"/>
+      <c r="B497" s="8"/>
+      <c r="C497" s="9"/>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="8"/>
-      <c r="B498" s="8"/>
-      <c r="C498" s="9"/>
+      <c r="A498" s="6"/>
+      <c r="B498" s="6"/>
+      <c r="C498" s="7"/>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="6"/>
-      <c r="B499" s="6"/>
-      <c r="C499" s="7"/>
-    </row>
-    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="8"/>
-      <c r="B500" s="8"/>
-      <c r="C500" s="9"/>
+      <c r="A499" s="8"/>
+      <c r="B499" s="8"/>
+      <c r="C499" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
@@ -3090,36 +2926,6 @@
   <conditionalFormatting sqref="C3">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(Assignments!C3 - TODAY() &lt; 0, Assignments!A3&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4,A6,A8,A10,A12,A14,A16,A18,A20,A22,A24,A26,A28,A30,A32,A34,A36,A38,A40,A42,A44,A46,A48,A50,A52,A54,A56,A58,A60,A62,A64,A66,A68,A70,A72,A74,A76,A78,A80,A82,A84,A86,A88,A90,A92,A94,A96,A98,A100,A102,A104,A106,A108,A110,A112,A114,A116,A118,A120,A122,A124,A126,A128,A130,A132,A134,A136,A138,A140,A142,A144,A146,A148,A150,A152,A154,A156,A158,A160,A162,A164,A166,A168,A170,A172,A174,A176,A178,A180,A182,A184,A186,A188,A190,A192,A194,A196,A198,A200,A202,A204,A206,A208,A210,A212,A214,A216,A218,A220,A222,A224,A226,A228,A230,A232,A234,A236,A238,A240,A242,A244,A246,A248,A250,A252,A254,A256,A258,A260,A262,A264,A266,A268,A270,A272,A274,A276,A278,A280,A282,A284,A286,A288,A290,A292,A294,A296,A298,A300,A302,A304,A306,A308,A310,A312,A314,A316,A318,A320,A322,A324,A326,A328,A330,A332,A334,A336,A338,A340,A342,A344,A346,A348,A350,A352,A354,A356,A358,A360,A362,A364,A366,A368,A370,A372,A374,A376,A378,A380,A382,A384,A386,A388,A390,A392,A394,A396,A398,A400,A402,A404,A406,A408,A410,A412,A414,A416,A418,A420,A422,A424,A426,A428,A430,A432,A434,A436,A438,A440,A442,A444,A446,A448,A450,A452,A454,A456,A458,A460,A462,A464,A466,A468,A470,A472,A474,A476,A478,A480,A482,A484,A486,A488,A490,A492,A494,A496,A498,A500">
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(Assignments!C4 - TODAY() &lt; 0, Assignments!A4&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4,B6,B8,B10,B12,B14,B16,B18,B20,B22,B24,B26,B28,B30,B32,B34,B36,B38,B40,B42,B44,B46,B48,B50,B52,B54,B56,B58,B60,B62,B64,B66,B68,B70,B72,B74,B76,B78,B80,B82,B84,B86,B88,B90,B92,B94,B96,B98,B100,B102,B104,B106,B108,B110,B112,B114,B116,B118,B120,B122,B124,B126,B128,B130,B132,B134,B136,B138,B140,B142,B144,B146,B148,B150,B152,B154,B156,B158,B160,B162,B164,B166,B168,B170,B172,B174,B176,B178,B180,B182,B184,B186,B188,B190,B192,B194,B196,B198,B200,B202,B204,B206,B208,B210,B212,B214,B216,B218,B220,B222,B224,B226,B228,B230,B232,B234,B236,B238,B240,B242,B244,B246,B248,B250,B252,B254,B256,B258,B260,B262,B264,B266,B268,B270,B272,B274,B276,B278,B280,B282,B284,B286,B288,B290,B292,B294,B296,B298,B300,B302,B304,B306,B308,B310,B312,B314,B316,B318,B320,B322,B324,B326,B328,B330,B332,B334,B336,B338,B340,B342,B344,B346,B348,B350,B352,B354,B356,B358,B360,B362,B364,B366,B368,B370,B372,B374,B376,B378,B380,B382,B384,B386,B388,B390,B392,B394,B396,B398,B400,B402,B404,B406,B408,B410,B412,B414,B416,B418,B420,B422,B424,B426,B428,B430,B432,B434,B436,B438,B440,B442,B444,B446,B448,B450,B452,B454,B456,B458,B460,B462,B464,B466,B468,B470,B472,B474,B476,B478,B480,B482,B484,B486,B488,B490,B492,B494,B496,B498,B500">
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(Assignments!C4 - TODAY() &lt; 0, Assignments!A4&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4,C6,C8,C10,C12,C14,C16,C18,C20,C22,C24,C26,C28,C30,C32,C34,C36,C38,C40,C42,C44,C46,C48,C50,C52,C54,C56,C58,C60,C62,C64,C66,C68,C70,C72,C74,C76,C78,C80,C82,C84,C86,C88,C90,C92,C94,C96,C98,C100,C102,C104,C106,C108,C110,C112,C114,C116,C118,C120,C122,C124,C126,C128,C130,C132,C134,C136,C138,C140,C142,C144,C146,C148,C150,C152,C154,C156,C158,C160,C162,C164,C166,C168,C170,C172,C174,C176,C178,C180,C182,C184,C186,C188,C190,C192,C194,C196,C198,C200,C202,C204,C206,C208,C210,C212,C214,C216,C218,C220,C222,C224,C226,C228,C230,C232,C234,C236,C238,C240,C242,C244,C246,C248,C250,C252,C254,C256,C258,C260,C262,C264,C266,C268,C270,C272,C274,C276,C278,C280,C282,C284,C286,C288,C290,C292,C294,C296,C298,C300,C302,C304,C306,C308,C310,C312,C314,C316,C318,C320,C322,C324,C326,C328,C330,C332,C334,C336,C338,C340,C342,C344,C346,C348,C350,C352,C354,C356,C358,C360,C362,C364,C366,C368,C370,C372,C374,C376,C378,C380,C382,C384,C386,C388,C390,C392,C394,C396,C398,C400,C402,C404,C406,C408,C410,C412,C414,C416,C418,C420,C422,C424,C426,C428,C430,C432,C434,C436,C438,C440,C442,C444,C446,C448,C450,C452,C454,C456,C458,C460,C462,C464,C466,C468,C470,C472,C474,C476,C478,C480,C482,C484,C486,C488,C490,C492,C494,C496,C498,C500">
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND(Assignments!C4 - TODAY() &lt; 0, Assignments!A4&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5,A7,A9,A11,A13,A15,A17,A19,A21,A23,A25,A27,A29,A31,A33,A35,A37,A39,A41,A43,A45,A47,A49,A51,A53,A55,A57,A59,A61,A63,A65,A67,A69,A71,A73,A75,A77,A79,A81,A83,A85,A87,A89,A91,A93,A95,A97,A99,A101,A103,A105,A107,A109,A111,A113,A115,A117,A119,A121,A123,A125,A127,A129,A131,A133,A135,A137,A139,A141,A143,A145,A147,A149,A151,A153,A155,A157,A159,A161,A163,A165,A167,A169,A171,A173,A175,A177,A179,A181,A183,A185,A187,A189,A191,A193,A195,A197,A199,A201,A203,A205,A207,A209,A211,A213,A215,A217,A219,A221,A223,A225,A227,A229,A231,A233,A235,A237,A239,A241,A243,A245,A247,A249,A251,A253,A255,A257,A259,A261,A263,A265,A267,A269,A271,A273,A275,A277,A279,A281,A283,A285,A287,A289,A291,A293,A295,A297,A299,A301,A303,A305,A307,A309,A311,A313,A315,A317,A319,A321,A323,A325,A327,A329,A331,A333,A335,A337,A339,A341,A343,A345,A347,A349,A351,A353,A355,A357,A359,A361,A363,A365,A367,A369,A371,A373,A375,A377,A379,A381,A383,A385,A387,A389,A391,A393,A395,A397,A399,A401,A403,A405,A407,A409,A411,A413,A415,A417,A419,A421,A423,A425,A427,A429,A431,A433,A435,A437,A439,A441,A443,A445,A447,A449,A451,A453,A455,A457,A459,A461,A463,A465,A467,A469,A471,A473,A475,A477,A479,A481,A483,A485,A487,A489,A491,A493,A495,A497,A499">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND(Assignments!C5 - TODAY() &lt; 0, Assignments!A5&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5,B7,B9,B11,B13,B15,B17,B19,B21,B23,B25,B27,B29,B31,B33,B35,B37,B39,B41,B43,B45,B47,B49,B51,B53,B55,B57,B59,B61,B63,B65,B67,B69,B71,B73,B75,B77,B79,B81,B83,B85,B87,B89,B91,B93,B95,B97,B99,B101,B103,B105,B107,B109,B111,B113,B115,B117,B119,B121,B123,B125,B127,B129,B131,B133,B135,B137,B139,B141,B143,B145,B147,B149,B151,B153,B155,B157,B159,B161,B163,B165,B167,B169,B171,B173,B175,B177,B179,B181,B183,B185,B187,B189,B191,B193,B195,B197,B199,B201,B203,B205,B207,B209,B211,B213,B215,B217,B219,B221,B223,B225,B227,B229,B231,B233,B235,B237,B239,B241,B243,B245,B247,B249,B251,B253,B255,B257,B259,B261,B263,B265,B267,B269,B271,B273,B275,B277,B279,B281,B283,B285,B287,B289,B291,B293,B295,B297,B299,B301,B303,B305,B307,B309,B311,B313,B315,B317,B319,B321,B323,B325,B327,B329,B331,B333,B335,B337,B339,B341,B343,B345,B347,B349,B351,B353,B355,B357,B359,B361,B363,B365,B367,B369,B371,B373,B375,B377,B379,B381,B383,B385,B387,B389,B391,B393,B395,B397,B399,B401,B403,B405,B407,B409,B411,B413,B415,B417,B419,B421,B423,B425,B427,B429,B431,B433,B435,B437,B439,B441,B443,B445,B447,B449,B451,B453,B455,B457,B459,B461,B463,B465,B467,B469,B471,B473,B475,B477,B479,B481,B483,B485,B487,B489,B491,B493,B495,B497,B499">
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND(Assignments!C5 - TODAY() &lt; 0, Assignments!A5&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5,C7,C9,C11,C13,C15,C17,C19,C21,C23,C25,C27,C29,C31,C33,C35,C37,C39,C41,C43,C45,C47,C49,C51,C53,C55,C57,C59,C61,C63,C65,C67,C69,C71,C73,C75,C77,C79,C81,C83,C85,C87,C89,C91,C93,C95,C97,C99,C101,C103,C105,C107,C109,C111,C113,C115,C117,C119,C121,C123,C125,C127,C129,C131,C133,C135,C137,C139,C141,C143,C145,C147,C149,C151,C153,C155,C157,C159,C161,C163,C165,C167,C169,C171,C173,C175,C177,C179,C181,C183,C185,C187,C189,C191,C193,C195,C197,C199,C201,C203,C205,C207,C209,C211,C213,C215,C217,C219,C221,C223,C225,C227,C229,C231,C233,C235,C237,C239,C241,C243,C245,C247,C249,C251,C253,C255,C257,C259,C261,C263,C265,C267,C269,C271,C273,C275,C277,C279,C281,C283,C285,C287,C289,C291,C293,C295,C297,C299,C301,C303,C305,C307,C309,C311,C313,C315,C317,C319,C321,C323,C325,C327,C329,C331,C333,C335,C337,C339,C341,C343,C345,C347,C349,C351,C353,C355,C357,C359,C361,C363,C365,C367,C369,C371,C373,C375,C377,C379,C381,C383,C385,C387,C389,C391,C393,C395,C397,C399,C401,C403,C405,C407,C409,C411,C413,C415,C417,C419,C421,C423,C425,C427,C429,C431,C433,C435,C437,C439,C441,C443,C445,C447,C449,C451,C453,C455,C457,C459,C461,C463,C465,C467,C469,C471,C473,C475,C477,C479,C481,C483,C485,C487,C489,C491,C493,C495,C497,C499">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND(Assignments!C5 - TODAY() &lt; 0, Assignments!A5&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3139,36 +2945,36 @@
   </sheetPr>
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>6</v>
@@ -3177,1495 +2983,1504 @@
         <v>42578</v>
       </c>
       <c r="D2" s="15" t="n">
-        <f aca="true">IF(A2&lt;&gt;"", IF(D2="", TODAY(), D2), "")</f>
+        <f aca="true">IF(Completed!A2&lt;&gt;"", IF(Completed!D2="", TODAY(), Completed!D2), "")</f>
         <v>42578</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="16" t="str">
-        <f aca="true">IF(A3&lt;&gt;"", IF(D3="", TODAY(), D3), "")</f>
-        <v/>
+    <row r="3" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>42581</v>
+      </c>
+      <c r="D3" s="16" t="n">
+        <f aca="true">IF(Completed!A3&lt;&gt;"", IF(Completed!D3="", TODAY(), Completed!D3), "")</f>
+        <v>42579</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="16" t="str">
-        <f aca="true">IF(A4&lt;&gt;"", IF(D4="", TODAY(), D4), "")</f>
+        <f aca="true">IF(Completed!A4&lt;&gt;"", IF(Completed!D4="", TODAY(), Completed!D4), "")</f>
         <v/>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="16" t="str">
-        <f aca="true">IF(A5&lt;&gt;"", IF(D5="", TODAY(), D5), "")</f>
+        <f aca="true">IF(Completed!A5&lt;&gt;"", IF(Completed!D5="", TODAY(), Completed!D5), "")</f>
         <v/>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="16" t="str">
-        <f aca="true">IF(A6&lt;&gt;"", IF(D6="", TODAY(), D6), "")</f>
+        <f aca="true">IF(Completed!A6&lt;&gt;"", IF(Completed!D6="", TODAY(), Completed!D6), "")</f>
         <v/>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="16" t="str">
-        <f aca="true">IF(A7&lt;&gt;"", IF(D7="", TODAY(), D7), "")</f>
+        <f aca="true">IF(Completed!A7&lt;&gt;"", IF(Completed!D7="", TODAY(), Completed!D7), "")</f>
         <v/>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="16" t="str">
-        <f aca="true">IF(A8&lt;&gt;"", IF(D8="", TODAY(), D8), "")</f>
+        <f aca="true">IF(Completed!A8&lt;&gt;"", IF(Completed!D8="", TODAY(), Completed!D8), "")</f>
         <v/>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="16" t="str">
-        <f aca="true">IF(A9&lt;&gt;"", IF(D9="", TODAY(), D9), "")</f>
+        <f aca="true">IF(Completed!A9&lt;&gt;"", IF(Completed!D9="", TODAY(), Completed!D9), "")</f>
         <v/>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="16" t="str">
-        <f aca="true">IF(A10&lt;&gt;"", IF(D10="", TODAY(), D10), "")</f>
+        <f aca="true">IF(Completed!A10&lt;&gt;"", IF(Completed!D10="", TODAY(), Completed!D10), "")</f>
         <v/>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="16" t="str">
-        <f aca="true">IF(A11&lt;&gt;"", IF(D11="", TODAY(), D11), "")</f>
+        <f aca="true">IF(Completed!A11&lt;&gt;"", IF(Completed!D11="", TODAY(), Completed!D11), "")</f>
         <v/>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="16" t="str">
-        <f aca="true">IF(A12&lt;&gt;"", IF(D12="", TODAY(), D12), "")</f>
+        <f aca="true">IF(Completed!A12&lt;&gt;"", IF(Completed!D12="", TODAY(), Completed!D12), "")</f>
         <v/>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="16" t="str">
-        <f aca="true">IF(A13&lt;&gt;"", IF(D13="", TODAY(), D13), "")</f>
+        <f aca="true">IF(Completed!A13&lt;&gt;"", IF(Completed!D13="", TODAY(), Completed!D13), "")</f>
         <v/>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="16" t="str">
-        <f aca="true">IF(A14&lt;&gt;"", IF(D14="", TODAY(), D14), "")</f>
+        <f aca="true">IF(Completed!A14&lt;&gt;"", IF(Completed!D14="", TODAY(), Completed!D14), "")</f>
         <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="16" t="str">
-        <f aca="true">IF(A15&lt;&gt;"", IF(D15="", TODAY(), D15), "")</f>
+        <f aca="true">IF(Completed!A15&lt;&gt;"", IF(Completed!D15="", TODAY(), Completed!D15), "")</f>
         <v/>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="16" t="str">
-        <f aca="true">IF(A16&lt;&gt;"", IF(D16="", TODAY(), D16), "")</f>
+        <f aca="true">IF(Completed!A16&lt;&gt;"", IF(Completed!D16="", TODAY(), Completed!D16), "")</f>
         <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="16" t="str">
-        <f aca="true">IF(A17&lt;&gt;"", IF(D17="", TODAY(), D17), "")</f>
+        <f aca="true">IF(Completed!A17&lt;&gt;"", IF(Completed!D17="", TODAY(), Completed!D17), "")</f>
         <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="16" t="str">
-        <f aca="true">IF(A18&lt;&gt;"", IF(D18="", TODAY(), D18), "")</f>
+        <f aca="true">IF(Completed!A18&lt;&gt;"", IF(Completed!D18="", TODAY(), Completed!D18), "")</f>
         <v/>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="16" t="str">
-        <f aca="true">IF(A19&lt;&gt;"", IF(D19="", TODAY(), D19), "")</f>
+        <f aca="true">IF(Completed!A19&lt;&gt;"", IF(Completed!D19="", TODAY(), Completed!D19), "")</f>
         <v/>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="16" t="str">
-        <f aca="true">IF(A20&lt;&gt;"", IF(D20="", TODAY(), D20), "")</f>
+        <f aca="true">IF(Completed!A20&lt;&gt;"", IF(Completed!D20="", TODAY(), Completed!D20), "")</f>
         <v/>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="16" t="str">
-        <f aca="true">IF(A21&lt;&gt;"", IF(D21="", TODAY(), D21), "")</f>
+        <f aca="true">IF(Completed!A21&lt;&gt;"", IF(Completed!D21="", TODAY(), Completed!D21), "")</f>
         <v/>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="16" t="str">
-        <f aca="true">IF(A22&lt;&gt;"", IF(D22="", TODAY(), D22), "")</f>
+        <f aca="true">IF(Completed!A22&lt;&gt;"", IF(Completed!D22="", TODAY(), Completed!D22), "")</f>
         <v/>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="16" t="str">
-        <f aca="true">IF(A23&lt;&gt;"", IF(D23="", TODAY(), D23), "")</f>
+        <f aca="true">IF(Completed!A23&lt;&gt;"", IF(Completed!D23="", TODAY(), Completed!D23), "")</f>
         <v/>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="16" t="str">
-        <f aca="true">IF(A24&lt;&gt;"", IF(D24="", TODAY(), D24), "")</f>
+        <f aca="true">IF(Completed!A24&lt;&gt;"", IF(Completed!D24="", TODAY(), Completed!D24), "")</f>
         <v/>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="16" t="str">
-        <f aca="true">IF(A25&lt;&gt;"", IF(D25="", TODAY(), D25), "")</f>
+        <f aca="true">IF(Completed!A25&lt;&gt;"", IF(Completed!D25="", TODAY(), Completed!D25), "")</f>
         <v/>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="16" t="str">
-        <f aca="true">IF(A26&lt;&gt;"", IF(D26="", TODAY(), D26), "")</f>
+        <f aca="true">IF(Completed!A26&lt;&gt;"", IF(Completed!D26="", TODAY(), Completed!D26), "")</f>
         <v/>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="16" t="str">
-        <f aca="true">IF(A27&lt;&gt;"", IF(D27="", TODAY(), D27), "")</f>
+        <f aca="true">IF(Completed!A27&lt;&gt;"", IF(Completed!D27="", TODAY(), Completed!D27), "")</f>
         <v/>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="16" t="str">
-        <f aca="true">IF(A28&lt;&gt;"", IF(D28="", TODAY(), D28), "")</f>
+        <f aca="true">IF(Completed!A28&lt;&gt;"", IF(Completed!D28="", TODAY(), Completed!D28), "")</f>
         <v/>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="16" t="str">
-        <f aca="true">IF(A29&lt;&gt;"", IF(D29="", TODAY(), D29), "")</f>
+        <f aca="true">IF(Completed!A29&lt;&gt;"", IF(Completed!D29="", TODAY(), Completed!D29), "")</f>
         <v/>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="16" t="str">
-        <f aca="true">IF(A30&lt;&gt;"", IF(D30="", TODAY(), D30), "")</f>
+        <f aca="true">IF(Completed!A30&lt;&gt;"", IF(Completed!D30="", TODAY(), Completed!D30), "")</f>
         <v/>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="16" t="str">
-        <f aca="true">IF(A31&lt;&gt;"", IF(D31="", TODAY(), D31), "")</f>
+        <f aca="true">IF(Completed!A31&lt;&gt;"", IF(Completed!D31="", TODAY(), Completed!D31), "")</f>
         <v/>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="16" t="str">
-        <f aca="true">IF(A32&lt;&gt;"", IF(D32="", TODAY(), D32), "")</f>
+        <f aca="true">IF(Completed!A32&lt;&gt;"", IF(Completed!D32="", TODAY(), Completed!D32), "")</f>
         <v/>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="16" t="str">
-        <f aca="true">IF(A33&lt;&gt;"", IF(D33="", TODAY(), D33), "")</f>
+        <f aca="true">IF(Completed!A33&lt;&gt;"", IF(Completed!D33="", TODAY(), Completed!D33), "")</f>
         <v/>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="16" t="str">
-        <f aca="true">IF(A34&lt;&gt;"", IF(D34="", TODAY(), D34), "")</f>
+        <f aca="true">IF(Completed!A34&lt;&gt;"", IF(Completed!D34="", TODAY(), Completed!D34), "")</f>
         <v/>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="16" t="str">
-        <f aca="true">IF(A35&lt;&gt;"", IF(D35="", TODAY(), D35), "")</f>
+        <f aca="true">IF(Completed!A35&lt;&gt;"", IF(Completed!D35="", TODAY(), Completed!D35), "")</f>
         <v/>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="16" t="str">
-        <f aca="true">IF(A36&lt;&gt;"", IF(D36="", TODAY(), D36), "")</f>
+        <f aca="true">IF(Completed!A36&lt;&gt;"", IF(Completed!D36="", TODAY(), Completed!D36), "")</f>
         <v/>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="16" t="str">
-        <f aca="true">IF(A37&lt;&gt;"", IF(D37="", TODAY(), D37), "")</f>
+        <f aca="true">IF(Completed!A37&lt;&gt;"", IF(Completed!D37="", TODAY(), Completed!D37), "")</f>
         <v/>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="16" t="str">
-        <f aca="true">IF(A38&lt;&gt;"", IF(D38="", TODAY(), D38), "")</f>
+        <f aca="true">IF(Completed!A38&lt;&gt;"", IF(Completed!D38="", TODAY(), Completed!D38), "")</f>
         <v/>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="16" t="str">
-        <f aca="true">IF(A39&lt;&gt;"", IF(D39="", TODAY(), D39), "")</f>
+        <f aca="true">IF(Completed!A39&lt;&gt;"", IF(Completed!D39="", TODAY(), Completed!D39), "")</f>
         <v/>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="16" t="str">
-        <f aca="true">IF(A40&lt;&gt;"", IF(D40="", TODAY(), D40), "")</f>
+        <f aca="true">IF(Completed!A40&lt;&gt;"", IF(Completed!D40="", TODAY(), Completed!D40), "")</f>
         <v/>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="16" t="str">
-        <f aca="true">IF(A41&lt;&gt;"", IF(D41="", TODAY(), D41), "")</f>
+        <f aca="true">IF(Completed!A41&lt;&gt;"", IF(Completed!D41="", TODAY(), Completed!D41), "")</f>
         <v/>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="16" t="str">
-        <f aca="true">IF(A42&lt;&gt;"", IF(D42="", TODAY(), D42), "")</f>
+        <f aca="true">IF(Completed!A42&lt;&gt;"", IF(Completed!D42="", TODAY(), Completed!D42), "")</f>
         <v/>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="16" t="str">
-        <f aca="true">IF(A43&lt;&gt;"", IF(D43="", TODAY(), D43), "")</f>
+        <f aca="true">IF(Completed!A43&lt;&gt;"", IF(Completed!D43="", TODAY(), Completed!D43), "")</f>
         <v/>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="16" t="str">
-        <f aca="true">IF(A44&lt;&gt;"", IF(D44="", TODAY(), D44), "")</f>
+        <f aca="true">IF(Completed!A44&lt;&gt;"", IF(Completed!D44="", TODAY(), Completed!D44), "")</f>
         <v/>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="16" t="str">
-        <f aca="true">IF(A45&lt;&gt;"", IF(D45="", TODAY(), D45), "")</f>
+        <f aca="true">IF(Completed!A45&lt;&gt;"", IF(Completed!D45="", TODAY(), Completed!D45), "")</f>
         <v/>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="16" t="str">
-        <f aca="true">IF(A46&lt;&gt;"", IF(D46="", TODAY(), D46), "")</f>
+        <f aca="true">IF(Completed!A46&lt;&gt;"", IF(Completed!D46="", TODAY(), Completed!D46), "")</f>
         <v/>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="16" t="str">
-        <f aca="true">IF(A47&lt;&gt;"", IF(D47="", TODAY(), D47), "")</f>
+        <f aca="true">IF(Completed!A47&lt;&gt;"", IF(Completed!D47="", TODAY(), Completed!D47), "")</f>
         <v/>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="16" t="str">
-        <f aca="true">IF(A48&lt;&gt;"", IF(D48="", TODAY(), D48), "")</f>
+        <f aca="true">IF(Completed!A48&lt;&gt;"", IF(Completed!D48="", TODAY(), Completed!D48), "")</f>
         <v/>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="16" t="str">
-        <f aca="true">IF(A49&lt;&gt;"", IF(D49="", TODAY(), D49), "")</f>
+        <f aca="true">IF(Completed!A49&lt;&gt;"", IF(Completed!D49="", TODAY(), Completed!D49), "")</f>
         <v/>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="16" t="str">
-        <f aca="true">IF(A50&lt;&gt;"", IF(D50="", TODAY(), D50), "")</f>
+        <f aca="true">IF(Completed!A50&lt;&gt;"", IF(Completed!D50="", TODAY(), Completed!D50), "")</f>
         <v/>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="16" t="str">
-        <f aca="true">IF(A51&lt;&gt;"", IF(D51="", TODAY(), D51), "")</f>
+        <f aca="true">IF(Completed!A51&lt;&gt;"", IF(Completed!D51="", TODAY(), Completed!D51), "")</f>
         <v/>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="16" t="str">
-        <f aca="true">IF(A52&lt;&gt;"", IF(D52="", TODAY(), D52), "")</f>
+        <f aca="true">IF(Completed!A52&lt;&gt;"", IF(Completed!D52="", TODAY(), Completed!D52), "")</f>
         <v/>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="16" t="str">
-        <f aca="true">IF(A53&lt;&gt;"", IF(D53="", TODAY(), D53), "")</f>
+        <f aca="true">IF(Completed!A53&lt;&gt;"", IF(Completed!D53="", TODAY(), Completed!D53), "")</f>
         <v/>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="16" t="str">
-        <f aca="true">IF(A54&lt;&gt;"", IF(D54="", TODAY(), D54), "")</f>
+        <f aca="true">IF(Completed!A54&lt;&gt;"", IF(Completed!D54="", TODAY(), Completed!D54), "")</f>
         <v/>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="16" t="str">
-        <f aca="true">IF(A55&lt;&gt;"", IF(D55="", TODAY(), D55), "")</f>
+        <f aca="true">IF(Completed!A55&lt;&gt;"", IF(Completed!D55="", TODAY(), Completed!D55), "")</f>
         <v/>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="16" t="str">
-        <f aca="true">IF(A56&lt;&gt;"", IF(D56="", TODAY(), D56), "")</f>
+        <f aca="true">IF(Completed!A56&lt;&gt;"", IF(Completed!D56="", TODAY(), Completed!D56), "")</f>
         <v/>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="16" t="str">
-        <f aca="true">IF(A57&lt;&gt;"", IF(D57="", TODAY(), D57), "")</f>
+        <f aca="true">IF(Completed!A57&lt;&gt;"", IF(Completed!D57="", TODAY(), Completed!D57), "")</f>
         <v/>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="16" t="str">
-        <f aca="true">IF(A58&lt;&gt;"", IF(D58="", TODAY(), D58), "")</f>
+        <f aca="true">IF(Completed!A58&lt;&gt;"", IF(Completed!D58="", TODAY(), Completed!D58), "")</f>
         <v/>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="16" t="str">
-        <f aca="true">IF(A59&lt;&gt;"", IF(D59="", TODAY(), D59), "")</f>
+        <f aca="true">IF(Completed!A59&lt;&gt;"", IF(Completed!D59="", TODAY(), Completed!D59), "")</f>
         <v/>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="16" t="str">
-        <f aca="true">IF(A60&lt;&gt;"", IF(D60="", TODAY(), D60), "")</f>
+        <f aca="true">IF(Completed!A60&lt;&gt;"", IF(Completed!D60="", TODAY(), Completed!D60), "")</f>
         <v/>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D61" s="16" t="str">
-        <f aca="true">IF(A61&lt;&gt;"", IF(D61="", TODAY(), D61), "")</f>
+        <f aca="true">IF(Completed!A61&lt;&gt;"", IF(Completed!D61="", TODAY(), Completed!D61), "")</f>
         <v/>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D62" s="16" t="str">
-        <f aca="true">IF(A62&lt;&gt;"", IF(D62="", TODAY(), D62), "")</f>
+        <f aca="true">IF(Completed!A62&lt;&gt;"", IF(Completed!D62="", TODAY(), Completed!D62), "")</f>
         <v/>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D63" s="16" t="str">
-        <f aca="true">IF(A63&lt;&gt;"", IF(D63="", TODAY(), D63), "")</f>
+        <f aca="true">IF(Completed!A63&lt;&gt;"", IF(Completed!D63="", TODAY(), Completed!D63), "")</f>
         <v/>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D64" s="16" t="str">
-        <f aca="true">IF(A64&lt;&gt;"", IF(D64="", TODAY(), D64), "")</f>
+        <f aca="true">IF(Completed!A64&lt;&gt;"", IF(Completed!D64="", TODAY(), Completed!D64), "")</f>
         <v/>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D65" s="16" t="str">
-        <f aca="true">IF(A65&lt;&gt;"", IF(D65="", TODAY(), D65), "")</f>
+        <f aca="true">IF(Completed!A65&lt;&gt;"", IF(Completed!D65="", TODAY(), Completed!D65), "")</f>
         <v/>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D66" s="16" t="str">
-        <f aca="true">IF(A66&lt;&gt;"", IF(D66="", TODAY(), D66), "")</f>
+        <f aca="true">IF(Completed!A66&lt;&gt;"", IF(Completed!D66="", TODAY(), Completed!D66), "")</f>
         <v/>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D67" s="16" t="str">
-        <f aca="true">IF(A67&lt;&gt;"", IF(D67="", TODAY(), D67), "")</f>
+        <f aca="true">IF(Completed!A67&lt;&gt;"", IF(Completed!D67="", TODAY(), Completed!D67), "")</f>
         <v/>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D68" s="16" t="str">
-        <f aca="true">IF(A68&lt;&gt;"", IF(D68="", TODAY(), D68), "")</f>
+        <f aca="true">IF(Completed!A68&lt;&gt;"", IF(Completed!D68="", TODAY(), Completed!D68), "")</f>
         <v/>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="16" t="str">
-        <f aca="true">IF(A69&lt;&gt;"", IF(D69="", TODAY(), D69), "")</f>
+        <f aca="true">IF(Completed!A69&lt;&gt;"", IF(Completed!D69="", TODAY(), Completed!D69), "")</f>
         <v/>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D70" s="16" t="str">
-        <f aca="true">IF(A70&lt;&gt;"", IF(D70="", TODAY(), D70), "")</f>
+        <f aca="true">IF(Completed!A70&lt;&gt;"", IF(Completed!D70="", TODAY(), Completed!D70), "")</f>
         <v/>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D71" s="16" t="str">
-        <f aca="true">IF(A71&lt;&gt;"", IF(D71="", TODAY(), D71), "")</f>
+        <f aca="true">IF(Completed!A71&lt;&gt;"", IF(Completed!D71="", TODAY(), Completed!D71), "")</f>
         <v/>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D72" s="16" t="str">
-        <f aca="true">IF(A72&lt;&gt;"", IF(D72="", TODAY(), D72), "")</f>
+        <f aca="true">IF(Completed!A72&lt;&gt;"", IF(Completed!D72="", TODAY(), Completed!D72), "")</f>
         <v/>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D73" s="16" t="str">
-        <f aca="true">IF(A73&lt;&gt;"", IF(D73="", TODAY(), D73), "")</f>
+        <f aca="true">IF(Completed!A73&lt;&gt;"", IF(Completed!D73="", TODAY(), Completed!D73), "")</f>
         <v/>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D74" s="16" t="str">
-        <f aca="true">IF(A74&lt;&gt;"", IF(D74="", TODAY(), D74), "")</f>
+        <f aca="true">IF(Completed!A74&lt;&gt;"", IF(Completed!D74="", TODAY(), Completed!D74), "")</f>
         <v/>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D75" s="16" t="str">
-        <f aca="true">IF(A75&lt;&gt;"", IF(D75="", TODAY(), D75), "")</f>
+        <f aca="true">IF(Completed!A75&lt;&gt;"", IF(Completed!D75="", TODAY(), Completed!D75), "")</f>
         <v/>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D76" s="16" t="str">
-        <f aca="true">IF(A76&lt;&gt;"", IF(D76="", TODAY(), D76), "")</f>
+        <f aca="true">IF(Completed!A76&lt;&gt;"", IF(Completed!D76="", TODAY(), Completed!D76), "")</f>
         <v/>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D77" s="16" t="str">
-        <f aca="true">IF(A77&lt;&gt;"", IF(D77="", TODAY(), D77), "")</f>
+        <f aca="true">IF(Completed!A77&lt;&gt;"", IF(Completed!D77="", TODAY(), Completed!D77), "")</f>
         <v/>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D78" s="16" t="str">
-        <f aca="true">IF(A78&lt;&gt;"", IF(D78="", TODAY(), D78), "")</f>
+        <f aca="true">IF(Completed!A78&lt;&gt;"", IF(Completed!D78="", TODAY(), Completed!D78), "")</f>
         <v/>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D79" s="16" t="str">
-        <f aca="true">IF(A79&lt;&gt;"", IF(D79="", TODAY(), D79), "")</f>
+        <f aca="true">IF(Completed!A79&lt;&gt;"", IF(Completed!D79="", TODAY(), Completed!D79), "")</f>
         <v/>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D80" s="16" t="str">
-        <f aca="true">IF(A80&lt;&gt;"", IF(D80="", TODAY(), D80), "")</f>
+        <f aca="true">IF(Completed!A80&lt;&gt;"", IF(Completed!D80="", TODAY(), Completed!D80), "")</f>
         <v/>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D81" s="16" t="str">
-        <f aca="true">IF(A81&lt;&gt;"", IF(D81="", TODAY(), D81), "")</f>
+        <f aca="true">IF(Completed!A81&lt;&gt;"", IF(Completed!D81="", TODAY(), Completed!D81), "")</f>
         <v/>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D82" s="16" t="str">
-        <f aca="true">IF(A82&lt;&gt;"", IF(D82="", TODAY(), D82), "")</f>
+        <f aca="true">IF(Completed!A82&lt;&gt;"", IF(Completed!D82="", TODAY(), Completed!D82), "")</f>
         <v/>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D83" s="16" t="str">
-        <f aca="true">IF(A83&lt;&gt;"", IF(D83="", TODAY(), D83), "")</f>
+        <f aca="true">IF(Completed!A83&lt;&gt;"", IF(Completed!D83="", TODAY(), Completed!D83), "")</f>
         <v/>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D84" s="16" t="str">
-        <f aca="true">IF(A84&lt;&gt;"", IF(D84="", TODAY(), D84), "")</f>
+        <f aca="true">IF(Completed!A84&lt;&gt;"", IF(Completed!D84="", TODAY(), Completed!D84), "")</f>
         <v/>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D85" s="16" t="str">
-        <f aca="true">IF(A85&lt;&gt;"", IF(D85="", TODAY(), D85), "")</f>
+        <f aca="true">IF(Completed!A85&lt;&gt;"", IF(Completed!D85="", TODAY(), Completed!D85), "")</f>
         <v/>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D86" s="16" t="str">
-        <f aca="true">IF(A86&lt;&gt;"", IF(D86="", TODAY(), D86), "")</f>
+        <f aca="true">IF(Completed!A86&lt;&gt;"", IF(Completed!D86="", TODAY(), Completed!D86), "")</f>
         <v/>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D87" s="16" t="str">
-        <f aca="true">IF(A87&lt;&gt;"", IF(D87="", TODAY(), D87), "")</f>
+        <f aca="true">IF(Completed!A87&lt;&gt;"", IF(Completed!D87="", TODAY(), Completed!D87), "")</f>
         <v/>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D88" s="16" t="str">
-        <f aca="true">IF(A88&lt;&gt;"", IF(D88="", TODAY(), D88), "")</f>
+        <f aca="true">IF(Completed!A88&lt;&gt;"", IF(Completed!D88="", TODAY(), Completed!D88), "")</f>
         <v/>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D89" s="16" t="str">
-        <f aca="true">IF(A89&lt;&gt;"", IF(D89="", TODAY(), D89), "")</f>
+        <f aca="true">IF(Completed!A89&lt;&gt;"", IF(Completed!D89="", TODAY(), Completed!D89), "")</f>
         <v/>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D90" s="16" t="str">
-        <f aca="true">IF(A90&lt;&gt;"", IF(D90="", TODAY(), D90), "")</f>
+        <f aca="true">IF(Completed!A90&lt;&gt;"", IF(Completed!D90="", TODAY(), Completed!D90), "")</f>
         <v/>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D91" s="16" t="str">
-        <f aca="true">IF(A91&lt;&gt;"", IF(D91="", TODAY(), D91), "")</f>
+        <f aca="true">IF(Completed!A91&lt;&gt;"", IF(Completed!D91="", TODAY(), Completed!D91), "")</f>
         <v/>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D92" s="16" t="str">
-        <f aca="true">IF(A92&lt;&gt;"", IF(D92="", TODAY(), D92), "")</f>
+        <f aca="true">IF(Completed!A92&lt;&gt;"", IF(Completed!D92="", TODAY(), Completed!D92), "")</f>
         <v/>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D93" s="16" t="str">
-        <f aca="true">IF(A93&lt;&gt;"", IF(D93="", TODAY(), D93), "")</f>
+        <f aca="true">IF(Completed!A93&lt;&gt;"", IF(Completed!D93="", TODAY(), Completed!D93), "")</f>
         <v/>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D94" s="16" t="str">
-        <f aca="true">IF(A94&lt;&gt;"", IF(D94="", TODAY(), D94), "")</f>
+        <f aca="true">IF(Completed!A94&lt;&gt;"", IF(Completed!D94="", TODAY(), Completed!D94), "")</f>
         <v/>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D95" s="16" t="str">
-        <f aca="true">IF(A95&lt;&gt;"", IF(D95="", TODAY(), D95), "")</f>
+        <f aca="true">IF(Completed!A95&lt;&gt;"", IF(Completed!D95="", TODAY(), Completed!D95), "")</f>
         <v/>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D96" s="16" t="str">
-        <f aca="true">IF(A96&lt;&gt;"", IF(D96="", TODAY(), D96), "")</f>
+        <f aca="true">IF(Completed!A96&lt;&gt;"", IF(Completed!D96="", TODAY(), Completed!D96), "")</f>
         <v/>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D97" s="16" t="str">
-        <f aca="true">IF(A97&lt;&gt;"", IF(D97="", TODAY(), D97), "")</f>
+        <f aca="true">IF(Completed!A97&lt;&gt;"", IF(Completed!D97="", TODAY(), Completed!D97), "")</f>
         <v/>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D98" s="16" t="str">
-        <f aca="true">IF(A98&lt;&gt;"", IF(D98="", TODAY(), D98), "")</f>
+        <f aca="true">IF(Completed!A98&lt;&gt;"", IF(Completed!D98="", TODAY(), Completed!D98), "")</f>
         <v/>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D99" s="16" t="str">
-        <f aca="true">IF(A99&lt;&gt;"", IF(D99="", TODAY(), D99), "")</f>
+        <f aca="true">IF(Completed!A99&lt;&gt;"", IF(Completed!D99="", TODAY(), Completed!D99), "")</f>
         <v/>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D100" s="16" t="str">
-        <f aca="true">IF(A100&lt;&gt;"", IF(D100="", TODAY(), D100), "")</f>
+        <f aca="true">IF(Completed!A100&lt;&gt;"", IF(Completed!D100="", TODAY(), Completed!D100), "")</f>
         <v/>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D101" s="16" t="str">
-        <f aca="true">IF(A101&lt;&gt;"", IF(D101="", TODAY(), D101), "")</f>
+        <f aca="true">IF(Completed!A101&lt;&gt;"", IF(Completed!D101="", TODAY(), Completed!D101), "")</f>
         <v/>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D102" s="16" t="str">
-        <f aca="true">IF(A102&lt;&gt;"", IF(D102="", TODAY(), D102), "")</f>
+        <f aca="true">IF(Completed!A102&lt;&gt;"", IF(Completed!D102="", TODAY(), Completed!D102), "")</f>
         <v/>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D103" s="16" t="str">
-        <f aca="true">IF(A103&lt;&gt;"", IF(D103="", TODAY(), D103), "")</f>
+        <f aca="true">IF(Completed!A103&lt;&gt;"", IF(Completed!D103="", TODAY(), Completed!D103), "")</f>
         <v/>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D104" s="16" t="str">
-        <f aca="true">IF(A104&lt;&gt;"", IF(D104="", TODAY(), D104), "")</f>
+        <f aca="true">IF(Completed!A104&lt;&gt;"", IF(Completed!D104="", TODAY(), Completed!D104), "")</f>
         <v/>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D105" s="16" t="str">
-        <f aca="true">IF(A105&lt;&gt;"", IF(D105="", TODAY(), D105), "")</f>
+        <f aca="true">IF(Completed!A105&lt;&gt;"", IF(Completed!D105="", TODAY(), Completed!D105), "")</f>
         <v/>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D106" s="16" t="str">
-        <f aca="true">IF(A106&lt;&gt;"", IF(D106="", TODAY(), D106), "")</f>
+        <f aca="true">IF(Completed!A106&lt;&gt;"", IF(Completed!D106="", TODAY(), Completed!D106), "")</f>
         <v/>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D107" s="16" t="str">
-        <f aca="true">IF(A107&lt;&gt;"", IF(D107="", TODAY(), D107), "")</f>
+        <f aca="true">IF(Completed!A107&lt;&gt;"", IF(Completed!D107="", TODAY(), Completed!D107), "")</f>
         <v/>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D108" s="16" t="str">
-        <f aca="true">IF(A108&lt;&gt;"", IF(D108="", TODAY(), D108), "")</f>
+        <f aca="true">IF(Completed!A108&lt;&gt;"", IF(Completed!D108="", TODAY(), Completed!D108), "")</f>
         <v/>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D109" s="16" t="str">
-        <f aca="true">IF(A109&lt;&gt;"", IF(D109="", TODAY(), D109), "")</f>
+        <f aca="true">IF(Completed!A109&lt;&gt;"", IF(Completed!D109="", TODAY(), Completed!D109), "")</f>
         <v/>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D110" s="16" t="str">
-        <f aca="true">IF(A110&lt;&gt;"", IF(D110="", TODAY(), D110), "")</f>
+        <f aca="true">IF(Completed!A110&lt;&gt;"", IF(Completed!D110="", TODAY(), Completed!D110), "")</f>
         <v/>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D111" s="16" t="str">
-        <f aca="true">IF(A111&lt;&gt;"", IF(D111="", TODAY(), D111), "")</f>
+        <f aca="true">IF(Completed!A111&lt;&gt;"", IF(Completed!D111="", TODAY(), Completed!D111), "")</f>
         <v/>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D112" s="16" t="str">
-        <f aca="true">IF(A112&lt;&gt;"", IF(D112="", TODAY(), D112), "")</f>
+        <f aca="true">IF(Completed!A112&lt;&gt;"", IF(Completed!D112="", TODAY(), Completed!D112), "")</f>
         <v/>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D113" s="16" t="str">
-        <f aca="true">IF(A113&lt;&gt;"", IF(D113="", TODAY(), D113), "")</f>
+        <f aca="true">IF(Completed!A113&lt;&gt;"", IF(Completed!D113="", TODAY(), Completed!D113), "")</f>
         <v/>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D114" s="16" t="str">
-        <f aca="true">IF(A114&lt;&gt;"", IF(D114="", TODAY(), D114), "")</f>
+        <f aca="true">IF(Completed!A114&lt;&gt;"", IF(Completed!D114="", TODAY(), Completed!D114), "")</f>
         <v/>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D115" s="16" t="str">
-        <f aca="true">IF(A115&lt;&gt;"", IF(D115="", TODAY(), D115), "")</f>
+        <f aca="true">IF(Completed!A115&lt;&gt;"", IF(Completed!D115="", TODAY(), Completed!D115), "")</f>
         <v/>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D116" s="16" t="str">
-        <f aca="true">IF(A116&lt;&gt;"", IF(D116="", TODAY(), D116), "")</f>
+        <f aca="true">IF(Completed!A116&lt;&gt;"", IF(Completed!D116="", TODAY(), Completed!D116), "")</f>
         <v/>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D117" s="16" t="str">
-        <f aca="true">IF(A117&lt;&gt;"", IF(D117="", TODAY(), D117), "")</f>
+        <f aca="true">IF(Completed!A117&lt;&gt;"", IF(Completed!D117="", TODAY(), Completed!D117), "")</f>
         <v/>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D118" s="16" t="str">
-        <f aca="true">IF(A118&lt;&gt;"", IF(D118="", TODAY(), D118), "")</f>
+        <f aca="true">IF(Completed!A118&lt;&gt;"", IF(Completed!D118="", TODAY(), Completed!D118), "")</f>
         <v/>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D119" s="16" t="str">
-        <f aca="true">IF(A119&lt;&gt;"", IF(D119="", TODAY(), D119), "")</f>
+        <f aca="true">IF(Completed!A119&lt;&gt;"", IF(Completed!D119="", TODAY(), Completed!D119), "")</f>
         <v/>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D120" s="16" t="str">
-        <f aca="true">IF(A120&lt;&gt;"", IF(D120="", TODAY(), D120), "")</f>
+        <f aca="true">IF(Completed!A120&lt;&gt;"", IF(Completed!D120="", TODAY(), Completed!D120), "")</f>
         <v/>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D121" s="16" t="str">
-        <f aca="true">IF(A121&lt;&gt;"", IF(D121="", TODAY(), D121), "")</f>
+        <f aca="true">IF(Completed!A121&lt;&gt;"", IF(Completed!D121="", TODAY(), Completed!D121), "")</f>
         <v/>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D122" s="16" t="str">
-        <f aca="true">IF(A122&lt;&gt;"", IF(D122="", TODAY(), D122), "")</f>
+        <f aca="true">IF(Completed!A122&lt;&gt;"", IF(Completed!D122="", TODAY(), Completed!D122), "")</f>
         <v/>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D123" s="16" t="str">
-        <f aca="true">IF(A123&lt;&gt;"", IF(D123="", TODAY(), D123), "")</f>
+        <f aca="true">IF(Completed!A123&lt;&gt;"", IF(Completed!D123="", TODAY(), Completed!D123), "")</f>
         <v/>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D124" s="16" t="str">
-        <f aca="true">IF(A124&lt;&gt;"", IF(D124="", TODAY(), D124), "")</f>
+        <f aca="true">IF(Completed!A124&lt;&gt;"", IF(Completed!D124="", TODAY(), Completed!D124), "")</f>
         <v/>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D125" s="16" t="str">
-        <f aca="true">IF(A125&lt;&gt;"", IF(D125="", TODAY(), D125), "")</f>
+        <f aca="true">IF(Completed!A125&lt;&gt;"", IF(Completed!D125="", TODAY(), Completed!D125), "")</f>
         <v/>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D126" s="16" t="str">
-        <f aca="true">IF(A126&lt;&gt;"", IF(D126="", TODAY(), D126), "")</f>
+        <f aca="true">IF(Completed!A126&lt;&gt;"", IF(Completed!D126="", TODAY(), Completed!D126), "")</f>
         <v/>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D127" s="16" t="str">
-        <f aca="true">IF(A127&lt;&gt;"", IF(D127="", TODAY(), D127), "")</f>
+        <f aca="true">IF(Completed!A127&lt;&gt;"", IF(Completed!D127="", TODAY(), Completed!D127), "")</f>
         <v/>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D128" s="16" t="str">
-        <f aca="true">IF(A128&lt;&gt;"", IF(D128="", TODAY(), D128), "")</f>
+        <f aca="true">IF(Completed!A128&lt;&gt;"", IF(Completed!D128="", TODAY(), Completed!D128), "")</f>
         <v/>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D129" s="16" t="str">
-        <f aca="true">IF(A129&lt;&gt;"", IF(D129="", TODAY(), D129), "")</f>
+        <f aca="true">IF(Completed!A129&lt;&gt;"", IF(Completed!D129="", TODAY(), Completed!D129), "")</f>
         <v/>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D130" s="16" t="str">
-        <f aca="true">IF(A130&lt;&gt;"", IF(D130="", TODAY(), D130), "")</f>
+        <f aca="true">IF(Completed!A130&lt;&gt;"", IF(Completed!D130="", TODAY(), Completed!D130), "")</f>
         <v/>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D131" s="16" t="str">
-        <f aca="true">IF(A131&lt;&gt;"", IF(D131="", TODAY(), D131), "")</f>
+        <f aca="true">IF(Completed!A131&lt;&gt;"", IF(Completed!D131="", TODAY(), Completed!D131), "")</f>
         <v/>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D132" s="16" t="str">
-        <f aca="true">IF(A132&lt;&gt;"", IF(D132="", TODAY(), D132), "")</f>
+        <f aca="true">IF(Completed!A132&lt;&gt;"", IF(Completed!D132="", TODAY(), Completed!D132), "")</f>
         <v/>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D133" s="16" t="str">
-        <f aca="true">IF(A133&lt;&gt;"", IF(D133="", TODAY(), D133), "")</f>
+        <f aca="true">IF(Completed!A133&lt;&gt;"", IF(Completed!D133="", TODAY(), Completed!D133), "")</f>
         <v/>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D134" s="16" t="str">
-        <f aca="true">IF(A134&lt;&gt;"", IF(D134="", TODAY(), D134), "")</f>
+        <f aca="true">IF(Completed!A134&lt;&gt;"", IF(Completed!D134="", TODAY(), Completed!D134), "")</f>
         <v/>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D135" s="16" t="str">
-        <f aca="true">IF(A135&lt;&gt;"", IF(D135="", TODAY(), D135), "")</f>
+        <f aca="true">IF(Completed!A135&lt;&gt;"", IF(Completed!D135="", TODAY(), Completed!D135), "")</f>
         <v/>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D136" s="16" t="str">
-        <f aca="true">IF(A136&lt;&gt;"", IF(D136="", TODAY(), D136), "")</f>
+        <f aca="true">IF(Completed!A136&lt;&gt;"", IF(Completed!D136="", TODAY(), Completed!D136), "")</f>
         <v/>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D137" s="16" t="str">
-        <f aca="true">IF(A137&lt;&gt;"", IF(D137="", TODAY(), D137), "")</f>
+        <f aca="true">IF(Completed!A137&lt;&gt;"", IF(Completed!D137="", TODAY(), Completed!D137), "")</f>
         <v/>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D138" s="16" t="str">
-        <f aca="true">IF(A138&lt;&gt;"", IF(D138="", TODAY(), D138), "")</f>
+        <f aca="true">IF(Completed!A138&lt;&gt;"", IF(Completed!D138="", TODAY(), Completed!D138), "")</f>
         <v/>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D139" s="16" t="str">
-        <f aca="true">IF(A139&lt;&gt;"", IF(D139="", TODAY(), D139), "")</f>
+        <f aca="true">IF(Completed!A139&lt;&gt;"", IF(Completed!D139="", TODAY(), Completed!D139), "")</f>
         <v/>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D140" s="16" t="str">
-        <f aca="true">IF(A140&lt;&gt;"", IF(D140="", TODAY(), D140), "")</f>
+        <f aca="true">IF(Completed!A140&lt;&gt;"", IF(Completed!D140="", TODAY(), Completed!D140), "")</f>
         <v/>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D141" s="16" t="str">
-        <f aca="true">IF(A141&lt;&gt;"", IF(D141="", TODAY(), D141), "")</f>
+        <f aca="true">IF(Completed!A141&lt;&gt;"", IF(Completed!D141="", TODAY(), Completed!D141), "")</f>
         <v/>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D142" s="16" t="str">
-        <f aca="true">IF(A142&lt;&gt;"", IF(D142="", TODAY(), D142), "")</f>
+        <f aca="true">IF(Completed!A142&lt;&gt;"", IF(Completed!D142="", TODAY(), Completed!D142), "")</f>
         <v/>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D143" s="16" t="str">
-        <f aca="true">IF(A143&lt;&gt;"", IF(D143="", TODAY(), D143), "")</f>
+        <f aca="true">IF(Completed!A143&lt;&gt;"", IF(Completed!D143="", TODAY(), Completed!D143), "")</f>
         <v/>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D144" s="16" t="str">
-        <f aca="true">IF(A144&lt;&gt;"", IF(D144="", TODAY(), D144), "")</f>
+        <f aca="true">IF(Completed!A144&lt;&gt;"", IF(Completed!D144="", TODAY(), Completed!D144), "")</f>
         <v/>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D145" s="16" t="str">
-        <f aca="true">IF(A145&lt;&gt;"", IF(D145="", TODAY(), D145), "")</f>
+        <f aca="true">IF(Completed!A145&lt;&gt;"", IF(Completed!D145="", TODAY(), Completed!D145), "")</f>
         <v/>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D146" s="16" t="str">
-        <f aca="true">IF(A146&lt;&gt;"", IF(D146="", TODAY(), D146), "")</f>
+        <f aca="true">IF(Completed!A146&lt;&gt;"", IF(Completed!D146="", TODAY(), Completed!D146), "")</f>
         <v/>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D147" s="16" t="str">
-        <f aca="true">IF(A147&lt;&gt;"", IF(D147="", TODAY(), D147), "")</f>
+        <f aca="true">IF(Completed!A147&lt;&gt;"", IF(Completed!D147="", TODAY(), Completed!D147), "")</f>
         <v/>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D148" s="16" t="str">
-        <f aca="true">IF(A148&lt;&gt;"", IF(D148="", TODAY(), D148), "")</f>
+        <f aca="true">IF(Completed!A148&lt;&gt;"", IF(Completed!D148="", TODAY(), Completed!D148), "")</f>
         <v/>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D149" s="16" t="str">
-        <f aca="true">IF(A149&lt;&gt;"", IF(D149="", TODAY(), D149), "")</f>
+        <f aca="true">IF(Completed!A149&lt;&gt;"", IF(Completed!D149="", TODAY(), Completed!D149), "")</f>
         <v/>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D150" s="16" t="str">
-        <f aca="true">IF(A150&lt;&gt;"", IF(D150="", TODAY(), D150), "")</f>
+        <f aca="true">IF(Completed!A150&lt;&gt;"", IF(Completed!D150="", TODAY(), Completed!D150), "")</f>
         <v/>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D151" s="16" t="str">
-        <f aca="true">IF(A151&lt;&gt;"", IF(D151="", TODAY(), D151), "")</f>
+        <f aca="true">IF(Completed!A151&lt;&gt;"", IF(Completed!D151="", TODAY(), Completed!D151), "")</f>
         <v/>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D152" s="16" t="str">
-        <f aca="true">IF(A152&lt;&gt;"", IF(D152="", TODAY(), D152), "")</f>
+        <f aca="true">IF(Completed!A152&lt;&gt;"", IF(Completed!D152="", TODAY(), Completed!D152), "")</f>
         <v/>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D153" s="16" t="str">
-        <f aca="true">IF(A153&lt;&gt;"", IF(D153="", TODAY(), D153), "")</f>
+        <f aca="true">IF(Completed!A153&lt;&gt;"", IF(Completed!D153="", TODAY(), Completed!D153), "")</f>
         <v/>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D154" s="16" t="str">
-        <f aca="true">IF(A154&lt;&gt;"", IF(D154="", TODAY(), D154), "")</f>
+        <f aca="true">IF(Completed!A154&lt;&gt;"", IF(Completed!D154="", TODAY(), Completed!D154), "")</f>
         <v/>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D155" s="16" t="str">
-        <f aca="true">IF(A155&lt;&gt;"", IF(D155="", TODAY(), D155), "")</f>
+        <f aca="true">IF(Completed!A155&lt;&gt;"", IF(Completed!D155="", TODAY(), Completed!D155), "")</f>
         <v/>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D156" s="16" t="str">
-        <f aca="true">IF(A156&lt;&gt;"", IF(D156="", TODAY(), D156), "")</f>
+        <f aca="true">IF(Completed!A156&lt;&gt;"", IF(Completed!D156="", TODAY(), Completed!D156), "")</f>
         <v/>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D157" s="16" t="str">
-        <f aca="true">IF(A157&lt;&gt;"", IF(D157="", TODAY(), D157), "")</f>
+        <f aca="true">IF(Completed!A157&lt;&gt;"", IF(Completed!D157="", TODAY(), Completed!D157), "")</f>
         <v/>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D158" s="16" t="str">
-        <f aca="true">IF(A158&lt;&gt;"", IF(D158="", TODAY(), D158), "")</f>
+        <f aca="true">IF(Completed!A158&lt;&gt;"", IF(Completed!D158="", TODAY(), Completed!D158), "")</f>
         <v/>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D159" s="16" t="str">
-        <f aca="true">IF(A159&lt;&gt;"", IF(D159="", TODAY(), D159), "")</f>
+        <f aca="true">IF(Completed!A159&lt;&gt;"", IF(Completed!D159="", TODAY(), Completed!D159), "")</f>
         <v/>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D160" s="16" t="str">
-        <f aca="true">IF(A160&lt;&gt;"", IF(D160="", TODAY(), D160), "")</f>
+        <f aca="true">IF(Completed!A160&lt;&gt;"", IF(Completed!D160="", TODAY(), Completed!D160), "")</f>
         <v/>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D161" s="16" t="str">
-        <f aca="true">IF(A161&lt;&gt;"", IF(D161="", TODAY(), D161), "")</f>
+        <f aca="true">IF(Completed!A161&lt;&gt;"", IF(Completed!D161="", TODAY(), Completed!D161), "")</f>
         <v/>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D162" s="16" t="str">
-        <f aca="true">IF(A162&lt;&gt;"", IF(D162="", TODAY(), D162), "")</f>
+        <f aca="true">IF(Completed!A162&lt;&gt;"", IF(Completed!D162="", TODAY(), Completed!D162), "")</f>
         <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D163" s="16" t="str">
-        <f aca="true">IF(A163&lt;&gt;"", IF(D163="", TODAY(), D163), "")</f>
+        <f aca="true">IF(Completed!A163&lt;&gt;"", IF(Completed!D163="", TODAY(), Completed!D163), "")</f>
         <v/>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D164" s="16" t="str">
-        <f aca="true">IF(A164&lt;&gt;"", IF(D164="", TODAY(), D164), "")</f>
+        <f aca="true">IF(Completed!A164&lt;&gt;"", IF(Completed!D164="", TODAY(), Completed!D164), "")</f>
         <v/>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D165" s="16" t="str">
-        <f aca="true">IF(A165&lt;&gt;"", IF(D165="", TODAY(), D165), "")</f>
+        <f aca="true">IF(Completed!A165&lt;&gt;"", IF(Completed!D165="", TODAY(), Completed!D165), "")</f>
         <v/>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D166" s="16" t="str">
-        <f aca="true">IF(A166&lt;&gt;"", IF(D166="", TODAY(), D166), "")</f>
+        <f aca="true">IF(Completed!A166&lt;&gt;"", IF(Completed!D166="", TODAY(), Completed!D166), "")</f>
         <v/>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D167" s="16" t="str">
-        <f aca="true">IF(A167&lt;&gt;"", IF(D167="", TODAY(), D167), "")</f>
+        <f aca="true">IF(Completed!A167&lt;&gt;"", IF(Completed!D167="", TODAY(), Completed!D167), "")</f>
         <v/>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D168" s="16" t="str">
-        <f aca="true">IF(A168&lt;&gt;"", IF(D168="", TODAY(), D168), "")</f>
+        <f aca="true">IF(Completed!A168&lt;&gt;"", IF(Completed!D168="", TODAY(), Completed!D168), "")</f>
         <v/>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D169" s="16" t="str">
-        <f aca="true">IF(A169&lt;&gt;"", IF(D169="", TODAY(), D169), "")</f>
+        <f aca="true">IF(Completed!A169&lt;&gt;"", IF(Completed!D169="", TODAY(), Completed!D169), "")</f>
         <v/>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D170" s="16" t="str">
-        <f aca="true">IF(A170&lt;&gt;"", IF(D170="", TODAY(), D170), "")</f>
+        <f aca="true">IF(Completed!A170&lt;&gt;"", IF(Completed!D170="", TODAY(), Completed!D170), "")</f>
         <v/>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D171" s="16" t="str">
-        <f aca="true">IF(A171&lt;&gt;"", IF(D171="", TODAY(), D171), "")</f>
+        <f aca="true">IF(Completed!A171&lt;&gt;"", IF(Completed!D171="", TODAY(), Completed!D171), "")</f>
         <v/>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D172" s="16" t="str">
-        <f aca="true">IF(A172&lt;&gt;"", IF(D172="", TODAY(), D172), "")</f>
+        <f aca="true">IF(Completed!A172&lt;&gt;"", IF(Completed!D172="", TODAY(), Completed!D172), "")</f>
         <v/>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D173" s="16" t="str">
-        <f aca="true">IF(A173&lt;&gt;"", IF(D173="", TODAY(), D173), "")</f>
+        <f aca="true">IF(Completed!A173&lt;&gt;"", IF(Completed!D173="", TODAY(), Completed!D173), "")</f>
         <v/>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D174" s="16" t="str">
-        <f aca="true">IF(A174&lt;&gt;"", IF(D174="", TODAY(), D174), "")</f>
+        <f aca="true">IF(Completed!A174&lt;&gt;"", IF(Completed!D174="", TODAY(), Completed!D174), "")</f>
         <v/>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D175" s="16" t="str">
-        <f aca="true">IF(A175&lt;&gt;"", IF(D175="", TODAY(), D175), "")</f>
+        <f aca="true">IF(Completed!A175&lt;&gt;"", IF(Completed!D175="", TODAY(), Completed!D175), "")</f>
         <v/>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D176" s="16" t="str">
-        <f aca="true">IF(A176&lt;&gt;"", IF(D176="", TODAY(), D176), "")</f>
+        <f aca="true">IF(Completed!A176&lt;&gt;"", IF(Completed!D176="", TODAY(), Completed!D176), "")</f>
         <v/>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D177" s="16" t="str">
-        <f aca="true">IF(A177&lt;&gt;"", IF(D177="", TODAY(), D177), "")</f>
+        <f aca="true">IF(Completed!A177&lt;&gt;"", IF(Completed!D177="", TODAY(), Completed!D177), "")</f>
         <v/>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D178" s="16" t="str">
-        <f aca="true">IF(A178&lt;&gt;"", IF(D178="", TODAY(), D178), "")</f>
+        <f aca="true">IF(Completed!A178&lt;&gt;"", IF(Completed!D178="", TODAY(), Completed!D178), "")</f>
         <v/>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D179" s="16" t="str">
-        <f aca="true">IF(A179&lt;&gt;"", IF(D179="", TODAY(), D179), "")</f>
+        <f aca="true">IF(Completed!A179&lt;&gt;"", IF(Completed!D179="", TODAY(), Completed!D179), "")</f>
         <v/>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D180" s="16" t="str">
-        <f aca="true">IF(A180&lt;&gt;"", IF(D180="", TODAY(), D180), "")</f>
+        <f aca="true">IF(Completed!A180&lt;&gt;"", IF(Completed!D180="", TODAY(), Completed!D180), "")</f>
         <v/>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D181" s="16" t="str">
-        <f aca="true">IF(A181&lt;&gt;"", IF(D181="", TODAY(), D181), "")</f>
+        <f aca="true">IF(Completed!A181&lt;&gt;"", IF(Completed!D181="", TODAY(), Completed!D181), "")</f>
         <v/>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D182" s="16" t="str">
-        <f aca="true">IF(A182&lt;&gt;"", IF(D182="", TODAY(), D182), "")</f>
+        <f aca="true">IF(Completed!A182&lt;&gt;"", IF(Completed!D182="", TODAY(), Completed!D182), "")</f>
         <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D183" s="16" t="str">
-        <f aca="true">IF(A183&lt;&gt;"", IF(D183="", TODAY(), D183), "")</f>
+        <f aca="true">IF(Completed!A183&lt;&gt;"", IF(Completed!D183="", TODAY(), Completed!D183), "")</f>
         <v/>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D184" s="16" t="str">
-        <f aca="true">IF(A184&lt;&gt;"", IF(D184="", TODAY(), D184), "")</f>
+        <f aca="true">IF(Completed!A184&lt;&gt;"", IF(Completed!D184="", TODAY(), Completed!D184), "")</f>
         <v/>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D185" s="16" t="str">
-        <f aca="true">IF(A185&lt;&gt;"", IF(D185="", TODAY(), D185), "")</f>
+        <f aca="true">IF(Completed!A185&lt;&gt;"", IF(Completed!D185="", TODAY(), Completed!D185), "")</f>
         <v/>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D186" s="16" t="str">
-        <f aca="true">IF(A186&lt;&gt;"", IF(D186="", TODAY(), D186), "")</f>
+        <f aca="true">IF(Completed!A186&lt;&gt;"", IF(Completed!D186="", TODAY(), Completed!D186), "")</f>
         <v/>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D187" s="16" t="str">
-        <f aca="true">IF(A187&lt;&gt;"", IF(D187="", TODAY(), D187), "")</f>
+        <f aca="true">IF(Completed!A187&lt;&gt;"", IF(Completed!D187="", TODAY(), Completed!D187), "")</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D188" s="16" t="str">
-        <f aca="true">IF(A188&lt;&gt;"", IF(D188="", TODAY(), D188), "")</f>
+        <f aca="true">IF(Completed!A188&lt;&gt;"", IF(Completed!D188="", TODAY(), Completed!D188), "")</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D189" s="16" t="str">
-        <f aca="true">IF(A189&lt;&gt;"", IF(D189="", TODAY(), D189), "")</f>
+        <f aca="true">IF(Completed!A189&lt;&gt;"", IF(Completed!D189="", TODAY(), Completed!D189), "")</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D190" s="16" t="str">
-        <f aca="true">IF(A190&lt;&gt;"", IF(D190="", TODAY(), D190), "")</f>
+        <f aca="true">IF(Completed!A190&lt;&gt;"", IF(Completed!D190="", TODAY(), Completed!D190), "")</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D191" s="16" t="str">
-        <f aca="true">IF(A191&lt;&gt;"", IF(D191="", TODAY(), D191), "")</f>
+        <f aca="true">IF(Completed!A191&lt;&gt;"", IF(Completed!D191="", TODAY(), Completed!D191), "")</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D192" s="16" t="str">
-        <f aca="true">IF(A192&lt;&gt;"", IF(D192="", TODAY(), D192), "")</f>
+        <f aca="true">IF(Completed!A192&lt;&gt;"", IF(Completed!D192="", TODAY(), Completed!D192), "")</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D193" s="16" t="str">
-        <f aca="true">IF(A193&lt;&gt;"", IF(D193="", TODAY(), D193), "")</f>
+        <f aca="true">IF(Completed!A193&lt;&gt;"", IF(Completed!D193="", TODAY(), Completed!D193), "")</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D194" s="16" t="str">
-        <f aca="true">IF(A194&lt;&gt;"", IF(D194="", TODAY(), D194), "")</f>
+        <f aca="true">IF(Completed!A194&lt;&gt;"", IF(Completed!D194="", TODAY(), Completed!D194), "")</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D195" s="16" t="str">
-        <f aca="true">IF(A195&lt;&gt;"", IF(D195="", TODAY(), D195), "")</f>
+        <f aca="true">IF(Completed!A195&lt;&gt;"", IF(Completed!D195="", TODAY(), Completed!D195), "")</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D196" s="16" t="str">
-        <f aca="true">IF(A196&lt;&gt;"", IF(D196="", TODAY(), D196), "")</f>
+        <f aca="true">IF(Completed!A196&lt;&gt;"", IF(Completed!D196="", TODAY(), Completed!D196), "")</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D197" s="16" t="str">
-        <f aca="true">IF(A197&lt;&gt;"", IF(D197="", TODAY(), D197), "")</f>
+        <f aca="true">IF(Completed!A197&lt;&gt;"", IF(Completed!D197="", TODAY(), Completed!D197), "")</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D198" s="16" t="str">
-        <f aca="true">IF(A198&lt;&gt;"", IF(D198="", TODAY(), D198), "")</f>
+        <f aca="true">IF(Completed!A198&lt;&gt;"", IF(Completed!D198="", TODAY(), Completed!D198), "")</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D199" s="16" t="str">
-        <f aca="true">IF(A199&lt;&gt;"", IF(D199="", TODAY(), D199), "")</f>
+        <f aca="true">IF(Completed!A199&lt;&gt;"", IF(Completed!D199="", TODAY(), Completed!D199), "")</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D200" s="16" t="str">
-        <f aca="true">IF(A200&lt;&gt;"", IF(D200="", TODAY(), D200), "")</f>
+        <f aca="true">IF(Completed!A200&lt;&gt;"", IF(Completed!D200="", TODAY(), Completed!D200), "")</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D201" s="16" t="str">
-        <f aca="true">IF(A201&lt;&gt;"", IF(D201="", TODAY(), D201), "")</f>
+        <f aca="true">IF(Completed!A201&lt;&gt;"", IF(Completed!D201="", TODAY(), Completed!D201), "")</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D202" s="16" t="str">
-        <f aca="true">IF(A202&lt;&gt;"", IF(D202="", TODAY(), D202), "")</f>
+        <f aca="true">IF(Completed!A202&lt;&gt;"", IF(Completed!D202="", TODAY(), Completed!D202), "")</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D203" s="16" t="str">
-        <f aca="true">IF(A203&lt;&gt;"", IF(D203="", TODAY(), D203), "")</f>
+        <f aca="true">IF(Completed!A203&lt;&gt;"", IF(Completed!D203="", TODAY(), Completed!D203), "")</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D204" s="16" t="str">
-        <f aca="true">IF(A204&lt;&gt;"", IF(D204="", TODAY(), D204), "")</f>
+        <f aca="true">IF(Completed!A204&lt;&gt;"", IF(Completed!D204="", TODAY(), Completed!D204), "")</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D205" s="16" t="str">
-        <f aca="true">IF(A205&lt;&gt;"", IF(D205="", TODAY(), D205), "")</f>
+        <f aca="true">IF(Completed!A205&lt;&gt;"", IF(Completed!D205="", TODAY(), Completed!D205), "")</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D206" s="16" t="str">
-        <f aca="true">IF(A206&lt;&gt;"", IF(D206="", TODAY(), D206), "")</f>
+        <f aca="true">IF(Completed!A206&lt;&gt;"", IF(Completed!D206="", TODAY(), Completed!D206), "")</f>
         <v/>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D207" s="16" t="str">
-        <f aca="true">IF(A207&lt;&gt;"", IF(D207="", TODAY(), D207), "")</f>
+        <f aca="true">IF(Completed!A207&lt;&gt;"", IF(Completed!D207="", TODAY(), Completed!D207), "")</f>
         <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D208" s="16" t="str">
-        <f aca="true">IF(A208&lt;&gt;"", IF(D208="", TODAY(), D208), "")</f>
+        <f aca="true">IF(Completed!A208&lt;&gt;"", IF(Completed!D208="", TODAY(), Completed!D208), "")</f>
         <v/>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D209" s="16" t="str">
-        <f aca="true">IF(A209&lt;&gt;"", IF(D209="", TODAY(), D209), "")</f>
+        <f aca="true">IF(Completed!A209&lt;&gt;"", IF(Completed!D209="", TODAY(), Completed!D209), "")</f>
         <v/>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D210" s="16" t="str">
-        <f aca="true">IF(A210&lt;&gt;"", IF(D210="", TODAY(), D210), "")</f>
+        <f aca="true">IF(Completed!A210&lt;&gt;"", IF(Completed!D210="", TODAY(), Completed!D210), "")</f>
         <v/>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D211" s="16" t="str">
-        <f aca="true">IF(A211&lt;&gt;"", IF(D211="", TODAY(), D211), "")</f>
+        <f aca="true">IF(Completed!A211&lt;&gt;"", IF(Completed!D211="", TODAY(), Completed!D211), "")</f>
         <v/>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D212" s="16" t="str">
-        <f aca="true">IF(A212&lt;&gt;"", IF(D212="", TODAY(), D212), "")</f>
+        <f aca="true">IF(Completed!A212&lt;&gt;"", IF(Completed!D212="", TODAY(), Completed!D212), "")</f>
         <v/>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D213" s="16" t="str">
-        <f aca="true">IF(A213&lt;&gt;"", IF(D213="", TODAY(), D213), "")</f>
+        <f aca="true">IF(Completed!A213&lt;&gt;"", IF(Completed!D213="", TODAY(), Completed!D213), "")</f>
         <v/>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D214" s="16" t="str">
-        <f aca="true">IF(A214&lt;&gt;"", IF(D214="", TODAY(), D214), "")</f>
+        <f aca="true">IF(Completed!A214&lt;&gt;"", IF(Completed!D214="", TODAY(), Completed!D214), "")</f>
         <v/>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D215" s="16" t="str">
-        <f aca="true">IF(A215&lt;&gt;"", IF(D215="", TODAY(), D215), "")</f>
+        <f aca="true">IF(Completed!A215&lt;&gt;"", IF(Completed!D215="", TODAY(), Completed!D215), "")</f>
         <v/>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D216" s="16" t="str">
-        <f aca="true">IF(A216&lt;&gt;"", IF(D216="", TODAY(), D216), "")</f>
+        <f aca="true">IF(Completed!A216&lt;&gt;"", IF(Completed!D216="", TODAY(), Completed!D216), "")</f>
         <v/>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D217" s="16" t="str">
-        <f aca="true">IF(A217&lt;&gt;"", IF(D217="", TODAY(), D217), "")</f>
+        <f aca="true">IF(Completed!A217&lt;&gt;"", IF(Completed!D217="", TODAY(), Completed!D217), "")</f>
         <v/>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D218" s="16" t="str">
-        <f aca="true">IF(A218&lt;&gt;"", IF(D218="", TODAY(), D218), "")</f>
+        <f aca="true">IF(Completed!A218&lt;&gt;"", IF(Completed!D218="", TODAY(), Completed!D218), "")</f>
         <v/>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D219" s="16" t="str">
-        <f aca="true">IF(A219&lt;&gt;"", IF(D219="", TODAY(), D219), "")</f>
+        <f aca="true">IF(Completed!A219&lt;&gt;"", IF(Completed!D219="", TODAY(), Completed!D219), "")</f>
         <v/>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D220" s="16" t="str">
-        <f aca="true">IF(A220&lt;&gt;"", IF(D220="", TODAY(), D220), "")</f>
+        <f aca="true">IF(Completed!A220&lt;&gt;"", IF(Completed!D220="", TODAY(), Completed!D220), "")</f>
         <v/>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D221" s="16" t="str">
-        <f aca="true">IF(A221&lt;&gt;"", IF(D221="", TODAY(), D221), "")</f>
+        <f aca="true">IF(Completed!A221&lt;&gt;"", IF(Completed!D221="", TODAY(), Completed!D221), "")</f>
         <v/>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D222" s="16" t="str">
-        <f aca="true">IF(A222&lt;&gt;"", IF(D222="", TODAY(), D222), "")</f>
+        <f aca="true">IF(Completed!A222&lt;&gt;"", IF(Completed!D222="", TODAY(), Completed!D222), "")</f>
         <v/>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D223" s="16" t="str">
-        <f aca="true">IF(A223&lt;&gt;"", IF(D223="", TODAY(), D223), "")</f>
+        <f aca="true">IF(Completed!A223&lt;&gt;"", IF(Completed!D223="", TODAY(), Completed!D223), "")</f>
         <v/>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D224" s="16" t="str">
-        <f aca="true">IF(A224&lt;&gt;"", IF(D224="", TODAY(), D224), "")</f>
+        <f aca="true">IF(Completed!A224&lt;&gt;"", IF(Completed!D224="", TODAY(), Completed!D224), "")</f>
         <v/>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D225" s="16" t="str">
-        <f aca="true">IF(A225&lt;&gt;"", IF(D225="", TODAY(), D225), "")</f>
+        <f aca="true">IF(Completed!A225&lt;&gt;"", IF(Completed!D225="", TODAY(), Completed!D225), "")</f>
         <v/>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D226" s="16" t="str">
-        <f aca="true">IF(A226&lt;&gt;"", IF(D226="", TODAY(), D226), "")</f>
+        <f aca="true">IF(Completed!A226&lt;&gt;"", IF(Completed!D226="", TODAY(), Completed!D226), "")</f>
         <v/>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D227" s="16" t="str">
-        <f aca="true">IF(A227&lt;&gt;"", IF(D227="", TODAY(), D227), "")</f>
+        <f aca="true">IF(Completed!A227&lt;&gt;"", IF(Completed!D227="", TODAY(), Completed!D227), "")</f>
         <v/>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D228" s="16" t="str">
-        <f aca="true">IF(A228&lt;&gt;"", IF(D228="", TODAY(), D228), "")</f>
+        <f aca="true">IF(Completed!A228&lt;&gt;"", IF(Completed!D228="", TODAY(), Completed!D228), "")</f>
         <v/>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D229" s="16" t="str">
-        <f aca="true">IF(A229&lt;&gt;"", IF(D229="", TODAY(), D229), "")</f>
+        <f aca="true">IF(Completed!A229&lt;&gt;"", IF(Completed!D229="", TODAY(), Completed!D229), "")</f>
         <v/>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D230" s="16" t="str">
-        <f aca="true">IF(A230&lt;&gt;"", IF(D230="", TODAY(), D230), "")</f>
+        <f aca="true">IF(Completed!A230&lt;&gt;"", IF(Completed!D230="", TODAY(), Completed!D230), "")</f>
         <v/>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D231" s="16" t="str">
-        <f aca="true">IF(A231&lt;&gt;"", IF(D231="", TODAY(), D231), "")</f>
+        <f aca="true">IF(Completed!A231&lt;&gt;"", IF(Completed!D231="", TODAY(), Completed!D231), "")</f>
         <v/>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D232" s="16" t="str">
-        <f aca="true">IF(A232&lt;&gt;"", IF(D232="", TODAY(), D232), "")</f>
+        <f aca="true">IF(Completed!A232&lt;&gt;"", IF(Completed!D232="", TODAY(), Completed!D232), "")</f>
         <v/>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D233" s="16" t="str">
-        <f aca="true">IF(A233&lt;&gt;"", IF(D233="", TODAY(), D233), "")</f>
+        <f aca="true">IF(Completed!A233&lt;&gt;"", IF(Completed!D233="", TODAY(), Completed!D233), "")</f>
         <v/>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D234" s="16" t="str">
-        <f aca="true">IF(A234&lt;&gt;"", IF(D234="", TODAY(), D234), "")</f>
+        <f aca="true">IF(Completed!A234&lt;&gt;"", IF(Completed!D234="", TODAY(), Completed!D234), "")</f>
         <v/>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D235" s="16" t="str">
-        <f aca="true">IF(A235&lt;&gt;"", IF(D235="", TODAY(), D235), "")</f>
+        <f aca="true">IF(Completed!A235&lt;&gt;"", IF(Completed!D235="", TODAY(), Completed!D235), "")</f>
         <v/>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D236" s="16" t="str">
-        <f aca="true">IF(A236&lt;&gt;"", IF(D236="", TODAY(), D236), "")</f>
+        <f aca="true">IF(Completed!A236&lt;&gt;"", IF(Completed!D236="", TODAY(), Completed!D236), "")</f>
         <v/>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D237" s="16" t="str">
-        <f aca="true">IF(A237&lt;&gt;"", IF(D237="", TODAY(), D237), "")</f>
+        <f aca="true">IF(Completed!A237&lt;&gt;"", IF(Completed!D237="", TODAY(), Completed!D237), "")</f>
         <v/>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D238" s="16" t="str">
-        <f aca="true">IF(A238&lt;&gt;"", IF(D238="", TODAY(), D238), "")</f>
+        <f aca="true">IF(Completed!A238&lt;&gt;"", IF(Completed!D238="", TODAY(), Completed!D238), "")</f>
         <v/>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D239" s="16" t="str">
-        <f aca="true">IF(A239&lt;&gt;"", IF(D239="", TODAY(), D239), "")</f>
+        <f aca="true">IF(Completed!A239&lt;&gt;"", IF(Completed!D239="", TODAY(), Completed!D239), "")</f>
         <v/>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D240" s="16" t="str">
-        <f aca="true">IF(A240&lt;&gt;"", IF(D240="", TODAY(), D240), "")</f>
+        <f aca="true">IF(Completed!A240&lt;&gt;"", IF(Completed!D240="", TODAY(), Completed!D240), "")</f>
         <v/>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D241" s="16" t="str">
-        <f aca="true">IF(A241&lt;&gt;"", IF(D241="", TODAY(), D241), "")</f>
+        <f aca="true">IF(Completed!A241&lt;&gt;"", IF(Completed!D241="", TODAY(), Completed!D241), "")</f>
         <v/>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D242" s="16" t="str">
-        <f aca="true">IF(A242&lt;&gt;"", IF(D242="", TODAY(), D242), "")</f>
+        <f aca="true">IF(Completed!A242&lt;&gt;"", IF(Completed!D242="", TODAY(), Completed!D242), "")</f>
         <v/>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D243" s="16" t="str">
-        <f aca="true">IF(A243&lt;&gt;"", IF(D243="", TODAY(), D243), "")</f>
+        <f aca="true">IF(Completed!A243&lt;&gt;"", IF(Completed!D243="", TODAY(), Completed!D243), "")</f>
         <v/>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D244" s="16" t="str">
-        <f aca="true">IF(A244&lt;&gt;"", IF(D244="", TODAY(), D244), "")</f>
+        <f aca="true">IF(Completed!A244&lt;&gt;"", IF(Completed!D244="", TODAY(), Completed!D244), "")</f>
         <v/>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D245" s="16" t="str">
-        <f aca="true">IF(A245&lt;&gt;"", IF(D245="", TODAY(), D245), "")</f>
+        <f aca="true">IF(Completed!A245&lt;&gt;"", IF(Completed!D245="", TODAY(), Completed!D245), "")</f>
         <v/>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D246" s="16" t="str">
-        <f aca="true">IF(A246&lt;&gt;"", IF(D246="", TODAY(), D246), "")</f>
+        <f aca="true">IF(Completed!A246&lt;&gt;"", IF(Completed!D246="", TODAY(), Completed!D246), "")</f>
         <v/>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D247" s="16" t="str">
-        <f aca="true">IF(A247&lt;&gt;"", IF(D247="", TODAY(), D247), "")</f>
+        <f aca="true">IF(Completed!A247&lt;&gt;"", IF(Completed!D247="", TODAY(), Completed!D247), "")</f>
         <v/>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D248" s="16" t="str">
-        <f aca="true">IF(A248&lt;&gt;"", IF(D248="", TODAY(), D248), "")</f>
+        <f aca="true">IF(Completed!A248&lt;&gt;"", IF(Completed!D248="", TODAY(), Completed!D248), "")</f>
         <v/>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D249" s="16" t="str">
-        <f aca="true">IF(A249&lt;&gt;"", IF(D249="", TODAY(), D249), "")</f>
+        <f aca="true">IF(Completed!A249&lt;&gt;"", IF(Completed!D249="", TODAY(), Completed!D249), "")</f>
         <v/>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D250" s="16" t="str">
-        <f aca="true">IF(A250&lt;&gt;"", IF(D250="", TODAY(), D250), "")</f>
+        <f aca="true">IF(Completed!A250&lt;&gt;"", IF(Completed!D250="", TODAY(), Completed!D250), "")</f>
         <v/>
       </c>
     </row>
@@ -4708,7 +4523,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/runeCrafterAgenda.xlsx
+++ b/runeCrafterAgenda.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t xml:space="preserve">Step</t>
   </si>
@@ -33,16 +33,28 @@
     <t xml:space="preserve">Due Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Trash inspected thing to clear inspector</t>
+    <t xml:space="preserve">Update Rune Crafter Frame</t>
   </si>
   <si>
     <t xml:space="preserve">Leo</t>
   </si>
   <si>
-    <t xml:space="preserve">Place 1 level deeper representation of sigils in both inspector and Rune Crafter (show both γ and (α u β) )</t>
+    <t xml:space="preserve">Trash inspected thing to clear inspector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleanup Styles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rewrite back-end naming of sets</t>
   </si>
   <si>
     <t xml:space="preserve">Ryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create different tools for each kind of rune crafting, with different frames</t>
   </si>
   <si>
     <t xml:space="preserve">Task</t>
@@ -58,6 +70,9 @@
   </si>
   <si>
     <t xml:space="preserve">Render completed rune tree upon creating rune that matches the runic key/display victory msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place 1 level deeper representation of sigils in both inspector and Rune Crafter (show both γ and (α u β) )</t>
   </si>
   <si>
     <t xml:space="preserve">Ashish</t>
@@ -223,7 +238,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -271,23 +286,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7F0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF600000"/>
         </patternFill>
       </fill>
@@ -312,6 +310,23 @@
         <left style="thin"/>
         <right style="thin"/>
         <top style="thin"/>
+        <bottom style="thin"/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="thin"/>
+        <right style="thin"/>
+        <top/>
         <bottom style="thin"/>
         <diagonal/>
       </border>
@@ -388,15 +403,15 @@
   <dimension ref="A1:C499"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -410,42 +425,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="n">
-        <v>42581</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="7" t="n">
+        <v>42582</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="n">
-        <v>42588</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
@@ -2913,21 +2946,6 @@
       <c r="C499" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(Assignments!C3 - TODAY() &lt; 0, Assignments!A3&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(Assignments!C3 - TODAY() &lt; 0, Assignments!A3&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>AND(Assignments!C3 - TODAY() &lt; 0, Assignments!A3&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2946,38 +2964,38 @@
   <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="14" t="n">
         <v>42578</v>
@@ -2989,10 +3007,10 @@
     </row>
     <row r="3" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>42581</v>
@@ -3002,10 +3020,19 @@
         <v>42579</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="16" t="str">
+    <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>42588</v>
+      </c>
+      <c r="D4" s="16" t="n">
         <f aca="true">IF(Completed!A4&lt;&gt;"", IF(Completed!D4="", TODAY(), Completed!D4), "")</f>
-        <v/>
+        <v>42581</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,17 +4512,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2">
+  <conditionalFormatting sqref="B2">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(Completed!C2 - TODAY() &lt; 0, Completed!A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
+  <conditionalFormatting sqref="C2">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(Completed!C2 - TODAY() &lt; 0, Completed!A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
+  <conditionalFormatting sqref="A2">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(Completed!C2 - TODAY() &lt; 0, Completed!A2&lt;&gt;"")</formula>
     </cfRule>
@@ -4523,12 +4550,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4538,7 +4565,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/runeCrafterAgenda.xlsx
+++ b/runeCrafterAgenda.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t xml:space="preserve">Step</t>
   </si>
@@ -33,19 +33,16 @@
     <t xml:space="preserve">Due Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Update Rune Crafter Frame</t>
+    <t xml:space="preserve">Trash inspected thing to clear inspector</t>
   </si>
   <si>
     <t xml:space="preserve">Leo</t>
   </si>
   <si>
-    <t xml:space="preserve">Trash inspected thing to clear inspector</t>
+    <t xml:space="preserve">Cleanup Styles</t>
   </si>
   <si>
     <t xml:space="preserve">????</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleanup Styles</t>
   </si>
   <si>
     <t xml:space="preserve">Rewrite back-end naming of sets</t>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t xml:space="preserve">Place 1 level deeper representation of sigils in both inspector and Rune Crafter (show both γ and (α u β) )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Rune Crafter Frame</t>
   </si>
   <si>
     <t xml:space="preserve">Ashish</t>
@@ -226,19 +226,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -400,18 +400,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C499"/>
+  <dimension ref="A1:C498"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -433,10 +433,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>42582</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -447,38 +447,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
-      </c>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
@@ -2939,11 +2933,6 @@
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="7"/>
-    </row>
-    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="8"/>
-      <c r="B499" s="8"/>
-      <c r="C499" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2964,38 +2953,38 @@
   <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="14" t="n">
         <v>42578</v>
@@ -3006,13 +2995,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="n">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="n">
         <v>42581</v>
       </c>
       <c r="D3" s="16" t="n">
@@ -3021,13 +3010,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7" t="n">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="n">
         <v>42588</v>
       </c>
       <c r="D4" s="16" t="n">
@@ -3035,10 +3024,19 @@
         <v>42581</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="16" t="str">
+    <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>42582</v>
+      </c>
+      <c r="D5" s="16" t="n">
         <f aca="true">IF(Completed!A5&lt;&gt;"", IF(Completed!D5="", TODAY(), Completed!D5), "")</f>
-        <v/>
+        <v>42585</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,12 +4548,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/runeCrafterAgenda.xlsx
+++ b/runeCrafterAgenda.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\mathGame\tutorial2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="988"/>
   </bookViews>
   <sheets>
-    <sheet name="Assignments" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Completed" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="DropDowns" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Assignments" sheetId="1" r:id="rId1"/>
+    <sheet name="Completed" sheetId="2" r:id="rId2"/>
+    <sheet name="DropDowns" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,70 +28,68 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
-    <t xml:space="preserve">Step</t>
+    <t>Step</t>
   </si>
   <si>
-    <t xml:space="preserve">Responsible</t>
+    <t>Responsible</t>
   </si>
   <si>
-    <t xml:space="preserve">Due Date</t>
+    <t>Due Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Trash inspected thing to clear inspector</t>
+    <t>Trash inspected thing to clear inspector</t>
   </si>
   <si>
-    <t xml:space="preserve">Leo</t>
+    <t>Leo</t>
   </si>
   <si>
-    <t xml:space="preserve">Cleanup Styles</t>
+    <t>Cleanup Styles</t>
   </si>
   <si>
-    <t xml:space="preserve">????</t>
+    <t>????</t>
   </si>
   <si>
-    <t xml:space="preserve">Rewrite back-end naming of sets</t>
+    <t>Rewrite back-end naming of sets</t>
   </si>
   <si>
-    <t xml:space="preserve">Ryan</t>
+    <t>Ryan</t>
   </si>
   <si>
-    <t xml:space="preserve">Create different tools for each kind of rune crafting, with different frames</t>
+    <t>Create different tools for each kind of rune crafting, with different frames</t>
   </si>
   <si>
-    <t xml:space="preserve">Task</t>
+    <t>Task</t>
   </si>
   <si>
-    <t xml:space="preserve">Completed By</t>
+    <t>Completed By</t>
   </si>
   <si>
-    <t xml:space="preserve">Completed On</t>
+    <t>Completed On</t>
   </si>
   <si>
-    <t xml:space="preserve">Render Runic Key in Inspector: generate text for Runic Key (stone and sigil text)</t>
+    <t>Render Runic Key in Inspector: generate text for Runic Key (stone and sigil text)</t>
   </si>
   <si>
-    <t xml:space="preserve">Render completed rune tree upon creating rune that matches the runic key/display victory msg</t>
+    <t>Render completed rune tree upon creating rune that matches the runic key/display victory msg</t>
   </si>
   <si>
-    <t xml:space="preserve">Place 1 level deeper representation of sigils in both inspector and Rune Crafter (show both γ and (α u β) )</t>
+    <t>Place 1 level deeper representation of sigils in both inspector and Rune Crafter (show both γ and (α u β) )</t>
   </si>
   <si>
-    <t xml:space="preserve">Update Rune Crafter Frame</t>
+    <t>Update Rune Crafter Frame</t>
   </si>
   <si>
-    <t xml:space="preserve">Ashish</t>
+    <t>Ashish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -96,22 +98,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -140,144 +127,122 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -286,15 +251,20 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF600000"/>
+          <bgColor rgb="FF7F0000"/>
         </patternFill>
       </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top/>
-        <bottom style="thin"/>
-        <diagonal/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -306,12 +276,19 @@
           <bgColor rgb="FF600000"/>
         </patternFill>
       </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -320,18 +297,24 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7F0000"/>
+          <bgColor rgb="FF600000"/>
         </patternFill>
       </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top/>
-        <bottom style="thin"/>
-        <diagonal/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -390,31 +373,339 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C498"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK498"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.36734693877551"/>
+    <col min="1" max="1" width="31.85546875" style="1"/>
+    <col min="2" max="2" width="16.85546875" style="1"/>
+    <col min="3" max="3" width="15.7109375" style="1"/>
+    <col min="4" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -425,18 +716,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="7">
         <v>42559</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -447,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -458,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -469,2503 +760,2495 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="7"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="7"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="7"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="7"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="9"/>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="9"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="9"/>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="9"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="9"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="9"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="9"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="9"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="9"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="9"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="9"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="9"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="9"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="9"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="9"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="9"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="9"/>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="9"/>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="9"/>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="9"/>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="9"/>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="9"/>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="7"/>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="9"/>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="7"/>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="9"/>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="7"/>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="9"/>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="7"/>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="9"/>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="7"/>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="9"/>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="7"/>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="9"/>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="7"/>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="9"/>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="7"/>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="9"/>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="7"/>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="9"/>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="7"/>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="9"/>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="7"/>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="9"/>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="7"/>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="9"/>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="7"/>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="9"/>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="7"/>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="9"/>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="7"/>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="9"/>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="7"/>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="9"/>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="7"/>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="9"/>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="7"/>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="9"/>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="7"/>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="9"/>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="7"/>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="9"/>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="7"/>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="9"/>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="7"/>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="9"/>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="7"/>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="9"/>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="7"/>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="9"/>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="7"/>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="9"/>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="7"/>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="9"/>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="7"/>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="9"/>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="7"/>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="9"/>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="7"/>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="9"/>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="7"/>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="9"/>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="7"/>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="9"/>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="7"/>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="9"/>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="7"/>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="9"/>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="7"/>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="9"/>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="7"/>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="9"/>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="7"/>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="9"/>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="7"/>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="9"/>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="7"/>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="8"/>
       <c r="B221" s="8"/>
       <c r="C221" s="9"/>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="7"/>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="8"/>
       <c r="C223" s="9"/>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="7"/>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="8"/>
       <c r="C225" s="9"/>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="7"/>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="8"/>
       <c r="B227" s="8"/>
       <c r="C227" s="9"/>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="7"/>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="8"/>
       <c r="C229" s="9"/>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="7"/>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="8"/>
       <c r="C231" s="9"/>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="7"/>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="8"/>
       <c r="C233" s="9"/>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="7"/>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="8"/>
       <c r="C235" s="9"/>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="7"/>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="8"/>
       <c r="C237" s="9"/>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="7"/>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="8"/>
       <c r="C239" s="9"/>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="7"/>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="8"/>
       <c r="C241" s="9"/>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="7"/>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="8"/>
       <c r="C243" s="9"/>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="7"/>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
       <c r="B245" s="8"/>
       <c r="C245" s="9"/>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="7"/>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
       <c r="B247" s="8"/>
       <c r="C247" s="9"/>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="7"/>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="8"/>
       <c r="C249" s="9"/>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="7"/>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="8"/>
       <c r="B251" s="8"/>
       <c r="C251" s="9"/>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="7"/>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="8"/>
       <c r="B253" s="8"/>
       <c r="C253" s="9"/>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="7"/>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="8"/>
       <c r="B255" s="8"/>
       <c r="C255" s="9"/>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="7"/>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="8"/>
       <c r="B257" s="8"/>
       <c r="C257" s="9"/>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="7"/>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="8"/>
       <c r="B259" s="8"/>
       <c r="C259" s="9"/>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="7"/>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="8"/>
       <c r="B261" s="8"/>
       <c r="C261" s="9"/>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="7"/>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="8"/>
       <c r="B263" s="8"/>
       <c r="C263" s="9"/>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="7"/>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="8"/>
       <c r="B265" s="8"/>
       <c r="C265" s="9"/>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="7"/>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
       <c r="B267" s="8"/>
       <c r="C267" s="9"/>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="7"/>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
       <c r="B269" s="8"/>
       <c r="C269" s="9"/>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="7"/>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
       <c r="B271" s="8"/>
       <c r="C271" s="9"/>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="7"/>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="8"/>
       <c r="B273" s="8"/>
       <c r="C273" s="9"/>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="7"/>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="8"/>
       <c r="B275" s="8"/>
       <c r="C275" s="9"/>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="7"/>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="8"/>
       <c r="B277" s="8"/>
       <c r="C277" s="9"/>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="7"/>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="8"/>
       <c r="B279" s="8"/>
       <c r="C279" s="9"/>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="7"/>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="8"/>
       <c r="B281" s="8"/>
       <c r="C281" s="9"/>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="7"/>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="8"/>
       <c r="B283" s="8"/>
       <c r="C283" s="9"/>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="7"/>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="8"/>
       <c r="B285" s="8"/>
       <c r="C285" s="9"/>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="7"/>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="8"/>
       <c r="B287" s="8"/>
       <c r="C287" s="9"/>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="7"/>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="8"/>
       <c r="B289" s="8"/>
       <c r="C289" s="9"/>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="7"/>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="8"/>
       <c r="B291" s="8"/>
       <c r="C291" s="9"/>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="7"/>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="8"/>
       <c r="B293" s="8"/>
       <c r="C293" s="9"/>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="7"/>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="8"/>
       <c r="B295" s="8"/>
       <c r="C295" s="9"/>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="7"/>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="8"/>
       <c r="B297" s="8"/>
       <c r="C297" s="9"/>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="7"/>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="8"/>
       <c r="B299" s="8"/>
       <c r="C299" s="9"/>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="7"/>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="8"/>
       <c r="B301" s="8"/>
       <c r="C301" s="9"/>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="7"/>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="8"/>
       <c r="B303" s="8"/>
       <c r="C303" s="9"/>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="7"/>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="8"/>
       <c r="B305" s="8"/>
       <c r="C305" s="9"/>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="7"/>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="8"/>
       <c r="B307" s="8"/>
       <c r="C307" s="9"/>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="7"/>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="8"/>
       <c r="B309" s="8"/>
       <c r="C309" s="9"/>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="7"/>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="8"/>
       <c r="B311" s="8"/>
       <c r="C311" s="9"/>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="7"/>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="8"/>
       <c r="B313" s="8"/>
       <c r="C313" s="9"/>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="7"/>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="8"/>
       <c r="B315" s="8"/>
       <c r="C315" s="9"/>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="7"/>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="8"/>
       <c r="B317" s="8"/>
       <c r="C317" s="9"/>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="7"/>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="8"/>
       <c r="B319" s="8"/>
       <c r="C319" s="9"/>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="7"/>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="8"/>
       <c r="B321" s="8"/>
       <c r="C321" s="9"/>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="7"/>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="8"/>
       <c r="B323" s="8"/>
       <c r="C323" s="9"/>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="7"/>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="8"/>
       <c r="B325" s="8"/>
       <c r="C325" s="9"/>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="7"/>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="8"/>
       <c r="B327" s="8"/>
       <c r="C327" s="9"/>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="7"/>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="8"/>
       <c r="B329" s="8"/>
       <c r="C329" s="9"/>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="7"/>
     </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="8"/>
       <c r="B331" s="8"/>
       <c r="C331" s="9"/>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="7"/>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="8"/>
       <c r="B333" s="8"/>
       <c r="C333" s="9"/>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="7"/>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="8"/>
       <c r="B335" s="8"/>
       <c r="C335" s="9"/>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="7"/>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="8"/>
       <c r="B337" s="8"/>
       <c r="C337" s="9"/>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="7"/>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="8"/>
       <c r="B339" s="8"/>
       <c r="C339" s="9"/>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="7"/>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="8"/>
       <c r="B341" s="8"/>
       <c r="C341" s="9"/>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="7"/>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="8"/>
       <c r="B343" s="8"/>
       <c r="C343" s="9"/>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="7"/>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="8"/>
       <c r="B345" s="8"/>
       <c r="C345" s="9"/>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="7"/>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="8"/>
       <c r="B347" s="8"/>
       <c r="C347" s="9"/>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="7"/>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="8"/>
       <c r="B349" s="8"/>
       <c r="C349" s="9"/>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="7"/>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="8"/>
       <c r="B351" s="8"/>
       <c r="C351" s="9"/>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="7"/>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="8"/>
       <c r="B353" s="8"/>
       <c r="C353" s="9"/>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="7"/>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="8"/>
       <c r="B355" s="8"/>
       <c r="C355" s="9"/>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="7"/>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="8"/>
       <c r="B357" s="8"/>
       <c r="C357" s="9"/>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="7"/>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="8"/>
       <c r="B359" s="8"/>
       <c r="C359" s="9"/>
     </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="7"/>
     </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="8"/>
       <c r="B361" s="8"/>
       <c r="C361" s="9"/>
     </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="7"/>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="8"/>
       <c r="B363" s="8"/>
       <c r="C363" s="9"/>
     </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="7"/>
     </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="8"/>
       <c r="B365" s="8"/>
       <c r="C365" s="9"/>
     </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="7"/>
     </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="8"/>
       <c r="B367" s="8"/>
       <c r="C367" s="9"/>
     </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="7"/>
     </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="8"/>
       <c r="B369" s="8"/>
       <c r="C369" s="9"/>
     </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="7"/>
     </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="8"/>
       <c r="B371" s="8"/>
       <c r="C371" s="9"/>
     </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="7"/>
     </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="8"/>
       <c r="B373" s="8"/>
       <c r="C373" s="9"/>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="7"/>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="8"/>
       <c r="B375" s="8"/>
       <c r="C375" s="9"/>
     </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="7"/>
     </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="8"/>
       <c r="B377" s="8"/>
       <c r="C377" s="9"/>
     </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="7"/>
     </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="8"/>
       <c r="B379" s="8"/>
       <c r="C379" s="9"/>
     </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="7"/>
     </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="8"/>
       <c r="B381" s="8"/>
       <c r="C381" s="9"/>
     </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="7"/>
     </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="8"/>
       <c r="B383" s="8"/>
       <c r="C383" s="9"/>
     </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="7"/>
     </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="8"/>
       <c r="B385" s="8"/>
       <c r="C385" s="9"/>
     </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="7"/>
     </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="8"/>
       <c r="B387" s="8"/>
       <c r="C387" s="9"/>
     </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="7"/>
     </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="8"/>
       <c r="B389" s="8"/>
       <c r="C389" s="9"/>
     </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="7"/>
     </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="8"/>
       <c r="B391" s="8"/>
       <c r="C391" s="9"/>
     </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="7"/>
     </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="8"/>
       <c r="B393" s="8"/>
       <c r="C393" s="9"/>
     </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="7"/>
     </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="8"/>
       <c r="B395" s="8"/>
       <c r="C395" s="9"/>
     </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="7"/>
     </row>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="8"/>
       <c r="B397" s="8"/>
       <c r="C397" s="9"/>
     </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="7"/>
     </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="8"/>
       <c r="B399" s="8"/>
       <c r="C399" s="9"/>
     </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="7"/>
     </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="8"/>
       <c r="B401" s="8"/>
       <c r="C401" s="9"/>
     </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="7"/>
     </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="8"/>
       <c r="B403" s="8"/>
       <c r="C403" s="9"/>
     </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="7"/>
     </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="8"/>
       <c r="B405" s="8"/>
       <c r="C405" s="9"/>
     </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="7"/>
     </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="8"/>
       <c r="B407" s="8"/>
       <c r="C407" s="9"/>
     </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="7"/>
     </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="8"/>
       <c r="B409" s="8"/>
       <c r="C409" s="9"/>
     </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="7"/>
     </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="8"/>
       <c r="B411" s="8"/>
       <c r="C411" s="9"/>
     </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="7"/>
     </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="8"/>
       <c r="B413" s="8"/>
       <c r="C413" s="9"/>
     </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="7"/>
     </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="8"/>
       <c r="B415" s="8"/>
       <c r="C415" s="9"/>
     </row>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="7"/>
     </row>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="8"/>
       <c r="B417" s="8"/>
       <c r="C417" s="9"/>
     </row>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="7"/>
     </row>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="8"/>
       <c r="B419" s="8"/>
       <c r="C419" s="9"/>
     </row>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="7"/>
     </row>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="8"/>
       <c r="B421" s="8"/>
       <c r="C421" s="9"/>
     </row>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="7"/>
     </row>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="8"/>
       <c r="B423" s="8"/>
       <c r="C423" s="9"/>
     </row>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="7"/>
     </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="8"/>
       <c r="B425" s="8"/>
       <c r="C425" s="9"/>
     </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="7"/>
     </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="8"/>
       <c r="B427" s="8"/>
       <c r="C427" s="9"/>
     </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="7"/>
     </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="8"/>
       <c r="B429" s="8"/>
       <c r="C429" s="9"/>
     </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="7"/>
     </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="8"/>
       <c r="B431" s="8"/>
       <c r="C431" s="9"/>
     </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="7"/>
     </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="8"/>
       <c r="B433" s="8"/>
       <c r="C433" s="9"/>
     </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="7"/>
     </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="8"/>
       <c r="B435" s="8"/>
       <c r="C435" s="9"/>
     </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="7"/>
     </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="8"/>
       <c r="B437" s="8"/>
       <c r="C437" s="9"/>
     </row>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="7"/>
     </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="8"/>
       <c r="B439" s="8"/>
       <c r="C439" s="9"/>
     </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="7"/>
     </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="8"/>
       <c r="B441" s="8"/>
       <c r="C441" s="9"/>
     </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="7"/>
     </row>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="8"/>
       <c r="B443" s="8"/>
       <c r="C443" s="9"/>
     </row>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="7"/>
     </row>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="8"/>
       <c r="B445" s="8"/>
       <c r="C445" s="9"/>
     </row>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="7"/>
     </row>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="8"/>
       <c r="B447" s="8"/>
       <c r="C447" s="9"/>
     </row>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="7"/>
     </row>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="8"/>
       <c r="B449" s="8"/>
       <c r="C449" s="9"/>
     </row>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="7"/>
     </row>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="8"/>
       <c r="B451" s="8"/>
       <c r="C451" s="9"/>
     </row>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="7"/>
     </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="8"/>
       <c r="B453" s="8"/>
       <c r="C453" s="9"/>
     </row>
-    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="7"/>
     </row>
-    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="8"/>
       <c r="B455" s="8"/>
       <c r="C455" s="9"/>
     </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="7"/>
     </row>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="8"/>
       <c r="B457" s="8"/>
       <c r="C457" s="9"/>
     </row>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="7"/>
     </row>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="8"/>
       <c r="B459" s="8"/>
       <c r="C459" s="9"/>
     </row>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="7"/>
     </row>
-    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="8"/>
       <c r="B461" s="8"/>
       <c r="C461" s="9"/>
     </row>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="7"/>
     </row>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="8"/>
       <c r="B463" s="8"/>
       <c r="C463" s="9"/>
     </row>
-    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="7"/>
     </row>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="8"/>
       <c r="B465" s="8"/>
       <c r="C465" s="9"/>
     </row>
-    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="7"/>
     </row>
-    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="8"/>
       <c r="B467" s="8"/>
       <c r="C467" s="9"/>
     </row>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="7"/>
     </row>
-    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="8"/>
       <c r="B469" s="8"/>
       <c r="C469" s="9"/>
     </row>
-    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="7"/>
     </row>
-    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="8"/>
       <c r="B471" s="8"/>
       <c r="C471" s="9"/>
     </row>
-    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="7"/>
     </row>
-    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="8"/>
       <c r="B473" s="8"/>
       <c r="C473" s="9"/>
     </row>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="7"/>
     </row>
-    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="8"/>
       <c r="B475" s="8"/>
       <c r="C475" s="9"/>
     </row>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="7"/>
     </row>
-    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="8"/>
       <c r="B477" s="8"/>
       <c r="C477" s="9"/>
     </row>
-    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="7"/>
     </row>
-    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="8"/>
       <c r="B479" s="8"/>
       <c r="C479" s="9"/>
     </row>
-    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="7"/>
     </row>
-    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="8"/>
       <c r="B481" s="8"/>
       <c r="C481" s="9"/>
     </row>
-    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="7"/>
     </row>
-    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="8"/>
       <c r="B483" s="8"/>
       <c r="C483" s="9"/>
     </row>
-    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="7"/>
     </row>
-    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="8"/>
       <c r="B485" s="8"/>
       <c r="C485" s="9"/>
     </row>
-    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="7"/>
     </row>
-    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="8"/>
       <c r="B487" s="8"/>
       <c r="C487" s="9"/>
     </row>
-    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="7"/>
     </row>
-    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="8"/>
       <c r="B489" s="8"/>
       <c r="C489" s="9"/>
     </row>
-    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="7"/>
     </row>
-    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="8"/>
       <c r="B491" s="8"/>
       <c r="C491" s="9"/>
     </row>
-    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="7"/>
     </row>
-    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="8"/>
       <c r="B493" s="8"/>
       <c r="C493" s="9"/>
     </row>
-    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="7"/>
     </row>
-    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="8"/>
       <c r="B495" s="8"/>
       <c r="C495" s="9"/>
     </row>
-    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="7"/>
     </row>
-    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="8"/>
       <c r="B497" s="8"/>
       <c r="C497" s="9"/>
     </row>
-    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.10204081632653"/>
+    <col min="1" max="1" width="21.42578125"/>
+    <col min="2" max="2" width="20.5703125"/>
+    <col min="3" max="3" width="23"/>
+    <col min="4" max="4" width="15.7109375"/>
+    <col min="5" max="1025" width="8.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -2979,1600 +3262,1587 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="59.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14" t="n">
+      <c r="C2" s="14">
         <v>42578</v>
       </c>
-      <c r="D2" s="15" t="n">
-        <f aca="true">IF(Completed!A2&lt;&gt;"", IF(Completed!D2="", TODAY(), Completed!D2), "")</f>
+      <c r="D2" s="15">
+        <f ca="1">IF(Completed!A2&lt;&gt;"", IF(Completed!D2="", TODAY(), Completed!D2), "")</f>
         <v>42578</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="7">
         <v>42581</v>
       </c>
-      <c r="D3" s="16" t="n">
-        <f aca="true">IF(Completed!A3&lt;&gt;"", IF(Completed!D3="", TODAY(), Completed!D3), "")</f>
+      <c r="D3" s="16">
+        <f ca="1">IF(Completed!A3&lt;&gt;"", IF(Completed!D3="", TODAY(), Completed!D3), "")</f>
         <v>42579</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="9">
         <v>42588</v>
       </c>
-      <c r="D4" s="16" t="n">
-        <f aca="true">IF(Completed!A4&lt;&gt;"", IF(Completed!D4="", TODAY(), Completed!D4), "")</f>
+      <c r="D4" s="16">
+        <f ca="1">IF(Completed!A4&lt;&gt;"", IF(Completed!D4="", TODAY(), Completed!D4), "")</f>
         <v>42581</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="9">
         <v>42582</v>
       </c>
-      <c r="D5" s="16" t="n">
-        <f aca="true">IF(Completed!A5&lt;&gt;"", IF(Completed!D5="", TODAY(), Completed!D5), "")</f>
+      <c r="D5" s="16">
+        <f ca="1">IF(Completed!A5&lt;&gt;"", IF(Completed!D5="", TODAY(), Completed!D5), "")</f>
         <v>42585</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="16" t="str">
-        <f aca="true">IF(Completed!A6&lt;&gt;"", IF(Completed!D6="", TODAY(), Completed!D6), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A6&lt;&gt;"", IF(Completed!D6="", TODAY(), Completed!D6), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" s="16" t="str">
-        <f aca="true">IF(Completed!A7&lt;&gt;"", IF(Completed!D7="", TODAY(), Completed!D7), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A7&lt;&gt;"", IF(Completed!D7="", TODAY(), Completed!D7), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" s="16" t="str">
-        <f aca="true">IF(Completed!A8&lt;&gt;"", IF(Completed!D8="", TODAY(), Completed!D8), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A8&lt;&gt;"", IF(Completed!D8="", TODAY(), Completed!D8), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" s="16" t="str">
-        <f aca="true">IF(Completed!A9&lt;&gt;"", IF(Completed!D9="", TODAY(), Completed!D9), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A9&lt;&gt;"", IF(Completed!D9="", TODAY(), Completed!D9), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" s="16" t="str">
-        <f aca="true">IF(Completed!A10&lt;&gt;"", IF(Completed!D10="", TODAY(), Completed!D10), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A10&lt;&gt;"", IF(Completed!D10="", TODAY(), Completed!D10), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" s="16" t="str">
-        <f aca="true">IF(Completed!A11&lt;&gt;"", IF(Completed!D11="", TODAY(), Completed!D11), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A11&lt;&gt;"", IF(Completed!D11="", TODAY(), Completed!D11), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" s="16" t="str">
-        <f aca="true">IF(Completed!A12&lt;&gt;"", IF(Completed!D12="", TODAY(), Completed!D12), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A12&lt;&gt;"", IF(Completed!D12="", TODAY(), Completed!D12), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" s="16" t="str">
-        <f aca="true">IF(Completed!A13&lt;&gt;"", IF(Completed!D13="", TODAY(), Completed!D13), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A13&lt;&gt;"", IF(Completed!D13="", TODAY(), Completed!D13), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" s="16" t="str">
-        <f aca="true">IF(Completed!A14&lt;&gt;"", IF(Completed!D14="", TODAY(), Completed!D14), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A14&lt;&gt;"", IF(Completed!D14="", TODAY(), Completed!D14), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="16" t="str">
-        <f aca="true">IF(Completed!A15&lt;&gt;"", IF(Completed!D15="", TODAY(), Completed!D15), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A15&lt;&gt;"", IF(Completed!D15="", TODAY(), Completed!D15), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="16" t="str">
-        <f aca="true">IF(Completed!A16&lt;&gt;"", IF(Completed!D16="", TODAY(), Completed!D16), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A16&lt;&gt;"", IF(Completed!D16="", TODAY(), Completed!D16), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="16" t="str">
-        <f aca="true">IF(Completed!A17&lt;&gt;"", IF(Completed!D17="", TODAY(), Completed!D17), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A17&lt;&gt;"", IF(Completed!D17="", TODAY(), Completed!D17), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="16" t="str">
-        <f aca="true">IF(Completed!A18&lt;&gt;"", IF(Completed!D18="", TODAY(), Completed!D18), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A18&lt;&gt;"", IF(Completed!D18="", TODAY(), Completed!D18), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="16" t="str">
-        <f aca="true">IF(Completed!A19&lt;&gt;"", IF(Completed!D19="", TODAY(), Completed!D19), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A19&lt;&gt;"", IF(Completed!D19="", TODAY(), Completed!D19), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="16" t="str">
-        <f aca="true">IF(Completed!A20&lt;&gt;"", IF(Completed!D20="", TODAY(), Completed!D20), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A20&lt;&gt;"", IF(Completed!D20="", TODAY(), Completed!D20), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="16" t="str">
-        <f aca="true">IF(Completed!A21&lt;&gt;"", IF(Completed!D21="", TODAY(), Completed!D21), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A21&lt;&gt;"", IF(Completed!D21="", TODAY(), Completed!D21), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="16" t="str">
-        <f aca="true">IF(Completed!A22&lt;&gt;"", IF(Completed!D22="", TODAY(), Completed!D22), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A22&lt;&gt;"", IF(Completed!D22="", TODAY(), Completed!D22), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="16" t="str">
-        <f aca="true">IF(Completed!A23&lt;&gt;"", IF(Completed!D23="", TODAY(), Completed!D23), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A23&lt;&gt;"", IF(Completed!D23="", TODAY(), Completed!D23), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="16" t="str">
-        <f aca="true">IF(Completed!A24&lt;&gt;"", IF(Completed!D24="", TODAY(), Completed!D24), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A24&lt;&gt;"", IF(Completed!D24="", TODAY(), Completed!D24), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="16" t="str">
-        <f aca="true">IF(Completed!A25&lt;&gt;"", IF(Completed!D25="", TODAY(), Completed!D25), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A25&lt;&gt;"", IF(Completed!D25="", TODAY(), Completed!D25), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="16" t="str">
-        <f aca="true">IF(Completed!A26&lt;&gt;"", IF(Completed!D26="", TODAY(), Completed!D26), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A26&lt;&gt;"", IF(Completed!D26="", TODAY(), Completed!D26), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="16" t="str">
-        <f aca="true">IF(Completed!A27&lt;&gt;"", IF(Completed!D27="", TODAY(), Completed!D27), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A27&lt;&gt;"", IF(Completed!D27="", TODAY(), Completed!D27), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="16" t="str">
-        <f aca="true">IF(Completed!A28&lt;&gt;"", IF(Completed!D28="", TODAY(), Completed!D28), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A28&lt;&gt;"", IF(Completed!D28="", TODAY(), Completed!D28), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="16" t="str">
-        <f aca="true">IF(Completed!A29&lt;&gt;"", IF(Completed!D29="", TODAY(), Completed!D29), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A29&lt;&gt;"", IF(Completed!D29="", TODAY(), Completed!D29), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="16" t="str">
-        <f aca="true">IF(Completed!A30&lt;&gt;"", IF(Completed!D30="", TODAY(), Completed!D30), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A30&lt;&gt;"", IF(Completed!D30="", TODAY(), Completed!D30), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="16" t="str">
-        <f aca="true">IF(Completed!A31&lt;&gt;"", IF(Completed!D31="", TODAY(), Completed!D31), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A31&lt;&gt;"", IF(Completed!D31="", TODAY(), Completed!D31), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="16" t="str">
-        <f aca="true">IF(Completed!A32&lt;&gt;"", IF(Completed!D32="", TODAY(), Completed!D32), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A32&lt;&gt;"", IF(Completed!D32="", TODAY(), Completed!D32), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="16" t="str">
-        <f aca="true">IF(Completed!A33&lt;&gt;"", IF(Completed!D33="", TODAY(), Completed!D33), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A33&lt;&gt;"", IF(Completed!D33="", TODAY(), Completed!D33), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="16" t="str">
-        <f aca="true">IF(Completed!A34&lt;&gt;"", IF(Completed!D34="", TODAY(), Completed!D34), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A34&lt;&gt;"", IF(Completed!D34="", TODAY(), Completed!D34), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="16" t="str">
-        <f aca="true">IF(Completed!A35&lt;&gt;"", IF(Completed!D35="", TODAY(), Completed!D35), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A35&lt;&gt;"", IF(Completed!D35="", TODAY(), Completed!D35), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="16" t="str">
-        <f aca="true">IF(Completed!A36&lt;&gt;"", IF(Completed!D36="", TODAY(), Completed!D36), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A36&lt;&gt;"", IF(Completed!D36="", TODAY(), Completed!D36), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="16" t="str">
-        <f aca="true">IF(Completed!A37&lt;&gt;"", IF(Completed!D37="", TODAY(), Completed!D37), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A37&lt;&gt;"", IF(Completed!D37="", TODAY(), Completed!D37), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="16" t="str">
-        <f aca="true">IF(Completed!A38&lt;&gt;"", IF(Completed!D38="", TODAY(), Completed!D38), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A38&lt;&gt;"", IF(Completed!D38="", TODAY(), Completed!D38), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="16" t="str">
-        <f aca="true">IF(Completed!A39&lt;&gt;"", IF(Completed!D39="", TODAY(), Completed!D39), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A39&lt;&gt;"", IF(Completed!D39="", TODAY(), Completed!D39), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="16" t="str">
-        <f aca="true">IF(Completed!A40&lt;&gt;"", IF(Completed!D40="", TODAY(), Completed!D40), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A40&lt;&gt;"", IF(Completed!D40="", TODAY(), Completed!D40), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="16" t="str">
-        <f aca="true">IF(Completed!A41&lt;&gt;"", IF(Completed!D41="", TODAY(), Completed!D41), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A41&lt;&gt;"", IF(Completed!D41="", TODAY(), Completed!D41), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="16" t="str">
-        <f aca="true">IF(Completed!A42&lt;&gt;"", IF(Completed!D42="", TODAY(), Completed!D42), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A42&lt;&gt;"", IF(Completed!D42="", TODAY(), Completed!D42), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="16" t="str">
-        <f aca="true">IF(Completed!A43&lt;&gt;"", IF(Completed!D43="", TODAY(), Completed!D43), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A43&lt;&gt;"", IF(Completed!D43="", TODAY(), Completed!D43), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="16" t="str">
-        <f aca="true">IF(Completed!A44&lt;&gt;"", IF(Completed!D44="", TODAY(), Completed!D44), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A44&lt;&gt;"", IF(Completed!D44="", TODAY(), Completed!D44), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="16" t="str">
-        <f aca="true">IF(Completed!A45&lt;&gt;"", IF(Completed!D45="", TODAY(), Completed!D45), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A45&lt;&gt;"", IF(Completed!D45="", TODAY(), Completed!D45), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="16" t="str">
-        <f aca="true">IF(Completed!A46&lt;&gt;"", IF(Completed!D46="", TODAY(), Completed!D46), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A46&lt;&gt;"", IF(Completed!D46="", TODAY(), Completed!D46), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="16" t="str">
-        <f aca="true">IF(Completed!A47&lt;&gt;"", IF(Completed!D47="", TODAY(), Completed!D47), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A47&lt;&gt;"", IF(Completed!D47="", TODAY(), Completed!D47), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="16" t="str">
-        <f aca="true">IF(Completed!A48&lt;&gt;"", IF(Completed!D48="", TODAY(), Completed!D48), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A48&lt;&gt;"", IF(Completed!D48="", TODAY(), Completed!D48), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="16" t="str">
-        <f aca="true">IF(Completed!A49&lt;&gt;"", IF(Completed!D49="", TODAY(), Completed!D49), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A49&lt;&gt;"", IF(Completed!D49="", TODAY(), Completed!D49), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="16" t="str">
-        <f aca="true">IF(Completed!A50&lt;&gt;"", IF(Completed!D50="", TODAY(), Completed!D50), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A50&lt;&gt;"", IF(Completed!D50="", TODAY(), Completed!D50), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="16" t="str">
-        <f aca="true">IF(Completed!A51&lt;&gt;"", IF(Completed!D51="", TODAY(), Completed!D51), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A51&lt;&gt;"", IF(Completed!D51="", TODAY(), Completed!D51), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="16" t="str">
-        <f aca="true">IF(Completed!A52&lt;&gt;"", IF(Completed!D52="", TODAY(), Completed!D52), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A52&lt;&gt;"", IF(Completed!D52="", TODAY(), Completed!D52), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="16" t="str">
-        <f aca="true">IF(Completed!A53&lt;&gt;"", IF(Completed!D53="", TODAY(), Completed!D53), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A53&lt;&gt;"", IF(Completed!D53="", TODAY(), Completed!D53), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="16" t="str">
-        <f aca="true">IF(Completed!A54&lt;&gt;"", IF(Completed!D54="", TODAY(), Completed!D54), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A54&lt;&gt;"", IF(Completed!D54="", TODAY(), Completed!D54), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="16" t="str">
-        <f aca="true">IF(Completed!A55&lt;&gt;"", IF(Completed!D55="", TODAY(), Completed!D55), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A55&lt;&gt;"", IF(Completed!D55="", TODAY(), Completed!D55), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="16" t="str">
-        <f aca="true">IF(Completed!A56&lt;&gt;"", IF(Completed!D56="", TODAY(), Completed!D56), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A56&lt;&gt;"", IF(Completed!D56="", TODAY(), Completed!D56), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="16" t="str">
-        <f aca="true">IF(Completed!A57&lt;&gt;"", IF(Completed!D57="", TODAY(), Completed!D57), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A57&lt;&gt;"", IF(Completed!D57="", TODAY(), Completed!D57), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="16" t="str">
-        <f aca="true">IF(Completed!A58&lt;&gt;"", IF(Completed!D58="", TODAY(), Completed!D58), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A58&lt;&gt;"", IF(Completed!D58="", TODAY(), Completed!D58), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="16" t="str">
-        <f aca="true">IF(Completed!A59&lt;&gt;"", IF(Completed!D59="", TODAY(), Completed!D59), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A59&lt;&gt;"", IF(Completed!D59="", TODAY(), Completed!D59), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="16" t="str">
-        <f aca="true">IF(Completed!A60&lt;&gt;"", IF(Completed!D60="", TODAY(), Completed!D60), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A60&lt;&gt;"", IF(Completed!D60="", TODAY(), Completed!D60), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="16" t="str">
-        <f aca="true">IF(Completed!A61&lt;&gt;"", IF(Completed!D61="", TODAY(), Completed!D61), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A61&lt;&gt;"", IF(Completed!D61="", TODAY(), Completed!D61), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="16" t="str">
-        <f aca="true">IF(Completed!A62&lt;&gt;"", IF(Completed!D62="", TODAY(), Completed!D62), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A62&lt;&gt;"", IF(Completed!D62="", TODAY(), Completed!D62), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="16" t="str">
-        <f aca="true">IF(Completed!A63&lt;&gt;"", IF(Completed!D63="", TODAY(), Completed!D63), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A63&lt;&gt;"", IF(Completed!D63="", TODAY(), Completed!D63), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="16" t="str">
-        <f aca="true">IF(Completed!A64&lt;&gt;"", IF(Completed!D64="", TODAY(), Completed!D64), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A64&lt;&gt;"", IF(Completed!D64="", TODAY(), Completed!D64), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="16" t="str">
-        <f aca="true">IF(Completed!A65&lt;&gt;"", IF(Completed!D65="", TODAY(), Completed!D65), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A65&lt;&gt;"", IF(Completed!D65="", TODAY(), Completed!D65), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="16" t="str">
-        <f aca="true">IF(Completed!A66&lt;&gt;"", IF(Completed!D66="", TODAY(), Completed!D66), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A66&lt;&gt;"", IF(Completed!D66="", TODAY(), Completed!D66), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="16" t="str">
-        <f aca="true">IF(Completed!A67&lt;&gt;"", IF(Completed!D67="", TODAY(), Completed!D67), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A67&lt;&gt;"", IF(Completed!D67="", TODAY(), Completed!D67), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="16" t="str">
-        <f aca="true">IF(Completed!A68&lt;&gt;"", IF(Completed!D68="", TODAY(), Completed!D68), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A68&lt;&gt;"", IF(Completed!D68="", TODAY(), Completed!D68), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="16" t="str">
-        <f aca="true">IF(Completed!A69&lt;&gt;"", IF(Completed!D69="", TODAY(), Completed!D69), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A69&lt;&gt;"", IF(Completed!D69="", TODAY(), Completed!D69), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="16" t="str">
-        <f aca="true">IF(Completed!A70&lt;&gt;"", IF(Completed!D70="", TODAY(), Completed!D70), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A70&lt;&gt;"", IF(Completed!D70="", TODAY(), Completed!D70), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="16" t="str">
-        <f aca="true">IF(Completed!A71&lt;&gt;"", IF(Completed!D71="", TODAY(), Completed!D71), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A71&lt;&gt;"", IF(Completed!D71="", TODAY(), Completed!D71), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="16" t="str">
-        <f aca="true">IF(Completed!A72&lt;&gt;"", IF(Completed!D72="", TODAY(), Completed!D72), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A72&lt;&gt;"", IF(Completed!D72="", TODAY(), Completed!D72), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="16" t="str">
-        <f aca="true">IF(Completed!A73&lt;&gt;"", IF(Completed!D73="", TODAY(), Completed!D73), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A73&lt;&gt;"", IF(Completed!D73="", TODAY(), Completed!D73), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="16" t="str">
-        <f aca="true">IF(Completed!A74&lt;&gt;"", IF(Completed!D74="", TODAY(), Completed!D74), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A74&lt;&gt;"", IF(Completed!D74="", TODAY(), Completed!D74), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="16" t="str">
-        <f aca="true">IF(Completed!A75&lt;&gt;"", IF(Completed!D75="", TODAY(), Completed!D75), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A75&lt;&gt;"", IF(Completed!D75="", TODAY(), Completed!D75), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="16" t="str">
-        <f aca="true">IF(Completed!A76&lt;&gt;"", IF(Completed!D76="", TODAY(), Completed!D76), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A76&lt;&gt;"", IF(Completed!D76="", TODAY(), Completed!D76), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="16" t="str">
-        <f aca="true">IF(Completed!A77&lt;&gt;"", IF(Completed!D77="", TODAY(), Completed!D77), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A77&lt;&gt;"", IF(Completed!D77="", TODAY(), Completed!D77), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="16" t="str">
-        <f aca="true">IF(Completed!A78&lt;&gt;"", IF(Completed!D78="", TODAY(), Completed!D78), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A78&lt;&gt;"", IF(Completed!D78="", TODAY(), Completed!D78), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="16" t="str">
-        <f aca="true">IF(Completed!A79&lt;&gt;"", IF(Completed!D79="", TODAY(), Completed!D79), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A79&lt;&gt;"", IF(Completed!D79="", TODAY(), Completed!D79), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="16" t="str">
-        <f aca="true">IF(Completed!A80&lt;&gt;"", IF(Completed!D80="", TODAY(), Completed!D80), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A80&lt;&gt;"", IF(Completed!D80="", TODAY(), Completed!D80), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="16" t="str">
-        <f aca="true">IF(Completed!A81&lt;&gt;"", IF(Completed!D81="", TODAY(), Completed!D81), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A81&lt;&gt;"", IF(Completed!D81="", TODAY(), Completed!D81), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="16" t="str">
-        <f aca="true">IF(Completed!A82&lt;&gt;"", IF(Completed!D82="", TODAY(), Completed!D82), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A82&lt;&gt;"", IF(Completed!D82="", TODAY(), Completed!D82), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="16" t="str">
-        <f aca="true">IF(Completed!A83&lt;&gt;"", IF(Completed!D83="", TODAY(), Completed!D83), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A83&lt;&gt;"", IF(Completed!D83="", TODAY(), Completed!D83), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="16" t="str">
-        <f aca="true">IF(Completed!A84&lt;&gt;"", IF(Completed!D84="", TODAY(), Completed!D84), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A84&lt;&gt;"", IF(Completed!D84="", TODAY(), Completed!D84), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="16" t="str">
-        <f aca="true">IF(Completed!A85&lt;&gt;"", IF(Completed!D85="", TODAY(), Completed!D85), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A85&lt;&gt;"", IF(Completed!D85="", TODAY(), Completed!D85), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="16" t="str">
-        <f aca="true">IF(Completed!A86&lt;&gt;"", IF(Completed!D86="", TODAY(), Completed!D86), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A86&lt;&gt;"", IF(Completed!D86="", TODAY(), Completed!D86), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="16" t="str">
-        <f aca="true">IF(Completed!A87&lt;&gt;"", IF(Completed!D87="", TODAY(), Completed!D87), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A87&lt;&gt;"", IF(Completed!D87="", TODAY(), Completed!D87), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="16" t="str">
-        <f aca="true">IF(Completed!A88&lt;&gt;"", IF(Completed!D88="", TODAY(), Completed!D88), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A88&lt;&gt;"", IF(Completed!D88="", TODAY(), Completed!D88), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="16" t="str">
-        <f aca="true">IF(Completed!A89&lt;&gt;"", IF(Completed!D89="", TODAY(), Completed!D89), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A89&lt;&gt;"", IF(Completed!D89="", TODAY(), Completed!D89), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="16" t="str">
-        <f aca="true">IF(Completed!A90&lt;&gt;"", IF(Completed!D90="", TODAY(), Completed!D90), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A90&lt;&gt;"", IF(Completed!D90="", TODAY(), Completed!D90), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="16" t="str">
-        <f aca="true">IF(Completed!A91&lt;&gt;"", IF(Completed!D91="", TODAY(), Completed!D91), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A91&lt;&gt;"", IF(Completed!D91="", TODAY(), Completed!D91), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="16" t="str">
-        <f aca="true">IF(Completed!A92&lt;&gt;"", IF(Completed!D92="", TODAY(), Completed!D92), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A92&lt;&gt;"", IF(Completed!D92="", TODAY(), Completed!D92), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="16" t="str">
-        <f aca="true">IF(Completed!A93&lt;&gt;"", IF(Completed!D93="", TODAY(), Completed!D93), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A93&lt;&gt;"", IF(Completed!D93="", TODAY(), Completed!D93), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="16" t="str">
-        <f aca="true">IF(Completed!A94&lt;&gt;"", IF(Completed!D94="", TODAY(), Completed!D94), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A94&lt;&gt;"", IF(Completed!D94="", TODAY(), Completed!D94), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" s="16" t="str">
-        <f aca="true">IF(Completed!A95&lt;&gt;"", IF(Completed!D95="", TODAY(), Completed!D95), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A95&lt;&gt;"", IF(Completed!D95="", TODAY(), Completed!D95), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" s="16" t="str">
-        <f aca="true">IF(Completed!A96&lt;&gt;"", IF(Completed!D96="", TODAY(), Completed!D96), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A96&lt;&gt;"", IF(Completed!D96="", TODAY(), Completed!D96), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="16" t="str">
-        <f aca="true">IF(Completed!A97&lt;&gt;"", IF(Completed!D97="", TODAY(), Completed!D97), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A97&lt;&gt;"", IF(Completed!D97="", TODAY(), Completed!D97), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="16" t="str">
-        <f aca="true">IF(Completed!A98&lt;&gt;"", IF(Completed!D98="", TODAY(), Completed!D98), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A98&lt;&gt;"", IF(Completed!D98="", TODAY(), Completed!D98), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="16" t="str">
-        <f aca="true">IF(Completed!A99&lt;&gt;"", IF(Completed!D99="", TODAY(), Completed!D99), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A99&lt;&gt;"", IF(Completed!D99="", TODAY(), Completed!D99), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="16" t="str">
-        <f aca="true">IF(Completed!A100&lt;&gt;"", IF(Completed!D100="", TODAY(), Completed!D100), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A100&lt;&gt;"", IF(Completed!D100="", TODAY(), Completed!D100), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="16" t="str">
-        <f aca="true">IF(Completed!A101&lt;&gt;"", IF(Completed!D101="", TODAY(), Completed!D101), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A101&lt;&gt;"", IF(Completed!D101="", TODAY(), Completed!D101), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="16" t="str">
-        <f aca="true">IF(Completed!A102&lt;&gt;"", IF(Completed!D102="", TODAY(), Completed!D102), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A102&lt;&gt;"", IF(Completed!D102="", TODAY(), Completed!D102), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="16" t="str">
-        <f aca="true">IF(Completed!A103&lt;&gt;"", IF(Completed!D103="", TODAY(), Completed!D103), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A103&lt;&gt;"", IF(Completed!D103="", TODAY(), Completed!D103), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="16" t="str">
-        <f aca="true">IF(Completed!A104&lt;&gt;"", IF(Completed!D104="", TODAY(), Completed!D104), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A104&lt;&gt;"", IF(Completed!D104="", TODAY(), Completed!D104), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="16" t="str">
-        <f aca="true">IF(Completed!A105&lt;&gt;"", IF(Completed!D105="", TODAY(), Completed!D105), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A105&lt;&gt;"", IF(Completed!D105="", TODAY(), Completed!D105), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="16" t="str">
-        <f aca="true">IF(Completed!A106&lt;&gt;"", IF(Completed!D106="", TODAY(), Completed!D106), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A106&lt;&gt;"", IF(Completed!D106="", TODAY(), Completed!D106), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="16" t="str">
-        <f aca="true">IF(Completed!A107&lt;&gt;"", IF(Completed!D107="", TODAY(), Completed!D107), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A107&lt;&gt;"", IF(Completed!D107="", TODAY(), Completed!D107), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="16" t="str">
-        <f aca="true">IF(Completed!A108&lt;&gt;"", IF(Completed!D108="", TODAY(), Completed!D108), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A108&lt;&gt;"", IF(Completed!D108="", TODAY(), Completed!D108), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="16" t="str">
-        <f aca="true">IF(Completed!A109&lt;&gt;"", IF(Completed!D109="", TODAY(), Completed!D109), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A109&lt;&gt;"", IF(Completed!D109="", TODAY(), Completed!D109), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="16" t="str">
-        <f aca="true">IF(Completed!A110&lt;&gt;"", IF(Completed!D110="", TODAY(), Completed!D110), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A110&lt;&gt;"", IF(Completed!D110="", TODAY(), Completed!D110), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="16" t="str">
-        <f aca="true">IF(Completed!A111&lt;&gt;"", IF(Completed!D111="", TODAY(), Completed!D111), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A111&lt;&gt;"", IF(Completed!D111="", TODAY(), Completed!D111), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="16" t="str">
-        <f aca="true">IF(Completed!A112&lt;&gt;"", IF(Completed!D112="", TODAY(), Completed!D112), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A112&lt;&gt;"", IF(Completed!D112="", TODAY(), Completed!D112), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="16" t="str">
-        <f aca="true">IF(Completed!A113&lt;&gt;"", IF(Completed!D113="", TODAY(), Completed!D113), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A113&lt;&gt;"", IF(Completed!D113="", TODAY(), Completed!D113), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="16" t="str">
-        <f aca="true">IF(Completed!A114&lt;&gt;"", IF(Completed!D114="", TODAY(), Completed!D114), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A114&lt;&gt;"", IF(Completed!D114="", TODAY(), Completed!D114), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="16" t="str">
-        <f aca="true">IF(Completed!A115&lt;&gt;"", IF(Completed!D115="", TODAY(), Completed!D115), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A115&lt;&gt;"", IF(Completed!D115="", TODAY(), Completed!D115), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="16" t="str">
-        <f aca="true">IF(Completed!A116&lt;&gt;"", IF(Completed!D116="", TODAY(), Completed!D116), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A116&lt;&gt;"", IF(Completed!D116="", TODAY(), Completed!D116), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="16" t="str">
-        <f aca="true">IF(Completed!A117&lt;&gt;"", IF(Completed!D117="", TODAY(), Completed!D117), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A117&lt;&gt;"", IF(Completed!D117="", TODAY(), Completed!D117), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="16" t="str">
-        <f aca="true">IF(Completed!A118&lt;&gt;"", IF(Completed!D118="", TODAY(), Completed!D118), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A118&lt;&gt;"", IF(Completed!D118="", TODAY(), Completed!D118), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="16" t="str">
-        <f aca="true">IF(Completed!A119&lt;&gt;"", IF(Completed!D119="", TODAY(), Completed!D119), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A119&lt;&gt;"", IF(Completed!D119="", TODAY(), Completed!D119), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="16" t="str">
-        <f aca="true">IF(Completed!A120&lt;&gt;"", IF(Completed!D120="", TODAY(), Completed!D120), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A120&lt;&gt;"", IF(Completed!D120="", TODAY(), Completed!D120), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="16" t="str">
-        <f aca="true">IF(Completed!A121&lt;&gt;"", IF(Completed!D121="", TODAY(), Completed!D121), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A121&lt;&gt;"", IF(Completed!D121="", TODAY(), Completed!D121), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="16" t="str">
-        <f aca="true">IF(Completed!A122&lt;&gt;"", IF(Completed!D122="", TODAY(), Completed!D122), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A122&lt;&gt;"", IF(Completed!D122="", TODAY(), Completed!D122), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="16" t="str">
-        <f aca="true">IF(Completed!A123&lt;&gt;"", IF(Completed!D123="", TODAY(), Completed!D123), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A123&lt;&gt;"", IF(Completed!D123="", TODAY(), Completed!D123), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="16" t="str">
-        <f aca="true">IF(Completed!A124&lt;&gt;"", IF(Completed!D124="", TODAY(), Completed!D124), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A124&lt;&gt;"", IF(Completed!D124="", TODAY(), Completed!D124), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="16" t="str">
-        <f aca="true">IF(Completed!A125&lt;&gt;"", IF(Completed!D125="", TODAY(), Completed!D125), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A125&lt;&gt;"", IF(Completed!D125="", TODAY(), Completed!D125), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="16" t="str">
-        <f aca="true">IF(Completed!A126&lt;&gt;"", IF(Completed!D126="", TODAY(), Completed!D126), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A126&lt;&gt;"", IF(Completed!D126="", TODAY(), Completed!D126), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="16" t="str">
-        <f aca="true">IF(Completed!A127&lt;&gt;"", IF(Completed!D127="", TODAY(), Completed!D127), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A127&lt;&gt;"", IF(Completed!D127="", TODAY(), Completed!D127), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="16" t="str">
-        <f aca="true">IF(Completed!A128&lt;&gt;"", IF(Completed!D128="", TODAY(), Completed!D128), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A128&lt;&gt;"", IF(Completed!D128="", TODAY(), Completed!D128), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="16" t="str">
-        <f aca="true">IF(Completed!A129&lt;&gt;"", IF(Completed!D129="", TODAY(), Completed!D129), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A129&lt;&gt;"", IF(Completed!D129="", TODAY(), Completed!D129), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="16" t="str">
-        <f aca="true">IF(Completed!A130&lt;&gt;"", IF(Completed!D130="", TODAY(), Completed!D130), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A130&lt;&gt;"", IF(Completed!D130="", TODAY(), Completed!D130), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="16" t="str">
-        <f aca="true">IF(Completed!A131&lt;&gt;"", IF(Completed!D131="", TODAY(), Completed!D131), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A131&lt;&gt;"", IF(Completed!D131="", TODAY(), Completed!D131), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="16" t="str">
-        <f aca="true">IF(Completed!A132&lt;&gt;"", IF(Completed!D132="", TODAY(), Completed!D132), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A132&lt;&gt;"", IF(Completed!D132="", TODAY(), Completed!D132), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="16" t="str">
-        <f aca="true">IF(Completed!A133&lt;&gt;"", IF(Completed!D133="", TODAY(), Completed!D133), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A133&lt;&gt;"", IF(Completed!D133="", TODAY(), Completed!D133), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="16" t="str">
-        <f aca="true">IF(Completed!A134&lt;&gt;"", IF(Completed!D134="", TODAY(), Completed!D134), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A134&lt;&gt;"", IF(Completed!D134="", TODAY(), Completed!D134), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="16" t="str">
-        <f aca="true">IF(Completed!A135&lt;&gt;"", IF(Completed!D135="", TODAY(), Completed!D135), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A135&lt;&gt;"", IF(Completed!D135="", TODAY(), Completed!D135), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="16" t="str">
-        <f aca="true">IF(Completed!A136&lt;&gt;"", IF(Completed!D136="", TODAY(), Completed!D136), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A136&lt;&gt;"", IF(Completed!D136="", TODAY(), Completed!D136), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="16" t="str">
-        <f aca="true">IF(Completed!A137&lt;&gt;"", IF(Completed!D137="", TODAY(), Completed!D137), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A137&lt;&gt;"", IF(Completed!D137="", TODAY(), Completed!D137), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="16" t="str">
-        <f aca="true">IF(Completed!A138&lt;&gt;"", IF(Completed!D138="", TODAY(), Completed!D138), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A138&lt;&gt;"", IF(Completed!D138="", TODAY(), Completed!D138), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="16" t="str">
-        <f aca="true">IF(Completed!A139&lt;&gt;"", IF(Completed!D139="", TODAY(), Completed!D139), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A139&lt;&gt;"", IF(Completed!D139="", TODAY(), Completed!D139), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="16" t="str">
-        <f aca="true">IF(Completed!A140&lt;&gt;"", IF(Completed!D140="", TODAY(), Completed!D140), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A140&lt;&gt;"", IF(Completed!D140="", TODAY(), Completed!D140), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="16" t="str">
-        <f aca="true">IF(Completed!A141&lt;&gt;"", IF(Completed!D141="", TODAY(), Completed!D141), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A141&lt;&gt;"", IF(Completed!D141="", TODAY(), Completed!D141), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="16" t="str">
-        <f aca="true">IF(Completed!A142&lt;&gt;"", IF(Completed!D142="", TODAY(), Completed!D142), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A142&lt;&gt;"", IF(Completed!D142="", TODAY(), Completed!D142), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="16" t="str">
-        <f aca="true">IF(Completed!A143&lt;&gt;"", IF(Completed!D143="", TODAY(), Completed!D143), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A143&lt;&gt;"", IF(Completed!D143="", TODAY(), Completed!D143), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="16" t="str">
-        <f aca="true">IF(Completed!A144&lt;&gt;"", IF(Completed!D144="", TODAY(), Completed!D144), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A144&lt;&gt;"", IF(Completed!D144="", TODAY(), Completed!D144), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="16" t="str">
-        <f aca="true">IF(Completed!A145&lt;&gt;"", IF(Completed!D145="", TODAY(), Completed!D145), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A145&lt;&gt;"", IF(Completed!D145="", TODAY(), Completed!D145), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="16" t="str">
-        <f aca="true">IF(Completed!A146&lt;&gt;"", IF(Completed!D146="", TODAY(), Completed!D146), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A146&lt;&gt;"", IF(Completed!D146="", TODAY(), Completed!D146), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="16" t="str">
-        <f aca="true">IF(Completed!A147&lt;&gt;"", IF(Completed!D147="", TODAY(), Completed!D147), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A147&lt;&gt;"", IF(Completed!D147="", TODAY(), Completed!D147), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="16" t="str">
-        <f aca="true">IF(Completed!A148&lt;&gt;"", IF(Completed!D148="", TODAY(), Completed!D148), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A148&lt;&gt;"", IF(Completed!D148="", TODAY(), Completed!D148), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="16" t="str">
-        <f aca="true">IF(Completed!A149&lt;&gt;"", IF(Completed!D149="", TODAY(), Completed!D149), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A149&lt;&gt;"", IF(Completed!D149="", TODAY(), Completed!D149), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="16" t="str">
-        <f aca="true">IF(Completed!A150&lt;&gt;"", IF(Completed!D150="", TODAY(), Completed!D150), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A150&lt;&gt;"", IF(Completed!D150="", TODAY(), Completed!D150), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="16" t="str">
-        <f aca="true">IF(Completed!A151&lt;&gt;"", IF(Completed!D151="", TODAY(), Completed!D151), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A151&lt;&gt;"", IF(Completed!D151="", TODAY(), Completed!D151), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="16" t="str">
-        <f aca="true">IF(Completed!A152&lt;&gt;"", IF(Completed!D152="", TODAY(), Completed!D152), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A152&lt;&gt;"", IF(Completed!D152="", TODAY(), Completed!D152), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="16" t="str">
-        <f aca="true">IF(Completed!A153&lt;&gt;"", IF(Completed!D153="", TODAY(), Completed!D153), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A153&lt;&gt;"", IF(Completed!D153="", TODAY(), Completed!D153), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="16" t="str">
-        <f aca="true">IF(Completed!A154&lt;&gt;"", IF(Completed!D154="", TODAY(), Completed!D154), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A154&lt;&gt;"", IF(Completed!D154="", TODAY(), Completed!D154), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="16" t="str">
-        <f aca="true">IF(Completed!A155&lt;&gt;"", IF(Completed!D155="", TODAY(), Completed!D155), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A155&lt;&gt;"", IF(Completed!D155="", TODAY(), Completed!D155), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="16" t="str">
-        <f aca="true">IF(Completed!A156&lt;&gt;"", IF(Completed!D156="", TODAY(), Completed!D156), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A156&lt;&gt;"", IF(Completed!D156="", TODAY(), Completed!D156), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="16" t="str">
-        <f aca="true">IF(Completed!A157&lt;&gt;"", IF(Completed!D157="", TODAY(), Completed!D157), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A157&lt;&gt;"", IF(Completed!D157="", TODAY(), Completed!D157), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="16" t="str">
-        <f aca="true">IF(Completed!A158&lt;&gt;"", IF(Completed!D158="", TODAY(), Completed!D158), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A158&lt;&gt;"", IF(Completed!D158="", TODAY(), Completed!D158), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="16" t="str">
-        <f aca="true">IF(Completed!A159&lt;&gt;"", IF(Completed!D159="", TODAY(), Completed!D159), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A159&lt;&gt;"", IF(Completed!D159="", TODAY(), Completed!D159), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="16" t="str">
-        <f aca="true">IF(Completed!A160&lt;&gt;"", IF(Completed!D160="", TODAY(), Completed!D160), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A160&lt;&gt;"", IF(Completed!D160="", TODAY(), Completed!D160), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="16" t="str">
-        <f aca="true">IF(Completed!A161&lt;&gt;"", IF(Completed!D161="", TODAY(), Completed!D161), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A161&lt;&gt;"", IF(Completed!D161="", TODAY(), Completed!D161), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="16" t="str">
-        <f aca="true">IF(Completed!A162&lt;&gt;"", IF(Completed!D162="", TODAY(), Completed!D162), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A162&lt;&gt;"", IF(Completed!D162="", TODAY(), Completed!D162), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="16" t="str">
-        <f aca="true">IF(Completed!A163&lt;&gt;"", IF(Completed!D163="", TODAY(), Completed!D163), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A163&lt;&gt;"", IF(Completed!D163="", TODAY(), Completed!D163), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" s="16" t="str">
-        <f aca="true">IF(Completed!A164&lt;&gt;"", IF(Completed!D164="", TODAY(), Completed!D164), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A164&lt;&gt;"", IF(Completed!D164="", TODAY(), Completed!D164), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165" s="16" t="str">
-        <f aca="true">IF(Completed!A165&lt;&gt;"", IF(Completed!D165="", TODAY(), Completed!D165), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A165&lt;&gt;"", IF(Completed!D165="", TODAY(), Completed!D165), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" s="16" t="str">
-        <f aca="true">IF(Completed!A166&lt;&gt;"", IF(Completed!D166="", TODAY(), Completed!D166), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A166&lt;&gt;"", IF(Completed!D166="", TODAY(), Completed!D166), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167" s="16" t="str">
-        <f aca="true">IF(Completed!A167&lt;&gt;"", IF(Completed!D167="", TODAY(), Completed!D167), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A167&lt;&gt;"", IF(Completed!D167="", TODAY(), Completed!D167), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168" s="16" t="str">
-        <f aca="true">IF(Completed!A168&lt;&gt;"", IF(Completed!D168="", TODAY(), Completed!D168), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A168&lt;&gt;"", IF(Completed!D168="", TODAY(), Completed!D168), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169" s="16" t="str">
-        <f aca="true">IF(Completed!A169&lt;&gt;"", IF(Completed!D169="", TODAY(), Completed!D169), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A169&lt;&gt;"", IF(Completed!D169="", TODAY(), Completed!D169), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170" s="16" t="str">
-        <f aca="true">IF(Completed!A170&lt;&gt;"", IF(Completed!D170="", TODAY(), Completed!D170), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A170&lt;&gt;"", IF(Completed!D170="", TODAY(), Completed!D170), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" s="16" t="str">
-        <f aca="true">IF(Completed!A171&lt;&gt;"", IF(Completed!D171="", TODAY(), Completed!D171), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A171&lt;&gt;"", IF(Completed!D171="", TODAY(), Completed!D171), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" s="16" t="str">
-        <f aca="true">IF(Completed!A172&lt;&gt;"", IF(Completed!D172="", TODAY(), Completed!D172), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A172&lt;&gt;"", IF(Completed!D172="", TODAY(), Completed!D172), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" s="16" t="str">
-        <f aca="true">IF(Completed!A173&lt;&gt;"", IF(Completed!D173="", TODAY(), Completed!D173), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A173&lt;&gt;"", IF(Completed!D173="", TODAY(), Completed!D173), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174" s="16" t="str">
-        <f aca="true">IF(Completed!A174&lt;&gt;"", IF(Completed!D174="", TODAY(), Completed!D174), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A174&lt;&gt;"", IF(Completed!D174="", TODAY(), Completed!D174), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175" s="16" t="str">
-        <f aca="true">IF(Completed!A175&lt;&gt;"", IF(Completed!D175="", TODAY(), Completed!D175), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A175&lt;&gt;"", IF(Completed!D175="", TODAY(), Completed!D175), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176" s="16" t="str">
-        <f aca="true">IF(Completed!A176&lt;&gt;"", IF(Completed!D176="", TODAY(), Completed!D176), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A176&lt;&gt;"", IF(Completed!D176="", TODAY(), Completed!D176), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" s="16" t="str">
-        <f aca="true">IF(Completed!A177&lt;&gt;"", IF(Completed!D177="", TODAY(), Completed!D177), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A177&lt;&gt;"", IF(Completed!D177="", TODAY(), Completed!D177), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178" s="16" t="str">
-        <f aca="true">IF(Completed!A178&lt;&gt;"", IF(Completed!D178="", TODAY(), Completed!D178), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A178&lt;&gt;"", IF(Completed!D178="", TODAY(), Completed!D178), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D179" s="16" t="str">
-        <f aca="true">IF(Completed!A179&lt;&gt;"", IF(Completed!D179="", TODAY(), Completed!D179), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A179&lt;&gt;"", IF(Completed!D179="", TODAY(), Completed!D179), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180" s="16" t="str">
-        <f aca="true">IF(Completed!A180&lt;&gt;"", IF(Completed!D180="", TODAY(), Completed!D180), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A180&lt;&gt;"", IF(Completed!D180="", TODAY(), Completed!D180), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181" s="16" t="str">
-        <f aca="true">IF(Completed!A181&lt;&gt;"", IF(Completed!D181="", TODAY(), Completed!D181), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A181&lt;&gt;"", IF(Completed!D181="", TODAY(), Completed!D181), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D182" s="16" t="str">
-        <f aca="true">IF(Completed!A182&lt;&gt;"", IF(Completed!D182="", TODAY(), Completed!D182), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A182&lt;&gt;"", IF(Completed!D182="", TODAY(), Completed!D182), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D183" s="16" t="str">
-        <f aca="true">IF(Completed!A183&lt;&gt;"", IF(Completed!D183="", TODAY(), Completed!D183), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A183&lt;&gt;"", IF(Completed!D183="", TODAY(), Completed!D183), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D184" s="16" t="str">
-        <f aca="true">IF(Completed!A184&lt;&gt;"", IF(Completed!D184="", TODAY(), Completed!D184), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A184&lt;&gt;"", IF(Completed!D184="", TODAY(), Completed!D184), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185" s="16" t="str">
-        <f aca="true">IF(Completed!A185&lt;&gt;"", IF(Completed!D185="", TODAY(), Completed!D185), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A185&lt;&gt;"", IF(Completed!D185="", TODAY(), Completed!D185), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D186" s="16" t="str">
-        <f aca="true">IF(Completed!A186&lt;&gt;"", IF(Completed!D186="", TODAY(), Completed!D186), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A186&lt;&gt;"", IF(Completed!D186="", TODAY(), Completed!D186), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187" s="16" t="str">
-        <f aca="true">IF(Completed!A187&lt;&gt;"", IF(Completed!D187="", TODAY(), Completed!D187), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A187&lt;&gt;"", IF(Completed!D187="", TODAY(), Completed!D187), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D188" s="16" t="str">
-        <f aca="true">IF(Completed!A188&lt;&gt;"", IF(Completed!D188="", TODAY(), Completed!D188), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A188&lt;&gt;"", IF(Completed!D188="", TODAY(), Completed!D188), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189" s="16" t="str">
-        <f aca="true">IF(Completed!A189&lt;&gt;"", IF(Completed!D189="", TODAY(), Completed!D189), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A189&lt;&gt;"", IF(Completed!D189="", TODAY(), Completed!D189), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D190" s="16" t="str">
-        <f aca="true">IF(Completed!A190&lt;&gt;"", IF(Completed!D190="", TODAY(), Completed!D190), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A190&lt;&gt;"", IF(Completed!D190="", TODAY(), Completed!D190), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191" s="16" t="str">
-        <f aca="true">IF(Completed!A191&lt;&gt;"", IF(Completed!D191="", TODAY(), Completed!D191), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A191&lt;&gt;"", IF(Completed!D191="", TODAY(), Completed!D191), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D192" s="16" t="str">
-        <f aca="true">IF(Completed!A192&lt;&gt;"", IF(Completed!D192="", TODAY(), Completed!D192), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A192&lt;&gt;"", IF(Completed!D192="", TODAY(), Completed!D192), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193" s="16" t="str">
-        <f aca="true">IF(Completed!A193&lt;&gt;"", IF(Completed!D193="", TODAY(), Completed!D193), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A193&lt;&gt;"", IF(Completed!D193="", TODAY(), Completed!D193), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D194" s="16" t="str">
-        <f aca="true">IF(Completed!A194&lt;&gt;"", IF(Completed!D194="", TODAY(), Completed!D194), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A194&lt;&gt;"", IF(Completed!D194="", TODAY(), Completed!D194), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195" s="16" t="str">
-        <f aca="true">IF(Completed!A195&lt;&gt;"", IF(Completed!D195="", TODAY(), Completed!D195), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A195&lt;&gt;"", IF(Completed!D195="", TODAY(), Completed!D195), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196" s="16" t="str">
-        <f aca="true">IF(Completed!A196&lt;&gt;"", IF(Completed!D196="", TODAY(), Completed!D196), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A196&lt;&gt;"", IF(Completed!D196="", TODAY(), Completed!D196), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D197" s="16" t="str">
-        <f aca="true">IF(Completed!A197&lt;&gt;"", IF(Completed!D197="", TODAY(), Completed!D197), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A197&lt;&gt;"", IF(Completed!D197="", TODAY(), Completed!D197), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198" s="16" t="str">
-        <f aca="true">IF(Completed!A198&lt;&gt;"", IF(Completed!D198="", TODAY(), Completed!D198), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A198&lt;&gt;"", IF(Completed!D198="", TODAY(), Completed!D198), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D199" s="16" t="str">
-        <f aca="true">IF(Completed!A199&lt;&gt;"", IF(Completed!D199="", TODAY(), Completed!D199), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A199&lt;&gt;"", IF(Completed!D199="", TODAY(), Completed!D199), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200" s="16" t="str">
-        <f aca="true">IF(Completed!A200&lt;&gt;"", IF(Completed!D200="", TODAY(), Completed!D200), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A200&lt;&gt;"", IF(Completed!D200="", TODAY(), Completed!D200), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D201" s="16" t="str">
-        <f aca="true">IF(Completed!A201&lt;&gt;"", IF(Completed!D201="", TODAY(), Completed!D201), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A201&lt;&gt;"", IF(Completed!D201="", TODAY(), Completed!D201), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D202" s="16" t="str">
-        <f aca="true">IF(Completed!A202&lt;&gt;"", IF(Completed!D202="", TODAY(), Completed!D202), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A202&lt;&gt;"", IF(Completed!D202="", TODAY(), Completed!D202), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D203" s="16" t="str">
-        <f aca="true">IF(Completed!A203&lt;&gt;"", IF(Completed!D203="", TODAY(), Completed!D203), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A203&lt;&gt;"", IF(Completed!D203="", TODAY(), Completed!D203), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204" s="16" t="str">
-        <f aca="true">IF(Completed!A204&lt;&gt;"", IF(Completed!D204="", TODAY(), Completed!D204), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A204&lt;&gt;"", IF(Completed!D204="", TODAY(), Completed!D204), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D205" s="16" t="str">
-        <f aca="true">IF(Completed!A205&lt;&gt;"", IF(Completed!D205="", TODAY(), Completed!D205), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A205&lt;&gt;"", IF(Completed!D205="", TODAY(), Completed!D205), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D206" s="16" t="str">
-        <f aca="true">IF(Completed!A206&lt;&gt;"", IF(Completed!D206="", TODAY(), Completed!D206), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A206&lt;&gt;"", IF(Completed!D206="", TODAY(), Completed!D206), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D207" s="16" t="str">
-        <f aca="true">IF(Completed!A207&lt;&gt;"", IF(Completed!D207="", TODAY(), Completed!D207), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A207&lt;&gt;"", IF(Completed!D207="", TODAY(), Completed!D207), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D208" s="16" t="str">
-        <f aca="true">IF(Completed!A208&lt;&gt;"", IF(Completed!D208="", TODAY(), Completed!D208), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A208&lt;&gt;"", IF(Completed!D208="", TODAY(), Completed!D208), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D209" s="16" t="str">
-        <f aca="true">IF(Completed!A209&lt;&gt;"", IF(Completed!D209="", TODAY(), Completed!D209), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A209&lt;&gt;"", IF(Completed!D209="", TODAY(), Completed!D209), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D210" s="16" t="str">
-        <f aca="true">IF(Completed!A210&lt;&gt;"", IF(Completed!D210="", TODAY(), Completed!D210), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A210&lt;&gt;"", IF(Completed!D210="", TODAY(), Completed!D210), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D211" s="16" t="str">
-        <f aca="true">IF(Completed!A211&lt;&gt;"", IF(Completed!D211="", TODAY(), Completed!D211), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A211&lt;&gt;"", IF(Completed!D211="", TODAY(), Completed!D211), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D212" s="16" t="str">
-        <f aca="true">IF(Completed!A212&lt;&gt;"", IF(Completed!D212="", TODAY(), Completed!D212), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A212&lt;&gt;"", IF(Completed!D212="", TODAY(), Completed!D212), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D213" s="16" t="str">
-        <f aca="true">IF(Completed!A213&lt;&gt;"", IF(Completed!D213="", TODAY(), Completed!D213), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A213&lt;&gt;"", IF(Completed!D213="", TODAY(), Completed!D213), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D214" s="16" t="str">
-        <f aca="true">IF(Completed!A214&lt;&gt;"", IF(Completed!D214="", TODAY(), Completed!D214), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A214&lt;&gt;"", IF(Completed!D214="", TODAY(), Completed!D214), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D215" s="16" t="str">
-        <f aca="true">IF(Completed!A215&lt;&gt;"", IF(Completed!D215="", TODAY(), Completed!D215), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A215&lt;&gt;"", IF(Completed!D215="", TODAY(), Completed!D215), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D216" s="16" t="str">
-        <f aca="true">IF(Completed!A216&lt;&gt;"", IF(Completed!D216="", TODAY(), Completed!D216), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A216&lt;&gt;"", IF(Completed!D216="", TODAY(), Completed!D216), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D217" s="16" t="str">
-        <f aca="true">IF(Completed!A217&lt;&gt;"", IF(Completed!D217="", TODAY(), Completed!D217), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A217&lt;&gt;"", IF(Completed!D217="", TODAY(), Completed!D217), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D218" s="16" t="str">
-        <f aca="true">IF(Completed!A218&lt;&gt;"", IF(Completed!D218="", TODAY(), Completed!D218), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A218&lt;&gt;"", IF(Completed!D218="", TODAY(), Completed!D218), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D219" s="16" t="str">
-        <f aca="true">IF(Completed!A219&lt;&gt;"", IF(Completed!D219="", TODAY(), Completed!D219), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A219&lt;&gt;"", IF(Completed!D219="", TODAY(), Completed!D219), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D220" s="16" t="str">
-        <f aca="true">IF(Completed!A220&lt;&gt;"", IF(Completed!D220="", TODAY(), Completed!D220), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A220&lt;&gt;"", IF(Completed!D220="", TODAY(), Completed!D220), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D221" s="16" t="str">
-        <f aca="true">IF(Completed!A221&lt;&gt;"", IF(Completed!D221="", TODAY(), Completed!D221), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A221&lt;&gt;"", IF(Completed!D221="", TODAY(), Completed!D221), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D222" s="16" t="str">
-        <f aca="true">IF(Completed!A222&lt;&gt;"", IF(Completed!D222="", TODAY(), Completed!D222), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A222&lt;&gt;"", IF(Completed!D222="", TODAY(), Completed!D222), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D223" s="16" t="str">
-        <f aca="true">IF(Completed!A223&lt;&gt;"", IF(Completed!D223="", TODAY(), Completed!D223), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A223&lt;&gt;"", IF(Completed!D223="", TODAY(), Completed!D223), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D224" s="16" t="str">
-        <f aca="true">IF(Completed!A224&lt;&gt;"", IF(Completed!D224="", TODAY(), Completed!D224), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A224&lt;&gt;"", IF(Completed!D224="", TODAY(), Completed!D224), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D225" s="16" t="str">
-        <f aca="true">IF(Completed!A225&lt;&gt;"", IF(Completed!D225="", TODAY(), Completed!D225), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A225&lt;&gt;"", IF(Completed!D225="", TODAY(), Completed!D225), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D226" s="16" t="str">
-        <f aca="true">IF(Completed!A226&lt;&gt;"", IF(Completed!D226="", TODAY(), Completed!D226), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A226&lt;&gt;"", IF(Completed!D226="", TODAY(), Completed!D226), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D227" s="16" t="str">
-        <f aca="true">IF(Completed!A227&lt;&gt;"", IF(Completed!D227="", TODAY(), Completed!D227), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A227&lt;&gt;"", IF(Completed!D227="", TODAY(), Completed!D227), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D228" s="16" t="str">
-        <f aca="true">IF(Completed!A228&lt;&gt;"", IF(Completed!D228="", TODAY(), Completed!D228), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A228&lt;&gt;"", IF(Completed!D228="", TODAY(), Completed!D228), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D229" s="16" t="str">
-        <f aca="true">IF(Completed!A229&lt;&gt;"", IF(Completed!D229="", TODAY(), Completed!D229), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A229&lt;&gt;"", IF(Completed!D229="", TODAY(), Completed!D229), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D230" s="16" t="str">
-        <f aca="true">IF(Completed!A230&lt;&gt;"", IF(Completed!D230="", TODAY(), Completed!D230), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A230&lt;&gt;"", IF(Completed!D230="", TODAY(), Completed!D230), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D231" s="16" t="str">
-        <f aca="true">IF(Completed!A231&lt;&gt;"", IF(Completed!D231="", TODAY(), Completed!D231), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A231&lt;&gt;"", IF(Completed!D231="", TODAY(), Completed!D231), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D232" s="16" t="str">
-        <f aca="true">IF(Completed!A232&lt;&gt;"", IF(Completed!D232="", TODAY(), Completed!D232), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A232&lt;&gt;"", IF(Completed!D232="", TODAY(), Completed!D232), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D233" s="16" t="str">
-        <f aca="true">IF(Completed!A233&lt;&gt;"", IF(Completed!D233="", TODAY(), Completed!D233), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A233&lt;&gt;"", IF(Completed!D233="", TODAY(), Completed!D233), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D234" s="16" t="str">
-        <f aca="true">IF(Completed!A234&lt;&gt;"", IF(Completed!D234="", TODAY(), Completed!D234), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A234&lt;&gt;"", IF(Completed!D234="", TODAY(), Completed!D234), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D235" s="16" t="str">
-        <f aca="true">IF(Completed!A235&lt;&gt;"", IF(Completed!D235="", TODAY(), Completed!D235), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A235&lt;&gt;"", IF(Completed!D235="", TODAY(), Completed!D235), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D236" s="16" t="str">
-        <f aca="true">IF(Completed!A236&lt;&gt;"", IF(Completed!D236="", TODAY(), Completed!D236), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A236&lt;&gt;"", IF(Completed!D236="", TODAY(), Completed!D236), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D237" s="16" t="str">
-        <f aca="true">IF(Completed!A237&lt;&gt;"", IF(Completed!D237="", TODAY(), Completed!D237), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A237&lt;&gt;"", IF(Completed!D237="", TODAY(), Completed!D237), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D238" s="16" t="str">
-        <f aca="true">IF(Completed!A238&lt;&gt;"", IF(Completed!D238="", TODAY(), Completed!D238), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A238&lt;&gt;"", IF(Completed!D238="", TODAY(), Completed!D238), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D239" s="16" t="str">
-        <f aca="true">IF(Completed!A239&lt;&gt;"", IF(Completed!D239="", TODAY(), Completed!D239), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A239&lt;&gt;"", IF(Completed!D239="", TODAY(), Completed!D239), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D240" s="16" t="str">
-        <f aca="true">IF(Completed!A240&lt;&gt;"", IF(Completed!D240="", TODAY(), Completed!D240), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A240&lt;&gt;"", IF(Completed!D240="", TODAY(), Completed!D240), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D241" s="16" t="str">
-        <f aca="true">IF(Completed!A241&lt;&gt;"", IF(Completed!D241="", TODAY(), Completed!D241), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A241&lt;&gt;"", IF(Completed!D241="", TODAY(), Completed!D241), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D242" s="16" t="str">
-        <f aca="true">IF(Completed!A242&lt;&gt;"", IF(Completed!D242="", TODAY(), Completed!D242), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A242&lt;&gt;"", IF(Completed!D242="", TODAY(), Completed!D242), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D243" s="16" t="str">
-        <f aca="true">IF(Completed!A243&lt;&gt;"", IF(Completed!D243="", TODAY(), Completed!D243), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A243&lt;&gt;"", IF(Completed!D243="", TODAY(), Completed!D243), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D244" s="16" t="str">
-        <f aca="true">IF(Completed!A244&lt;&gt;"", IF(Completed!D244="", TODAY(), Completed!D244), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A244&lt;&gt;"", IF(Completed!D244="", TODAY(), Completed!D244), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D245" s="16" t="str">
-        <f aca="true">IF(Completed!A245&lt;&gt;"", IF(Completed!D245="", TODAY(), Completed!D245), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A245&lt;&gt;"", IF(Completed!D245="", TODAY(), Completed!D245), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D246" s="16" t="str">
-        <f aca="true">IF(Completed!A246&lt;&gt;"", IF(Completed!D246="", TODAY(), Completed!D246), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A246&lt;&gt;"", IF(Completed!D246="", TODAY(), Completed!D246), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D247" s="16" t="str">
-        <f aca="true">IF(Completed!A247&lt;&gt;"", IF(Completed!D247="", TODAY(), Completed!D247), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A247&lt;&gt;"", IF(Completed!D247="", TODAY(), Completed!D247), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D248" s="16" t="str">
-        <f aca="true">IF(Completed!A248&lt;&gt;"", IF(Completed!D248="", TODAY(), Completed!D248), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A248&lt;&gt;"", IF(Completed!D248="", TODAY(), Completed!D248), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D249" s="16" t="str">
-        <f aca="true">IF(Completed!A249&lt;&gt;"", IF(Completed!D249="", TODAY(), Completed!D249), "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f ca="1">IF(Completed!A249&lt;&gt;"", IF(Completed!D249="", TODAY(), Completed!D249), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D250" s="16" t="str">
-        <f aca="true">IF(Completed!A250&lt;&gt;"", IF(Completed!D250="", TODAY(), Completed!D250), "")</f>
+        <f ca="1">IF(Completed!A250&lt;&gt;"", IF(Completed!D250="", TODAY(), Completed!D250), "")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(Completed!C2 - TODAY() &lt; 0, Completed!A2&lt;&gt;"")</formula>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>AND(C2 - TODAY() &lt; 0, A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(Completed!C2 - TODAY() &lt; 0, Completed!A2&lt;&gt;"")</formula>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>AND(C2 - TODAY() &lt; 0, A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>AND(Completed!C2 - TODAY() &lt; 0, Completed!A2&lt;&gt;"")</formula>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND(C2 - TODAY() &lt; 0, A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
+    <col min="1" max="1025" width="8.140625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/runeCrafterAgenda.xlsx
+++ b/runeCrafterAgenda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\tutorial2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\mathGame\tutorial2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Completed" sheetId="2" r:id="rId2"/>
     <sheet name="DropDowns" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" iterate="1" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Step</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Ryan</t>
-  </si>
-  <si>
-    <t>Create different tools for each kind of rune crafting, with different frames</t>
   </si>
   <si>
     <t>Task</t>
@@ -80,6 +77,21 @@
   </si>
   <si>
     <t>Trashable inspector</t>
+  </si>
+  <si>
+    <t>Create images for remaining 7 Recipes</t>
+  </si>
+  <si>
+    <t>14/08/16</t>
+  </si>
+  <si>
+    <t>Set drag data for recipes</t>
+  </si>
+  <si>
+    <t>Craft 1st rune type with 1st recipe</t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
 </sst>
 </file>
@@ -694,18 +706,18 @@
   <dimension ref="A1:AMK497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" style="1"/>
-    <col min="2" max="2" width="16.81640625" style="1"/>
-    <col min="3" max="3" width="15.7265625" style="1"/>
-    <col min="4" max="1025" width="8.453125" style="1"/>
+    <col min="1" max="1" width="31.85546875" style="1"/>
+    <col min="2" max="2" width="16.85546875" style="1"/>
+    <col min="3" max="3" width="15.7109375" style="1"/>
+    <col min="4" max="1025" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -716,7 +728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -727,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -738,2478 +750,2490 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="9"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="9"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="9"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="9"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="9"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="9"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="9"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="9"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="9"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="9"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="9"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="9"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="9"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="9"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="9"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="9"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="9"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="9"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="9"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="9"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="7"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="9"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="7"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="9"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="9"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="7"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="9"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="7"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="9"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="7"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="9"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="7"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="9"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="9"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="7"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="9"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="9"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="9"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="7"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="9"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="7"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="9"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="7"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="9"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="7"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="9"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="7"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="9"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="7"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="9"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="7"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="9"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="7"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="9"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="7"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="9"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="7"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="9"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="7"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="9"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="7"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="9"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="7"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="9"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="7"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="9"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="7"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="9"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="7"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="9"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="7"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="9"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="7"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="9"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="7"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="9"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="7"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="9"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="7"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="9"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="7"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="9"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="7"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="9"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="7"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="9"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="7"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="9"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="7"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="9"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="7"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="9"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="7"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="8"/>
       <c r="B222" s="8"/>
       <c r="C222" s="9"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="7"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="8"/>
       <c r="C224" s="9"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="7"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="8"/>
       <c r="C226" s="9"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="7"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="8"/>
       <c r="C228" s="9"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="7"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="8"/>
       <c r="C230" s="9"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="7"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="8"/>
       <c r="C232" s="9"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="7"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="8"/>
       <c r="C234" s="9"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="7"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="8"/>
       <c r="C236" s="9"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="7"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="8"/>
       <c r="C238" s="9"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="7"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="8"/>
       <c r="C240" s="9"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="7"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="8"/>
       <c r="C242" s="9"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="7"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
       <c r="B244" s="8"/>
       <c r="C244" s="9"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="7"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
       <c r="B246" s="8"/>
       <c r="C246" s="9"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="7"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="8"/>
       <c r="B248" s="8"/>
       <c r="C248" s="9"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="7"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="8"/>
       <c r="B250" s="8"/>
       <c r="C250" s="9"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="7"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="8"/>
       <c r="B252" s="8"/>
       <c r="C252" s="9"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="7"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="8"/>
       <c r="B254" s="8"/>
       <c r="C254" s="9"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="7"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="8"/>
       <c r="B256" s="8"/>
       <c r="C256" s="9"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="7"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="8"/>
       <c r="B258" s="8"/>
       <c r="C258" s="9"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="7"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="8"/>
       <c r="B260" s="8"/>
       <c r="C260" s="9"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="7"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="8"/>
       <c r="B262" s="8"/>
       <c r="C262" s="9"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="7"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="8"/>
       <c r="B264" s="8"/>
       <c r="C264" s="9"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="7"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="8"/>
       <c r="B266" s="8"/>
       <c r="C266" s="9"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="7"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="C268" s="9"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="7"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="8"/>
       <c r="B270" s="8"/>
       <c r="C270" s="9"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="7"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="8"/>
       <c r="B272" s="8"/>
       <c r="C272" s="9"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="7"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="8"/>
       <c r="B274" s="8"/>
       <c r="C274" s="9"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="7"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="8"/>
       <c r="B276" s="8"/>
       <c r="C276" s="9"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="7"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="8"/>
       <c r="B278" s="8"/>
       <c r="C278" s="9"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="7"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="8"/>
       <c r="B280" s="8"/>
       <c r="C280" s="9"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="7"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="8"/>
       <c r="B282" s="8"/>
       <c r="C282" s="9"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="7"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="8"/>
       <c r="B284" s="8"/>
       <c r="C284" s="9"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="7"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="8"/>
       <c r="B286" s="8"/>
       <c r="C286" s="9"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="7"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="8"/>
       <c r="B288" s="8"/>
       <c r="C288" s="9"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="7"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="8"/>
       <c r="B290" s="8"/>
       <c r="C290" s="9"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="7"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="8"/>
       <c r="B292" s="8"/>
       <c r="C292" s="9"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="7"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="8"/>
       <c r="B294" s="8"/>
       <c r="C294" s="9"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="7"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="8"/>
       <c r="B296" s="8"/>
       <c r="C296" s="9"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="7"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="8"/>
       <c r="B298" s="8"/>
       <c r="C298" s="9"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="7"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="8"/>
       <c r="B300" s="8"/>
       <c r="C300" s="9"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="7"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="8"/>
       <c r="B302" s="8"/>
       <c r="C302" s="9"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="7"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="8"/>
       <c r="B304" s="8"/>
       <c r="C304" s="9"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="7"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="8"/>
       <c r="B306" s="8"/>
       <c r="C306" s="9"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="7"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="8"/>
       <c r="B308" s="8"/>
       <c r="C308" s="9"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="7"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="8"/>
       <c r="B310" s="8"/>
       <c r="C310" s="9"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="7"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="8"/>
       <c r="B312" s="8"/>
       <c r="C312" s="9"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="7"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="8"/>
       <c r="B314" s="8"/>
       <c r="C314" s="9"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="7"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="8"/>
       <c r="B316" s="8"/>
       <c r="C316" s="9"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="7"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="8"/>
       <c r="B318" s="8"/>
       <c r="C318" s="9"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="7"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="8"/>
       <c r="B320" s="8"/>
       <c r="C320" s="9"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="7"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="8"/>
       <c r="B322" s="8"/>
       <c r="C322" s="9"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="7"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="8"/>
       <c r="B324" s="8"/>
       <c r="C324" s="9"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="7"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="8"/>
       <c r="B326" s="8"/>
       <c r="C326" s="9"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="7"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="8"/>
       <c r="B328" s="8"/>
       <c r="C328" s="9"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="7"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="8"/>
       <c r="B330" s="8"/>
       <c r="C330" s="9"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="7"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="8"/>
       <c r="B332" s="8"/>
       <c r="C332" s="9"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="7"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="8"/>
       <c r="B334" s="8"/>
       <c r="C334" s="9"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="7"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="8"/>
       <c r="B336" s="8"/>
       <c r="C336" s="9"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="7"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="8"/>
       <c r="B338" s="8"/>
       <c r="C338" s="9"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="7"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="8"/>
       <c r="B340" s="8"/>
       <c r="C340" s="9"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="7"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="8"/>
       <c r="B342" s="8"/>
       <c r="C342" s="9"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="7"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="8"/>
       <c r="B344" s="8"/>
       <c r="C344" s="9"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="7"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="8"/>
       <c r="B346" s="8"/>
       <c r="C346" s="9"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="7"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="8"/>
       <c r="B348" s="8"/>
       <c r="C348" s="9"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="7"/>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="8"/>
       <c r="B350" s="8"/>
       <c r="C350" s="9"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="7"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="8"/>
       <c r="B352" s="8"/>
       <c r="C352" s="9"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="7"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="8"/>
       <c r="B354" s="8"/>
       <c r="C354" s="9"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="7"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="8"/>
       <c r="B356" s="8"/>
       <c r="C356" s="9"/>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="7"/>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="8"/>
       <c r="B358" s="8"/>
       <c r="C358" s="9"/>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="7"/>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="8"/>
       <c r="B360" s="8"/>
       <c r="C360" s="9"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="7"/>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="8"/>
       <c r="B362" s="8"/>
       <c r="C362" s="9"/>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="7"/>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="8"/>
       <c r="B364" s="8"/>
       <c r="C364" s="9"/>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="7"/>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="8"/>
       <c r="B366" s="8"/>
       <c r="C366" s="9"/>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="7"/>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="8"/>
       <c r="B368" s="8"/>
       <c r="C368" s="9"/>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="7"/>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="8"/>
       <c r="B370" s="8"/>
       <c r="C370" s="9"/>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="7"/>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="8"/>
       <c r="B372" s="8"/>
       <c r="C372" s="9"/>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="7"/>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="8"/>
       <c r="B374" s="8"/>
       <c r="C374" s="9"/>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="7"/>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="8"/>
       <c r="B376" s="8"/>
       <c r="C376" s="9"/>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="7"/>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="8"/>
       <c r="B378" s="8"/>
       <c r="C378" s="9"/>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="7"/>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="8"/>
       <c r="B380" s="8"/>
       <c r="C380" s="9"/>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="7"/>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="8"/>
       <c r="B382" s="8"/>
       <c r="C382" s="9"/>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="7"/>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="8"/>
       <c r="B384" s="8"/>
       <c r="C384" s="9"/>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="7"/>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="8"/>
       <c r="B386" s="8"/>
       <c r="C386" s="9"/>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="7"/>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="8"/>
       <c r="B388" s="8"/>
       <c r="C388" s="9"/>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="7"/>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="8"/>
       <c r="B390" s="8"/>
       <c r="C390" s="9"/>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="7"/>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="8"/>
       <c r="B392" s="8"/>
       <c r="C392" s="9"/>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="7"/>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="8"/>
       <c r="B394" s="8"/>
       <c r="C394" s="9"/>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="7"/>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="8"/>
       <c r="B396" s="8"/>
       <c r="C396" s="9"/>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="7"/>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="8"/>
       <c r="B398" s="8"/>
       <c r="C398" s="9"/>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="7"/>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="8"/>
       <c r="B400" s="8"/>
       <c r="C400" s="9"/>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="7"/>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="8"/>
       <c r="B402" s="8"/>
       <c r="C402" s="9"/>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="7"/>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="8"/>
       <c r="B404" s="8"/>
       <c r="C404" s="9"/>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="7"/>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="8"/>
       <c r="B406" s="8"/>
       <c r="C406" s="9"/>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="7"/>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="8"/>
       <c r="B408" s="8"/>
       <c r="C408" s="9"/>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="7"/>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="8"/>
       <c r="B410" s="8"/>
       <c r="C410" s="9"/>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="7"/>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="8"/>
       <c r="B412" s="8"/>
       <c r="C412" s="9"/>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="7"/>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="8"/>
       <c r="B414" s="8"/>
       <c r="C414" s="9"/>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="7"/>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="8"/>
       <c r="B416" s="8"/>
       <c r="C416" s="9"/>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="7"/>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="8"/>
       <c r="B418" s="8"/>
       <c r="C418" s="9"/>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="7"/>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="8"/>
       <c r="B420" s="8"/>
       <c r="C420" s="9"/>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="7"/>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="8"/>
       <c r="B422" s="8"/>
       <c r="C422" s="9"/>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="7"/>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="8"/>
       <c r="B424" s="8"/>
       <c r="C424" s="9"/>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="7"/>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="8"/>
       <c r="B426" s="8"/>
       <c r="C426" s="9"/>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="7"/>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="8"/>
       <c r="B428" s="8"/>
       <c r="C428" s="9"/>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="7"/>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="8"/>
       <c r="B430" s="8"/>
       <c r="C430" s="9"/>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="7"/>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="8"/>
       <c r="B432" s="8"/>
       <c r="C432" s="9"/>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="7"/>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="8"/>
       <c r="B434" s="8"/>
       <c r="C434" s="9"/>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="7"/>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="8"/>
       <c r="B436" s="8"/>
       <c r="C436" s="9"/>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="7"/>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="8"/>
       <c r="B438" s="8"/>
       <c r="C438" s="9"/>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="7"/>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="8"/>
       <c r="B440" s="8"/>
       <c r="C440" s="9"/>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="7"/>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="8"/>
       <c r="B442" s="8"/>
       <c r="C442" s="9"/>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="7"/>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="8"/>
       <c r="B444" s="8"/>
       <c r="C444" s="9"/>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="7"/>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="8"/>
       <c r="B446" s="8"/>
       <c r="C446" s="9"/>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="7"/>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="8"/>
       <c r="B448" s="8"/>
       <c r="C448" s="9"/>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="7"/>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="8"/>
       <c r="B450" s="8"/>
       <c r="C450" s="9"/>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="7"/>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="8"/>
       <c r="B452" s="8"/>
       <c r="C452" s="9"/>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="7"/>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="8"/>
       <c r="B454" s="8"/>
       <c r="C454" s="9"/>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="7"/>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="8"/>
       <c r="B456" s="8"/>
       <c r="C456" s="9"/>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="7"/>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="8"/>
       <c r="B458" s="8"/>
       <c r="C458" s="9"/>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="7"/>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="8"/>
       <c r="B460" s="8"/>
       <c r="C460" s="9"/>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="7"/>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="8"/>
       <c r="B462" s="8"/>
       <c r="C462" s="9"/>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="7"/>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="8"/>
       <c r="B464" s="8"/>
       <c r="C464" s="9"/>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="7"/>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="8"/>
       <c r="B466" s="8"/>
       <c r="C466" s="9"/>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="7"/>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="8"/>
       <c r="B468" s="8"/>
       <c r="C468" s="9"/>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="7"/>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="8"/>
       <c r="B470" s="8"/>
       <c r="C470" s="9"/>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="7"/>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="8"/>
       <c r="B472" s="8"/>
       <c r="C472" s="9"/>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="7"/>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="8"/>
       <c r="B474" s="8"/>
       <c r="C474" s="9"/>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="7"/>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="8"/>
       <c r="B476" s="8"/>
       <c r="C476" s="9"/>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="7"/>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="8"/>
       <c r="B478" s="8"/>
       <c r="C478" s="9"/>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="7"/>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="8"/>
       <c r="B480" s="8"/>
       <c r="C480" s="9"/>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="7"/>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="8"/>
       <c r="B482" s="8"/>
       <c r="C482" s="9"/>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="7"/>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="8"/>
       <c r="B484" s="8"/>
       <c r="C484" s="9"/>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="7"/>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="8"/>
       <c r="B486" s="8"/>
       <c r="C486" s="9"/>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="7"/>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="8"/>
       <c r="B488" s="8"/>
       <c r="C488" s="9"/>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="7"/>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="8"/>
       <c r="B490" s="8"/>
       <c r="C490" s="9"/>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="7"/>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="8"/>
       <c r="B492" s="8"/>
       <c r="C492" s="9"/>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="7"/>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="8"/>
       <c r="B494" s="8"/>
       <c r="C494" s="9"/>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="7"/>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="8"/>
       <c r="B496" s="8"/>
       <c r="C496" s="9"/>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="7"/>
@@ -3228,32 +3252,32 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.453125"/>
-    <col min="2" max="2" width="20.54296875"/>
+    <col min="1" max="1" width="21.42578125"/>
+    <col min="2" max="2" width="20.5703125"/>
     <col min="3" max="3" width="23"/>
-    <col min="4" max="4" width="15.7265625"/>
-    <col min="5" max="1025" width="8.1796875"/>
+    <col min="4" max="4" width="15.7109375"/>
+    <col min="5" max="1025" width="8.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>10</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>7</v>
@@ -3266,9 +3290,9 @@
         <v>42578</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -3281,9 +3305,9 @@
         <v>42579</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
@@ -3296,9 +3320,9 @@
         <v>42581</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
@@ -3311,9 +3335,9 @@
         <v>42585</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
@@ -3325,1465 +3349,1465 @@
         <v>42589</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" s="16" t="str">
         <f ca="1">IF(Completed!A7&lt;&gt;"", IF(Completed!D7="", TODAY(), Completed!D7), "")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" s="16" t="str">
         <f ca="1">IF(Completed!A8&lt;&gt;"", IF(Completed!D8="", TODAY(), Completed!D8), "")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" s="16" t="str">
         <f ca="1">IF(Completed!A9&lt;&gt;"", IF(Completed!D9="", TODAY(), Completed!D9), "")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" s="16" t="str">
         <f ca="1">IF(Completed!A10&lt;&gt;"", IF(Completed!D10="", TODAY(), Completed!D10), "")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" s="16" t="str">
         <f ca="1">IF(Completed!A11&lt;&gt;"", IF(Completed!D11="", TODAY(), Completed!D11), "")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" s="16" t="str">
         <f ca="1">IF(Completed!A12&lt;&gt;"", IF(Completed!D12="", TODAY(), Completed!D12), "")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" s="16" t="str">
         <f ca="1">IF(Completed!A13&lt;&gt;"", IF(Completed!D13="", TODAY(), Completed!D13), "")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" s="16" t="str">
         <f ca="1">IF(Completed!A14&lt;&gt;"", IF(Completed!D14="", TODAY(), Completed!D14), "")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="16" t="str">
         <f ca="1">IF(Completed!A15&lt;&gt;"", IF(Completed!D15="", TODAY(), Completed!D15), "")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="16" t="str">
         <f ca="1">IF(Completed!A16&lt;&gt;"", IF(Completed!D16="", TODAY(), Completed!D16), "")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="16" t="str">
         <f ca="1">IF(Completed!A17&lt;&gt;"", IF(Completed!D17="", TODAY(), Completed!D17), "")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="16" t="str">
         <f ca="1">IF(Completed!A18&lt;&gt;"", IF(Completed!D18="", TODAY(), Completed!D18), "")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="16" t="str">
         <f ca="1">IF(Completed!A19&lt;&gt;"", IF(Completed!D19="", TODAY(), Completed!D19), "")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="16" t="str">
         <f ca="1">IF(Completed!A20&lt;&gt;"", IF(Completed!D20="", TODAY(), Completed!D20), "")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="16" t="str">
         <f ca="1">IF(Completed!A21&lt;&gt;"", IF(Completed!D21="", TODAY(), Completed!D21), "")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="16" t="str">
         <f ca="1">IF(Completed!A22&lt;&gt;"", IF(Completed!D22="", TODAY(), Completed!D22), "")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="16" t="str">
         <f ca="1">IF(Completed!A23&lt;&gt;"", IF(Completed!D23="", TODAY(), Completed!D23), "")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="16" t="str">
         <f ca="1">IF(Completed!A24&lt;&gt;"", IF(Completed!D24="", TODAY(), Completed!D24), "")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="16" t="str">
         <f ca="1">IF(Completed!A25&lt;&gt;"", IF(Completed!D25="", TODAY(), Completed!D25), "")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="16" t="str">
         <f ca="1">IF(Completed!A26&lt;&gt;"", IF(Completed!D26="", TODAY(), Completed!D26), "")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="16" t="str">
         <f ca="1">IF(Completed!A27&lt;&gt;"", IF(Completed!D27="", TODAY(), Completed!D27), "")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="16" t="str">
         <f ca="1">IF(Completed!A28&lt;&gt;"", IF(Completed!D28="", TODAY(), Completed!D28), "")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="16" t="str">
         <f ca="1">IF(Completed!A29&lt;&gt;"", IF(Completed!D29="", TODAY(), Completed!D29), "")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="16" t="str">
         <f ca="1">IF(Completed!A30&lt;&gt;"", IF(Completed!D30="", TODAY(), Completed!D30), "")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="16" t="str">
         <f ca="1">IF(Completed!A31&lt;&gt;"", IF(Completed!D31="", TODAY(), Completed!D31), "")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="16" t="str">
         <f ca="1">IF(Completed!A32&lt;&gt;"", IF(Completed!D32="", TODAY(), Completed!D32), "")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="16" t="str">
         <f ca="1">IF(Completed!A33&lt;&gt;"", IF(Completed!D33="", TODAY(), Completed!D33), "")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="16" t="str">
         <f ca="1">IF(Completed!A34&lt;&gt;"", IF(Completed!D34="", TODAY(), Completed!D34), "")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="16" t="str">
         <f ca="1">IF(Completed!A35&lt;&gt;"", IF(Completed!D35="", TODAY(), Completed!D35), "")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="16" t="str">
         <f ca="1">IF(Completed!A36&lt;&gt;"", IF(Completed!D36="", TODAY(), Completed!D36), "")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="16" t="str">
         <f ca="1">IF(Completed!A37&lt;&gt;"", IF(Completed!D37="", TODAY(), Completed!D37), "")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="16" t="str">
         <f ca="1">IF(Completed!A38&lt;&gt;"", IF(Completed!D38="", TODAY(), Completed!D38), "")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="16" t="str">
         <f ca="1">IF(Completed!A39&lt;&gt;"", IF(Completed!D39="", TODAY(), Completed!D39), "")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="16" t="str">
         <f ca="1">IF(Completed!A40&lt;&gt;"", IF(Completed!D40="", TODAY(), Completed!D40), "")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="16" t="str">
         <f ca="1">IF(Completed!A41&lt;&gt;"", IF(Completed!D41="", TODAY(), Completed!D41), "")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="16" t="str">
         <f ca="1">IF(Completed!A42&lt;&gt;"", IF(Completed!D42="", TODAY(), Completed!D42), "")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="16" t="str">
         <f ca="1">IF(Completed!A43&lt;&gt;"", IF(Completed!D43="", TODAY(), Completed!D43), "")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="16" t="str">
         <f ca="1">IF(Completed!A44&lt;&gt;"", IF(Completed!D44="", TODAY(), Completed!D44), "")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="16" t="str">
         <f ca="1">IF(Completed!A45&lt;&gt;"", IF(Completed!D45="", TODAY(), Completed!D45), "")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="16" t="str">
         <f ca="1">IF(Completed!A46&lt;&gt;"", IF(Completed!D46="", TODAY(), Completed!D46), "")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="16" t="str">
         <f ca="1">IF(Completed!A47&lt;&gt;"", IF(Completed!D47="", TODAY(), Completed!D47), "")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="16" t="str">
         <f ca="1">IF(Completed!A48&lt;&gt;"", IF(Completed!D48="", TODAY(), Completed!D48), "")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="16" t="str">
         <f ca="1">IF(Completed!A49&lt;&gt;"", IF(Completed!D49="", TODAY(), Completed!D49), "")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="16" t="str">
         <f ca="1">IF(Completed!A50&lt;&gt;"", IF(Completed!D50="", TODAY(), Completed!D50), "")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="16" t="str">
         <f ca="1">IF(Completed!A51&lt;&gt;"", IF(Completed!D51="", TODAY(), Completed!D51), "")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="16" t="str">
         <f ca="1">IF(Completed!A52&lt;&gt;"", IF(Completed!D52="", TODAY(), Completed!D52), "")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="16" t="str">
         <f ca="1">IF(Completed!A53&lt;&gt;"", IF(Completed!D53="", TODAY(), Completed!D53), "")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="16" t="str">
         <f ca="1">IF(Completed!A54&lt;&gt;"", IF(Completed!D54="", TODAY(), Completed!D54), "")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="16" t="str">
         <f ca="1">IF(Completed!A55&lt;&gt;"", IF(Completed!D55="", TODAY(), Completed!D55), "")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="16" t="str">
         <f ca="1">IF(Completed!A56&lt;&gt;"", IF(Completed!D56="", TODAY(), Completed!D56), "")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="16" t="str">
         <f ca="1">IF(Completed!A57&lt;&gt;"", IF(Completed!D57="", TODAY(), Completed!D57), "")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="16" t="str">
         <f ca="1">IF(Completed!A58&lt;&gt;"", IF(Completed!D58="", TODAY(), Completed!D58), "")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="16" t="str">
         <f ca="1">IF(Completed!A59&lt;&gt;"", IF(Completed!D59="", TODAY(), Completed!D59), "")</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="16" t="str">
         <f ca="1">IF(Completed!A60&lt;&gt;"", IF(Completed!D60="", TODAY(), Completed!D60), "")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="16" t="str">
         <f ca="1">IF(Completed!A61&lt;&gt;"", IF(Completed!D61="", TODAY(), Completed!D61), "")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="16" t="str">
         <f ca="1">IF(Completed!A62&lt;&gt;"", IF(Completed!D62="", TODAY(), Completed!D62), "")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="16" t="str">
         <f ca="1">IF(Completed!A63&lt;&gt;"", IF(Completed!D63="", TODAY(), Completed!D63), "")</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="16" t="str">
         <f ca="1">IF(Completed!A64&lt;&gt;"", IF(Completed!D64="", TODAY(), Completed!D64), "")</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="16" t="str">
         <f ca="1">IF(Completed!A65&lt;&gt;"", IF(Completed!D65="", TODAY(), Completed!D65), "")</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="16" t="str">
         <f ca="1">IF(Completed!A66&lt;&gt;"", IF(Completed!D66="", TODAY(), Completed!D66), "")</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="16" t="str">
         <f ca="1">IF(Completed!A67&lt;&gt;"", IF(Completed!D67="", TODAY(), Completed!D67), "")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="16" t="str">
         <f ca="1">IF(Completed!A68&lt;&gt;"", IF(Completed!D68="", TODAY(), Completed!D68), "")</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="16" t="str">
         <f ca="1">IF(Completed!A69&lt;&gt;"", IF(Completed!D69="", TODAY(), Completed!D69), "")</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="16" t="str">
         <f ca="1">IF(Completed!A70&lt;&gt;"", IF(Completed!D70="", TODAY(), Completed!D70), "")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="16" t="str">
         <f ca="1">IF(Completed!A71&lt;&gt;"", IF(Completed!D71="", TODAY(), Completed!D71), "")</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="16" t="str">
         <f ca="1">IF(Completed!A72&lt;&gt;"", IF(Completed!D72="", TODAY(), Completed!D72), "")</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="16" t="str">
         <f ca="1">IF(Completed!A73&lt;&gt;"", IF(Completed!D73="", TODAY(), Completed!D73), "")</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="16" t="str">
         <f ca="1">IF(Completed!A74&lt;&gt;"", IF(Completed!D74="", TODAY(), Completed!D74), "")</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="16" t="str">
         <f ca="1">IF(Completed!A75&lt;&gt;"", IF(Completed!D75="", TODAY(), Completed!D75), "")</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="16" t="str">
         <f ca="1">IF(Completed!A76&lt;&gt;"", IF(Completed!D76="", TODAY(), Completed!D76), "")</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="16" t="str">
         <f ca="1">IF(Completed!A77&lt;&gt;"", IF(Completed!D77="", TODAY(), Completed!D77), "")</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="16" t="str">
         <f ca="1">IF(Completed!A78&lt;&gt;"", IF(Completed!D78="", TODAY(), Completed!D78), "")</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="16" t="str">
         <f ca="1">IF(Completed!A79&lt;&gt;"", IF(Completed!D79="", TODAY(), Completed!D79), "")</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="16" t="str">
         <f ca="1">IF(Completed!A80&lt;&gt;"", IF(Completed!D80="", TODAY(), Completed!D80), "")</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="16" t="str">
         <f ca="1">IF(Completed!A81&lt;&gt;"", IF(Completed!D81="", TODAY(), Completed!D81), "")</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="16" t="str">
         <f ca="1">IF(Completed!A82&lt;&gt;"", IF(Completed!D82="", TODAY(), Completed!D82), "")</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="16" t="str">
         <f ca="1">IF(Completed!A83&lt;&gt;"", IF(Completed!D83="", TODAY(), Completed!D83), "")</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="16" t="str">
         <f ca="1">IF(Completed!A84&lt;&gt;"", IF(Completed!D84="", TODAY(), Completed!D84), "")</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="16" t="str">
         <f ca="1">IF(Completed!A85&lt;&gt;"", IF(Completed!D85="", TODAY(), Completed!D85), "")</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="16" t="str">
         <f ca="1">IF(Completed!A86&lt;&gt;"", IF(Completed!D86="", TODAY(), Completed!D86), "")</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="16" t="str">
         <f ca="1">IF(Completed!A87&lt;&gt;"", IF(Completed!D87="", TODAY(), Completed!D87), "")</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="16" t="str">
         <f ca="1">IF(Completed!A88&lt;&gt;"", IF(Completed!D88="", TODAY(), Completed!D88), "")</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="16" t="str">
         <f ca="1">IF(Completed!A89&lt;&gt;"", IF(Completed!D89="", TODAY(), Completed!D89), "")</f>
         <v/>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="16" t="str">
         <f ca="1">IF(Completed!A90&lt;&gt;"", IF(Completed!D90="", TODAY(), Completed!D90), "")</f>
         <v/>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="16" t="str">
         <f ca="1">IF(Completed!A91&lt;&gt;"", IF(Completed!D91="", TODAY(), Completed!D91), "")</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="16" t="str">
         <f ca="1">IF(Completed!A92&lt;&gt;"", IF(Completed!D92="", TODAY(), Completed!D92), "")</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="16" t="str">
         <f ca="1">IF(Completed!A93&lt;&gt;"", IF(Completed!D93="", TODAY(), Completed!D93), "")</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="16" t="str">
         <f ca="1">IF(Completed!A94&lt;&gt;"", IF(Completed!D94="", TODAY(), Completed!D94), "")</f>
         <v/>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" s="16" t="str">
         <f ca="1">IF(Completed!A95&lt;&gt;"", IF(Completed!D95="", TODAY(), Completed!D95), "")</f>
         <v/>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" s="16" t="str">
         <f ca="1">IF(Completed!A96&lt;&gt;"", IF(Completed!D96="", TODAY(), Completed!D96), "")</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="16" t="str">
         <f ca="1">IF(Completed!A97&lt;&gt;"", IF(Completed!D97="", TODAY(), Completed!D97), "")</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="16" t="str">
         <f ca="1">IF(Completed!A98&lt;&gt;"", IF(Completed!D98="", TODAY(), Completed!D98), "")</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="16" t="str">
         <f ca="1">IF(Completed!A99&lt;&gt;"", IF(Completed!D99="", TODAY(), Completed!D99), "")</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="16" t="str">
         <f ca="1">IF(Completed!A100&lt;&gt;"", IF(Completed!D100="", TODAY(), Completed!D100), "")</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="16" t="str">
         <f ca="1">IF(Completed!A101&lt;&gt;"", IF(Completed!D101="", TODAY(), Completed!D101), "")</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="16" t="str">
         <f ca="1">IF(Completed!A102&lt;&gt;"", IF(Completed!D102="", TODAY(), Completed!D102), "")</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="16" t="str">
         <f ca="1">IF(Completed!A103&lt;&gt;"", IF(Completed!D103="", TODAY(), Completed!D103), "")</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="16" t="str">
         <f ca="1">IF(Completed!A104&lt;&gt;"", IF(Completed!D104="", TODAY(), Completed!D104), "")</f>
         <v/>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="16" t="str">
         <f ca="1">IF(Completed!A105&lt;&gt;"", IF(Completed!D105="", TODAY(), Completed!D105), "")</f>
         <v/>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="16" t="str">
         <f ca="1">IF(Completed!A106&lt;&gt;"", IF(Completed!D106="", TODAY(), Completed!D106), "")</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="16" t="str">
         <f ca="1">IF(Completed!A107&lt;&gt;"", IF(Completed!D107="", TODAY(), Completed!D107), "")</f>
         <v/>
       </c>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="16" t="str">
         <f ca="1">IF(Completed!A108&lt;&gt;"", IF(Completed!D108="", TODAY(), Completed!D108), "")</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="16" t="str">
         <f ca="1">IF(Completed!A109&lt;&gt;"", IF(Completed!D109="", TODAY(), Completed!D109), "")</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="16" t="str">
         <f ca="1">IF(Completed!A110&lt;&gt;"", IF(Completed!D110="", TODAY(), Completed!D110), "")</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="16" t="str">
         <f ca="1">IF(Completed!A111&lt;&gt;"", IF(Completed!D111="", TODAY(), Completed!D111), "")</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="16" t="str">
         <f ca="1">IF(Completed!A112&lt;&gt;"", IF(Completed!D112="", TODAY(), Completed!D112), "")</f>
         <v/>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="16" t="str">
         <f ca="1">IF(Completed!A113&lt;&gt;"", IF(Completed!D113="", TODAY(), Completed!D113), "")</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="16" t="str">
         <f ca="1">IF(Completed!A114&lt;&gt;"", IF(Completed!D114="", TODAY(), Completed!D114), "")</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="16" t="str">
         <f ca="1">IF(Completed!A115&lt;&gt;"", IF(Completed!D115="", TODAY(), Completed!D115), "")</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="16" t="str">
         <f ca="1">IF(Completed!A116&lt;&gt;"", IF(Completed!D116="", TODAY(), Completed!D116), "")</f>
         <v/>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="16" t="str">
         <f ca="1">IF(Completed!A117&lt;&gt;"", IF(Completed!D117="", TODAY(), Completed!D117), "")</f>
         <v/>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="16" t="str">
         <f ca="1">IF(Completed!A118&lt;&gt;"", IF(Completed!D118="", TODAY(), Completed!D118), "")</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="16" t="str">
         <f ca="1">IF(Completed!A119&lt;&gt;"", IF(Completed!D119="", TODAY(), Completed!D119), "")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="16" t="str">
         <f ca="1">IF(Completed!A120&lt;&gt;"", IF(Completed!D120="", TODAY(), Completed!D120), "")</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="16" t="str">
         <f ca="1">IF(Completed!A121&lt;&gt;"", IF(Completed!D121="", TODAY(), Completed!D121), "")</f>
         <v/>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="16" t="str">
         <f ca="1">IF(Completed!A122&lt;&gt;"", IF(Completed!D122="", TODAY(), Completed!D122), "")</f>
         <v/>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="16" t="str">
         <f ca="1">IF(Completed!A123&lt;&gt;"", IF(Completed!D123="", TODAY(), Completed!D123), "")</f>
         <v/>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="16" t="str">
         <f ca="1">IF(Completed!A124&lt;&gt;"", IF(Completed!D124="", TODAY(), Completed!D124), "")</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="16" t="str">
         <f ca="1">IF(Completed!A125&lt;&gt;"", IF(Completed!D125="", TODAY(), Completed!D125), "")</f>
         <v/>
       </c>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="16" t="str">
         <f ca="1">IF(Completed!A126&lt;&gt;"", IF(Completed!D126="", TODAY(), Completed!D126), "")</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="16" t="str">
         <f ca="1">IF(Completed!A127&lt;&gt;"", IF(Completed!D127="", TODAY(), Completed!D127), "")</f>
         <v/>
       </c>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="16" t="str">
         <f ca="1">IF(Completed!A128&lt;&gt;"", IF(Completed!D128="", TODAY(), Completed!D128), "")</f>
         <v/>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="16" t="str">
         <f ca="1">IF(Completed!A129&lt;&gt;"", IF(Completed!D129="", TODAY(), Completed!D129), "")</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="16" t="str">
         <f ca="1">IF(Completed!A130&lt;&gt;"", IF(Completed!D130="", TODAY(), Completed!D130), "")</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="16" t="str">
         <f ca="1">IF(Completed!A131&lt;&gt;"", IF(Completed!D131="", TODAY(), Completed!D131), "")</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="16" t="str">
         <f ca="1">IF(Completed!A132&lt;&gt;"", IF(Completed!D132="", TODAY(), Completed!D132), "")</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="16" t="str">
         <f ca="1">IF(Completed!A133&lt;&gt;"", IF(Completed!D133="", TODAY(), Completed!D133), "")</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="16" t="str">
         <f ca="1">IF(Completed!A134&lt;&gt;"", IF(Completed!D134="", TODAY(), Completed!D134), "")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="16" t="str">
         <f ca="1">IF(Completed!A135&lt;&gt;"", IF(Completed!D135="", TODAY(), Completed!D135), "")</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="16" t="str">
         <f ca="1">IF(Completed!A136&lt;&gt;"", IF(Completed!D136="", TODAY(), Completed!D136), "")</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="16" t="str">
         <f ca="1">IF(Completed!A137&lt;&gt;"", IF(Completed!D137="", TODAY(), Completed!D137), "")</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="16" t="str">
         <f ca="1">IF(Completed!A138&lt;&gt;"", IF(Completed!D138="", TODAY(), Completed!D138), "")</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="16" t="str">
         <f ca="1">IF(Completed!A139&lt;&gt;"", IF(Completed!D139="", TODAY(), Completed!D139), "")</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="16" t="str">
         <f ca="1">IF(Completed!A140&lt;&gt;"", IF(Completed!D140="", TODAY(), Completed!D140), "")</f>
         <v/>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="16" t="str">
         <f ca="1">IF(Completed!A141&lt;&gt;"", IF(Completed!D141="", TODAY(), Completed!D141), "")</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="16" t="str">
         <f ca="1">IF(Completed!A142&lt;&gt;"", IF(Completed!D142="", TODAY(), Completed!D142), "")</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="16" t="str">
         <f ca="1">IF(Completed!A143&lt;&gt;"", IF(Completed!D143="", TODAY(), Completed!D143), "")</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="16" t="str">
         <f ca="1">IF(Completed!A144&lt;&gt;"", IF(Completed!D144="", TODAY(), Completed!D144), "")</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="16" t="str">
         <f ca="1">IF(Completed!A145&lt;&gt;"", IF(Completed!D145="", TODAY(), Completed!D145), "")</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="16" t="str">
         <f ca="1">IF(Completed!A146&lt;&gt;"", IF(Completed!D146="", TODAY(), Completed!D146), "")</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="16" t="str">
         <f ca="1">IF(Completed!A147&lt;&gt;"", IF(Completed!D147="", TODAY(), Completed!D147), "")</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="16" t="str">
         <f ca="1">IF(Completed!A148&lt;&gt;"", IF(Completed!D148="", TODAY(), Completed!D148), "")</f>
         <v/>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="16" t="str">
         <f ca="1">IF(Completed!A149&lt;&gt;"", IF(Completed!D149="", TODAY(), Completed!D149), "")</f>
         <v/>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="16" t="str">
         <f ca="1">IF(Completed!A150&lt;&gt;"", IF(Completed!D150="", TODAY(), Completed!D150), "")</f>
         <v/>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="16" t="str">
         <f ca="1">IF(Completed!A151&lt;&gt;"", IF(Completed!D151="", TODAY(), Completed!D151), "")</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="16" t="str">
         <f ca="1">IF(Completed!A152&lt;&gt;"", IF(Completed!D152="", TODAY(), Completed!D152), "")</f>
         <v/>
       </c>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="16" t="str">
         <f ca="1">IF(Completed!A153&lt;&gt;"", IF(Completed!D153="", TODAY(), Completed!D153), "")</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="16" t="str">
         <f ca="1">IF(Completed!A154&lt;&gt;"", IF(Completed!D154="", TODAY(), Completed!D154), "")</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="16" t="str">
         <f ca="1">IF(Completed!A155&lt;&gt;"", IF(Completed!D155="", TODAY(), Completed!D155), "")</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="16" t="str">
         <f ca="1">IF(Completed!A156&lt;&gt;"", IF(Completed!D156="", TODAY(), Completed!D156), "")</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="16" t="str">
         <f ca="1">IF(Completed!A157&lt;&gt;"", IF(Completed!D157="", TODAY(), Completed!D157), "")</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="16" t="str">
         <f ca="1">IF(Completed!A158&lt;&gt;"", IF(Completed!D158="", TODAY(), Completed!D158), "")</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="16" t="str">
         <f ca="1">IF(Completed!A159&lt;&gt;"", IF(Completed!D159="", TODAY(), Completed!D159), "")</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="16" t="str">
         <f ca="1">IF(Completed!A160&lt;&gt;"", IF(Completed!D160="", TODAY(), Completed!D160), "")</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="16" t="str">
         <f ca="1">IF(Completed!A161&lt;&gt;"", IF(Completed!D161="", TODAY(), Completed!D161), "")</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="16" t="str">
         <f ca="1">IF(Completed!A162&lt;&gt;"", IF(Completed!D162="", TODAY(), Completed!D162), "")</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="16" t="str">
         <f ca="1">IF(Completed!A163&lt;&gt;"", IF(Completed!D163="", TODAY(), Completed!D163), "")</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" s="16" t="str">
         <f ca="1">IF(Completed!A164&lt;&gt;"", IF(Completed!D164="", TODAY(), Completed!D164), "")</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165" s="16" t="str">
         <f ca="1">IF(Completed!A165&lt;&gt;"", IF(Completed!D165="", TODAY(), Completed!D165), "")</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" s="16" t="str">
         <f ca="1">IF(Completed!A166&lt;&gt;"", IF(Completed!D166="", TODAY(), Completed!D166), "")</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167" s="16" t="str">
         <f ca="1">IF(Completed!A167&lt;&gt;"", IF(Completed!D167="", TODAY(), Completed!D167), "")</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168" s="16" t="str">
         <f ca="1">IF(Completed!A168&lt;&gt;"", IF(Completed!D168="", TODAY(), Completed!D168), "")</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169" s="16" t="str">
         <f ca="1">IF(Completed!A169&lt;&gt;"", IF(Completed!D169="", TODAY(), Completed!D169), "")</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170" s="16" t="str">
         <f ca="1">IF(Completed!A170&lt;&gt;"", IF(Completed!D170="", TODAY(), Completed!D170), "")</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" s="16" t="str">
         <f ca="1">IF(Completed!A171&lt;&gt;"", IF(Completed!D171="", TODAY(), Completed!D171), "")</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" s="16" t="str">
         <f ca="1">IF(Completed!A172&lt;&gt;"", IF(Completed!D172="", TODAY(), Completed!D172), "")</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" s="16" t="str">
         <f ca="1">IF(Completed!A173&lt;&gt;"", IF(Completed!D173="", TODAY(), Completed!D173), "")</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174" s="16" t="str">
         <f ca="1">IF(Completed!A174&lt;&gt;"", IF(Completed!D174="", TODAY(), Completed!D174), "")</f>
         <v/>
       </c>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175" s="16" t="str">
         <f ca="1">IF(Completed!A175&lt;&gt;"", IF(Completed!D175="", TODAY(), Completed!D175), "")</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176" s="16" t="str">
         <f ca="1">IF(Completed!A176&lt;&gt;"", IF(Completed!D176="", TODAY(), Completed!D176), "")</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" s="16" t="str">
         <f ca="1">IF(Completed!A177&lt;&gt;"", IF(Completed!D177="", TODAY(), Completed!D177), "")</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178" s="16" t="str">
         <f ca="1">IF(Completed!A178&lt;&gt;"", IF(Completed!D178="", TODAY(), Completed!D178), "")</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D179" s="16" t="str">
         <f ca="1">IF(Completed!A179&lt;&gt;"", IF(Completed!D179="", TODAY(), Completed!D179), "")</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180" s="16" t="str">
         <f ca="1">IF(Completed!A180&lt;&gt;"", IF(Completed!D180="", TODAY(), Completed!D180), "")</f>
         <v/>
       </c>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181" s="16" t="str">
         <f ca="1">IF(Completed!A181&lt;&gt;"", IF(Completed!D181="", TODAY(), Completed!D181), "")</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D182" s="16" t="str">
         <f ca="1">IF(Completed!A182&lt;&gt;"", IF(Completed!D182="", TODAY(), Completed!D182), "")</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D183" s="16" t="str">
         <f ca="1">IF(Completed!A183&lt;&gt;"", IF(Completed!D183="", TODAY(), Completed!D183), "")</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D184" s="16" t="str">
         <f ca="1">IF(Completed!A184&lt;&gt;"", IF(Completed!D184="", TODAY(), Completed!D184), "")</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185" s="16" t="str">
         <f ca="1">IF(Completed!A185&lt;&gt;"", IF(Completed!D185="", TODAY(), Completed!D185), "")</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D186" s="16" t="str">
         <f ca="1">IF(Completed!A186&lt;&gt;"", IF(Completed!D186="", TODAY(), Completed!D186), "")</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187" s="16" t="str">
         <f ca="1">IF(Completed!A187&lt;&gt;"", IF(Completed!D187="", TODAY(), Completed!D187), "")</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D188" s="16" t="str">
         <f ca="1">IF(Completed!A188&lt;&gt;"", IF(Completed!D188="", TODAY(), Completed!D188), "")</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189" s="16" t="str">
         <f ca="1">IF(Completed!A189&lt;&gt;"", IF(Completed!D189="", TODAY(), Completed!D189), "")</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D190" s="16" t="str">
         <f ca="1">IF(Completed!A190&lt;&gt;"", IF(Completed!D190="", TODAY(), Completed!D190), "")</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191" s="16" t="str">
         <f ca="1">IF(Completed!A191&lt;&gt;"", IF(Completed!D191="", TODAY(), Completed!D191), "")</f>
         <v/>
       </c>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D192" s="16" t="str">
         <f ca="1">IF(Completed!A192&lt;&gt;"", IF(Completed!D192="", TODAY(), Completed!D192), "")</f>
         <v/>
       </c>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193" s="16" t="str">
         <f ca="1">IF(Completed!A193&lt;&gt;"", IF(Completed!D193="", TODAY(), Completed!D193), "")</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D194" s="16" t="str">
         <f ca="1">IF(Completed!A194&lt;&gt;"", IF(Completed!D194="", TODAY(), Completed!D194), "")</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195" s="16" t="str">
         <f ca="1">IF(Completed!A195&lt;&gt;"", IF(Completed!D195="", TODAY(), Completed!D195), "")</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196" s="16" t="str">
         <f ca="1">IF(Completed!A196&lt;&gt;"", IF(Completed!D196="", TODAY(), Completed!D196), "")</f>
         <v/>
       </c>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D197" s="16" t="str">
         <f ca="1">IF(Completed!A197&lt;&gt;"", IF(Completed!D197="", TODAY(), Completed!D197), "")</f>
         <v/>
       </c>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198" s="16" t="str">
         <f ca="1">IF(Completed!A198&lt;&gt;"", IF(Completed!D198="", TODAY(), Completed!D198), "")</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D199" s="16" t="str">
         <f ca="1">IF(Completed!A199&lt;&gt;"", IF(Completed!D199="", TODAY(), Completed!D199), "")</f>
         <v/>
       </c>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200" s="16" t="str">
         <f ca="1">IF(Completed!A200&lt;&gt;"", IF(Completed!D200="", TODAY(), Completed!D200), "")</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D201" s="16" t="str">
         <f ca="1">IF(Completed!A201&lt;&gt;"", IF(Completed!D201="", TODAY(), Completed!D201), "")</f>
         <v/>
       </c>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D202" s="16" t="str">
         <f ca="1">IF(Completed!A202&lt;&gt;"", IF(Completed!D202="", TODAY(), Completed!D202), "")</f>
         <v/>
       </c>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D203" s="16" t="str">
         <f ca="1">IF(Completed!A203&lt;&gt;"", IF(Completed!D203="", TODAY(), Completed!D203), "")</f>
         <v/>
       </c>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204" s="16" t="str">
         <f ca="1">IF(Completed!A204&lt;&gt;"", IF(Completed!D204="", TODAY(), Completed!D204), "")</f>
         <v/>
       </c>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D205" s="16" t="str">
         <f ca="1">IF(Completed!A205&lt;&gt;"", IF(Completed!D205="", TODAY(), Completed!D205), "")</f>
         <v/>
       </c>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D206" s="16" t="str">
         <f ca="1">IF(Completed!A206&lt;&gt;"", IF(Completed!D206="", TODAY(), Completed!D206), "")</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D207" s="16" t="str">
         <f ca="1">IF(Completed!A207&lt;&gt;"", IF(Completed!D207="", TODAY(), Completed!D207), "")</f>
         <v/>
       </c>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D208" s="16" t="str">
         <f ca="1">IF(Completed!A208&lt;&gt;"", IF(Completed!D208="", TODAY(), Completed!D208), "")</f>
         <v/>
       </c>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D209" s="16" t="str">
         <f ca="1">IF(Completed!A209&lt;&gt;"", IF(Completed!D209="", TODAY(), Completed!D209), "")</f>
         <v/>
       </c>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D210" s="16" t="str">
         <f ca="1">IF(Completed!A210&lt;&gt;"", IF(Completed!D210="", TODAY(), Completed!D210), "")</f>
         <v/>
       </c>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D211" s="16" t="str">
         <f ca="1">IF(Completed!A211&lt;&gt;"", IF(Completed!D211="", TODAY(), Completed!D211), "")</f>
         <v/>
       </c>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D212" s="16" t="str">
         <f ca="1">IF(Completed!A212&lt;&gt;"", IF(Completed!D212="", TODAY(), Completed!D212), "")</f>
         <v/>
       </c>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D213" s="16" t="str">
         <f ca="1">IF(Completed!A213&lt;&gt;"", IF(Completed!D213="", TODAY(), Completed!D213), "")</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D214" s="16" t="str">
         <f ca="1">IF(Completed!A214&lt;&gt;"", IF(Completed!D214="", TODAY(), Completed!D214), "")</f>
         <v/>
       </c>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D215" s="16" t="str">
         <f ca="1">IF(Completed!A215&lt;&gt;"", IF(Completed!D215="", TODAY(), Completed!D215), "")</f>
         <v/>
       </c>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D216" s="16" t="str">
         <f ca="1">IF(Completed!A216&lt;&gt;"", IF(Completed!D216="", TODAY(), Completed!D216), "")</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D217" s="16" t="str">
         <f ca="1">IF(Completed!A217&lt;&gt;"", IF(Completed!D217="", TODAY(), Completed!D217), "")</f>
         <v/>
       </c>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D218" s="16" t="str">
         <f ca="1">IF(Completed!A218&lt;&gt;"", IF(Completed!D218="", TODAY(), Completed!D218), "")</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D219" s="16" t="str">
         <f ca="1">IF(Completed!A219&lt;&gt;"", IF(Completed!D219="", TODAY(), Completed!D219), "")</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D220" s="16" t="str">
         <f ca="1">IF(Completed!A220&lt;&gt;"", IF(Completed!D220="", TODAY(), Completed!D220), "")</f>
         <v/>
       </c>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D221" s="16" t="str">
         <f ca="1">IF(Completed!A221&lt;&gt;"", IF(Completed!D221="", TODAY(), Completed!D221), "")</f>
         <v/>
       </c>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D222" s="16" t="str">
         <f ca="1">IF(Completed!A222&lt;&gt;"", IF(Completed!D222="", TODAY(), Completed!D222), "")</f>
         <v/>
       </c>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D223" s="16" t="str">
         <f ca="1">IF(Completed!A223&lt;&gt;"", IF(Completed!D223="", TODAY(), Completed!D223), "")</f>
         <v/>
       </c>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D224" s="16" t="str">
         <f ca="1">IF(Completed!A224&lt;&gt;"", IF(Completed!D224="", TODAY(), Completed!D224), "")</f>
         <v/>
       </c>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D225" s="16" t="str">
         <f ca="1">IF(Completed!A225&lt;&gt;"", IF(Completed!D225="", TODAY(), Completed!D225), "")</f>
         <v/>
       </c>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D226" s="16" t="str">
         <f ca="1">IF(Completed!A226&lt;&gt;"", IF(Completed!D226="", TODAY(), Completed!D226), "")</f>
         <v/>
       </c>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D227" s="16" t="str">
         <f ca="1">IF(Completed!A227&lt;&gt;"", IF(Completed!D227="", TODAY(), Completed!D227), "")</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D228" s="16" t="str">
         <f ca="1">IF(Completed!A228&lt;&gt;"", IF(Completed!D228="", TODAY(), Completed!D228), "")</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D229" s="16" t="str">
         <f ca="1">IF(Completed!A229&lt;&gt;"", IF(Completed!D229="", TODAY(), Completed!D229), "")</f>
         <v/>
       </c>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D230" s="16" t="str">
         <f ca="1">IF(Completed!A230&lt;&gt;"", IF(Completed!D230="", TODAY(), Completed!D230), "")</f>
         <v/>
       </c>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D231" s="16" t="str">
         <f ca="1">IF(Completed!A231&lt;&gt;"", IF(Completed!D231="", TODAY(), Completed!D231), "")</f>
         <v/>
       </c>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D232" s="16" t="str">
         <f ca="1">IF(Completed!A232&lt;&gt;"", IF(Completed!D232="", TODAY(), Completed!D232), "")</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D233" s="16" t="str">
         <f ca="1">IF(Completed!A233&lt;&gt;"", IF(Completed!D233="", TODAY(), Completed!D233), "")</f>
         <v/>
       </c>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D234" s="16" t="str">
         <f ca="1">IF(Completed!A234&lt;&gt;"", IF(Completed!D234="", TODAY(), Completed!D234), "")</f>
         <v/>
       </c>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D235" s="16" t="str">
         <f ca="1">IF(Completed!A235&lt;&gt;"", IF(Completed!D235="", TODAY(), Completed!D235), "")</f>
         <v/>
       </c>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D236" s="16" t="str">
         <f ca="1">IF(Completed!A236&lt;&gt;"", IF(Completed!D236="", TODAY(), Completed!D236), "")</f>
         <v/>
       </c>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D237" s="16" t="str">
         <f ca="1">IF(Completed!A237&lt;&gt;"", IF(Completed!D237="", TODAY(), Completed!D237), "")</f>
         <v/>
       </c>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D238" s="16" t="str">
         <f ca="1">IF(Completed!A238&lt;&gt;"", IF(Completed!D238="", TODAY(), Completed!D238), "")</f>
         <v/>
       </c>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D239" s="16" t="str">
         <f ca="1">IF(Completed!A239&lt;&gt;"", IF(Completed!D239="", TODAY(), Completed!D239), "")</f>
         <v/>
       </c>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D240" s="16" t="str">
         <f ca="1">IF(Completed!A240&lt;&gt;"", IF(Completed!D240="", TODAY(), Completed!D240), "")</f>
         <v/>
       </c>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D241" s="16" t="str">
         <f ca="1">IF(Completed!A241&lt;&gt;"", IF(Completed!D241="", TODAY(), Completed!D241), "")</f>
         <v/>
       </c>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D242" s="16" t="str">
         <f ca="1">IF(Completed!A242&lt;&gt;"", IF(Completed!D242="", TODAY(), Completed!D242), "")</f>
         <v/>
       </c>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D243" s="16" t="str">
         <f ca="1">IF(Completed!A243&lt;&gt;"", IF(Completed!D243="", TODAY(), Completed!D243), "")</f>
         <v/>
       </c>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D244" s="16" t="str">
         <f ca="1">IF(Completed!A244&lt;&gt;"", IF(Completed!D244="", TODAY(), Completed!D244), "")</f>
         <v/>
       </c>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D245" s="16" t="str">
         <f ca="1">IF(Completed!A245&lt;&gt;"", IF(Completed!D245="", TODAY(), Completed!D245), "")</f>
         <v/>
       </c>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D246" s="16" t="str">
         <f ca="1">IF(Completed!A246&lt;&gt;"", IF(Completed!D246="", TODAY(), Completed!D246), "")</f>
         <v/>
       </c>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D247" s="16" t="str">
         <f ca="1">IF(Completed!A247&lt;&gt;"", IF(Completed!D247="", TODAY(), Completed!D247), "")</f>
         <v/>
       </c>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D248" s="16" t="str">
         <f ca="1">IF(Completed!A248&lt;&gt;"", IF(Completed!D248="", TODAY(), Completed!D248), "")</f>
         <v/>
       </c>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D249" s="16" t="str">
         <f ca="1">IF(Completed!A249&lt;&gt;"", IF(Completed!D249="", TODAY(), Completed!D249), "")</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D250" s="16" t="str">
         <f ca="1">IF(Completed!A250&lt;&gt;"", IF(Completed!D250="", TODAY(), Completed!D250), "")</f>
         <v/>
@@ -4818,24 +4842,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.1796875"/>
+    <col min="1" max="1025" width="8.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
